--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3189,7 +3189,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>The beforelife</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2929</v>
+        <v>3123</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:48:49</t>
+          <t>0:52:03</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4394</v>
+        <v>4684</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1:13:14</t>
+          <t>1:18:04</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,19 +3218,19 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_beforelife</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3239,19 +3239,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3123</v>
+        <v>3353</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:52:03</t>
+          <t>0:55:53</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4684</v>
+        <v>5030</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1:18:04</t>
+          <t>1:23:50</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,51 +3259,10 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>3353</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0:55:53</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>5030</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1:23:50</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2451,28 +2451,28 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Za Za garden</t>
+          <t>United together</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:21:13</t>
+          <t>0:21:07</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:31:50</t>
+          <t>0:31:41</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=za_za_garden</t>
+          <t>https://www.nationstates.net/region=united_together</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Za Za garden</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:21:29</t>
+          <t>0:21:13</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1934</v>
+        <v>1910</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:31:50</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=za_za_garden</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:21:33</t>
+          <t>0:21:29</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:32:19</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:21:34</t>
+          <t>0:21:33</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:32:21</t>
+          <t>0:32:19</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:21:40</t>
+          <t>0:21:34</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:21:40</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:32:31</t>
+          <t>0:32:30</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:21:45</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:32:37</t>
+          <t>0:32:31</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,19 +2726,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2779,28 +2779,28 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1384</v>
+        <v>1305</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:23:04</t>
+          <t>0:21:45</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2076</v>
+        <v>1957</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:34:36</t>
+          <t>0:32:37</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,19 +2808,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>zenya</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2829,19 +2829,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1474</v>
+        <v>1384</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:24:34</t>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2211</v>
+        <v>2076</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:36:51</t>
+          <t>0:34:36</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,19 +2849,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=zenya</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>zenya</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1946</v>
+        <v>1474</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:32:26</t>
+          <t>0:24:34</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2919</v>
+        <v>2211</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:48:39</t>
+          <t>0:36:51</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,19 +2890,19 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=zenya</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2275</v>
+        <v>1946</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:37:55</t>
+          <t>0:32:26</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3412</v>
+        <v>2919</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:56:52</t>
+          <t>0:48:39</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,19 +2931,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2952,19 +2952,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2312</v>
+        <v>2275</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:38:32</t>
+          <t>0:37:55</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3468</v>
+        <v>3412</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:57:48</t>
+          <t>0:56:52</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:38:36</t>
+          <t>0:38:32</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3474</v>
+        <v>3468</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:57:54</t>
+          <t>0:57:48</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2647</v>
+        <v>2316</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:44:07</t>
+          <t>0:38:36</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3971</v>
+        <v>3474</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1:06:11</t>
+          <t>0:57:54</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3075,19 +3075,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2662</v>
+        <v>2647</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:44:22</t>
+          <t>0:44:07</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3993</v>
+        <v>3971</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1:06:33</t>
+          <t>1:06:11</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2846</v>
+        <v>2662</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:47:26</t>
+          <t>0:44:22</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4270</v>
+        <v>3993</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1:11:10</t>
+          <t>1:06:33</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,19 +3136,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2894</v>
+        <v>2846</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:48:14</t>
+          <t>0:47:26</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4341</v>
+        <v>4270</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1:12:21</t>
+          <t>1:11:10</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3123</v>
+        <v>2894</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:52:03</t>
+          <t>0:48:14</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4684</v>
+        <v>4341</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1:18:04</t>
+          <t>1:12:21</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,51 +3218,133 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
+          <t>Joint Agreement</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2911</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0:48:31</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1:12:46</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=joint_agreement</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Kaiserreich</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3123</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0:52:03</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4684</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1:18:04</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C71" t="n">
         <v>3353</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0:55:53</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="E71" t="n">
         <v>5030</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1:23:50</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="31 March 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1180,69 +1180,69 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>The UN Of The Universal Republic</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Budget Crackheads</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=budget_crackheads</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>Budget Crackheads</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:02:41</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:04:01</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=budget_crackheads</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:04:30</t>
+          <t>0:04:08</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:03:02</t>
+          <t>0:03:20</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:04:33</t>
+          <t>0:05:00</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>South Asian Association for Cooperation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:04:48</t>
+          <t>0:05:02</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:05:12</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,19 +1660,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:06:06</t>
+          <t>0:05:16</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:06:07</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:06:14</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:06:15</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:06:15</t>
+          <t>0:06:42</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:04:29</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:06:43</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1918,28 +1918,28 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>New Nortvia</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:04:29</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_nortvia</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:04:30</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:06:45</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,19 +1988,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>New Nortvia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,60 +2009,60 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:04:33</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:06:27</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=new_nortvia</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:04:24</t>
+          <t>0:04:33</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:06:35</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,60 +2070,60 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:04:38</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:08:18</t>
+          <t>0:06:56</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:05:33</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:08:19</t>
+          <t>0:07:03</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:05:43</t>
+          <t>0:06:32</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:08:34</t>
+          <t>0:09:48</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:06:34</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:08:35</t>
+          <t>0:09:51</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:06:14</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>561</v>
+        <v>615</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:09:21</t>
+          <t>0:10:15</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,40 +2275,40 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>538</v>
+        <v>410</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:08:58</t>
+          <t>0:06:50</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>808</v>
+        <v>616</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:13:28</t>
+          <t>0:10:16</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,19 +2316,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:09:09</t>
+          <t>0:07:24</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>823</v>
+        <v>667</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:13:43</t>
+          <t>0:11:07</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>The Popptart Empire</t>
+          <t>mid pacific islands</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>574</v>
+        <v>458</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:09:34</t>
+          <t>0:07:38</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>861</v>
+        <v>688</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:14:21</t>
+          <t>0:11:28</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,48 +2398,48 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_popptart_empire</t>
+          <t>https://www.nationstates.net/region=mid_pacific_islands</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Damnation</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1088</v>
+        <v>475</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:18:08</t>
+          <t>0:07:55</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1633</v>
+        <v>712</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:27:13</t>
+          <t>0:11:52</t>
         </is>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=damnation</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2451,28 +2451,28 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>United together</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1267</v>
+        <v>587</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:21:07</t>
+          <t>0:09:47</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1901</v>
+        <v>880</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:31:41</t>
+          <t>0:14:40</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_together</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Kaiserreich</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Za Za garden</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1273</v>
+        <v>590</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:21:13</t>
+          <t>0:09:50</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1910</v>
+        <v>885</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:31:50</t>
+          <t>0:14:45</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=za_za_garden</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Shostka</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1289</v>
+        <v>826</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:21:29</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1934</v>
+        <v>1239</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:20:39</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=shostka</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1293</v>
+        <v>1097</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:21:33</t>
+          <t>0:18:17</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1939</v>
+        <v>1646</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:32:19</t>
+          <t>0:27:26</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>United together</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:21:34</t>
+          <t>0:21:40</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1941</v>
+        <v>1950</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:32:21</t>
+          <t>0:32:30</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=united_together</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>Za Za garden</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:21:40</t>
+          <t>0:21:48</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1950</v>
+        <v>1962</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:32:42</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,40 +2685,40 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=za_za_garden</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1301</v>
+        <v>1317</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1951</v>
+        <v>1975</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:32:31</t>
+          <t>0:32:55</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,40 +2726,40 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:21:45</t>
+          <t>0:22:01</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1957</v>
+        <v>1982</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:32:37</t>
+          <t>0:33:02</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1305</v>
+        <v>1323</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:21:45</t>
+          <t>0:22:03</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1957</v>
+        <v>1984</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:32:37</t>
+          <t>0:33:04</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,40 +2808,40 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1384</v>
+        <v>1328</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:23:04</t>
+          <t>0:22:08</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2076</v>
+        <v>1993</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:34:36</t>
+          <t>0:33:13</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,40 +2849,40 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>zenya</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1474</v>
+        <v>1329</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:24:34</t>
+          <t>0:22:09</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2211</v>
+        <v>1993</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:36:51</t>
+          <t>0:33:13</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,40 +2890,40 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=zenya</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1946</v>
+        <v>1333</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:32:26</t>
+          <t>0:22:13</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2919</v>
+        <v>2000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:48:39</t>
+          <t>0:33:20</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,40 +2931,40 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2275</v>
+        <v>1333</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:37:55</t>
+          <t>0:22:13</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3412</v>
+        <v>2000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:56:52</t>
+          <t>0:33:20</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,19 +2972,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2993,19 +2993,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2312</v>
+        <v>1419</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:38:32</t>
+          <t>0:23:39</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3468</v>
+        <v>2128</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:57:48</t>
+          <t>0:35:28</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,40 +3013,40 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2316</v>
+        <v>2003</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:38:36</t>
+          <t>0:33:23</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3474</v>
+        <v>3004</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:57:54</t>
+          <t>0:50:04</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3075,19 +3075,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2647</v>
+        <v>2333</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:44:07</t>
+          <t>0:38:53</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3971</v>
+        <v>3499</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1:06:11</t>
+          <t>0:58:19</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,19 +3095,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2662</v>
+        <v>2378</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:44:22</t>
+          <t>0:39:38</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3993</v>
+        <v>3567</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1:06:33</t>
+          <t>0:59:27</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,19 +3136,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2846</v>
+        <v>2383</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:47:26</t>
+          <t>0:39:43</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4270</v>
+        <v>3574</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1:11:10</t>
+          <t>0:59:34</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2894</v>
+        <v>2713</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:48:14</t>
+          <t>0:45:13</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4341</v>
+        <v>4069</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1:12:21</t>
+          <t>1:07:49</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,40 +3218,40 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Joint Agreement</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2911</v>
+        <v>2729</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:48:31</t>
+          <t>0:45:29</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4366</v>
+        <v>4094</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1:12:46</t>
+          <t>1:08:14</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=joint_agreement</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Kaiserreich</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3123</v>
+        <v>2901</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:52:03</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4684</v>
+        <v>4351</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1:18:04</t>
+          <t>1:12:31</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,51 +3300,133 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2947</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0:49:07</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>4420</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1:13:40</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3165</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0:52:45</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>4748</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1:19:08</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>3353</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0:55:53</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>5030</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1:23:50</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="C73" t="n">
+        <v>3391</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0:56:31</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>5086</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1:24:46</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="02 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:01:09</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:20</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:03:17</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:04:10</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:02:41</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:04:01</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:04:08</t>
+          <t>0:04:23</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:05:00</t>
+          <t>0:04:40</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:05:12</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1672,48 +1672,48 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>The Holy Church of Roads</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:05:16</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=the_holy_church_of_roads</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:04:24</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>396</v>
+        <v>290</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:04:24</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:06:41</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:06:42</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:04:29</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:06:43</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:04:29</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:06:44</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1959,28 +1959,28 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:04:30</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:06:45</t>
+          <t>0:05:49</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2000,28 +2000,28 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>New Nortvia</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:04:33</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_nortvia</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>New Nortvia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:04:33</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,60 +2070,60 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=new_nortvia</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:04:38</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:06:56</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:07:03</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>392</v>
+        <v>246</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:06:32</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>588</v>
+        <v>368</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:09:48</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:06:34</t>
+          <t>0:05:35</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>591</v>
+        <v>503</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:09:51</t>
+          <t>0:08:23</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>615</v>
+        <v>504</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:10:15</t>
+          <t>0:08:24</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>abstrusely</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:06:50</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>616</v>
+        <v>528</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:10:16</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,40 +2316,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=abstrusely</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:07:24</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>667</v>
+        <v>528</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:11:07</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>mid pacific islands</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>458</v>
+        <v>379</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:07:38</t>
+          <t>0:06:19</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>688</v>
+        <v>569</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:11:28</t>
+          <t>0:09:29</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mid_pacific_islands</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Damnation</t>
+          <t>mid pacific islands</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:07:55</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>712</v>
+        <v>577</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:11:52</t>
+          <t>0:09:37</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=damnation</t>
+          <t>https://www.nationstates.net/region=mid_pacific_islands</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2451,28 +2451,28 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Confederation of Outlying Nations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:09:47</t>
+          <t>0:07:39</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>880</v>
+        <v>688</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:14:40</t>
+          <t>0:11:28</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>590</v>
+        <v>512</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:09:50</t>
+          <t>0:08:32</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>885</v>
+        <v>768</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:14:45</t>
+          <t>0:12:48</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Shostka</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>826</v>
+        <v>516</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1239</v>
+        <v>774</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:20:39</t>
+          <t>0:12:54</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shostka</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1097</v>
+        <v>726</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:18:17</t>
+          <t>0:12:06</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1646</v>
+        <v>1089</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:27:26</t>
+          <t>0:18:09</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,81 +2603,81 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>United together</t>
+          <t>The Caribbean islands</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1300</v>
+        <v>827</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:21:40</t>
+          <t>0:13:47</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1950</v>
+        <v>1241</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:20:41</t>
         </is>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_together</t>
+          <t>https://www.nationstates.net/region=the_caribbean_islands</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Kaiserreich</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Za Za garden</t>
+          <t>Graphic Arts</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1308</v>
+        <v>876</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:21:48</t>
+          <t>0:14:36</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1962</v>
+        <v>1315</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:32:42</t>
+          <t>0:21:55</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,60 +2685,60 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=za_za_garden</t>
+          <t>https://www.nationstates.net/region=graphic_arts</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>United Socialists Alliance</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1317</v>
+        <v>1048</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:17:28</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1975</v>
+        <v>1571</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:32:55</t>
+          <t>0:26:11</t>
         </is>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=united_socialists_alliance</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Coalition of Chaos</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1321</v>
+        <v>1049</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:22:01</t>
+          <t>0:17:29</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1982</v>
+        <v>1574</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:33:02</t>
+          <t>0:26:14</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,19 +2767,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=coalition_of_chaos</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1323</v>
+        <v>1050</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:22:03</t>
+          <t>0:17:30</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1984</v>
+        <v>1575</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:33:04</t>
+          <t>0:26:15</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,81 +2808,81 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>The rejected members of japan</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1328</v>
+        <v>1160</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:22:08</t>
+          <t>0:19:20</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1993</v>
+        <v>1740</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:33:13</t>
+          <t>0:29:00</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=the_rejected_members_of_japan</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>House Targaryen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1329</v>
+        <v>1205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:22:09</t>
+          <t>0:20:05</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1993</v>
+        <v>1808</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:33:13</t>
+          <t>0:30:08</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,40 +2890,40 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=house_targaryen</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>United together</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1333</v>
+        <v>1232</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:22:13</t>
+          <t>0:20:32</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2000</v>
+        <v>1848</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:33:20</t>
+          <t>0:30:48</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,40 +2931,40 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=united_together</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1333</v>
+        <v>1245</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:22:13</t>
+          <t>0:20:45</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2000</v>
+        <v>1867</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:33:20</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,40 +2972,40 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1419</v>
+        <v>1249</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:23:39</t>
+          <t>0:20:49</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2128</v>
+        <v>1874</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:35:28</t>
+          <t>0:31:14</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,19 +3013,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3034,19 +3034,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2003</v>
+        <v>1251</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:33:23</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3004</v>
+        <v>1876</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:50:04</t>
+          <t>0:31:16</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,40 +3054,40 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2333</v>
+        <v>1258</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:38:53</t>
+          <t>0:20:58</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3499</v>
+        <v>1887</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:58:19</t>
+          <t>0:31:27</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2378</v>
+        <v>1259</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:39:38</t>
+          <t>0:20:59</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3567</v>
+        <v>1888</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:59:27</t>
+          <t>0:31:28</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2383</v>
+        <v>1261</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:39:43</t>
+          <t>0:21:01</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3574</v>
+        <v>1892</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:59:34</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,40 +3177,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2713</v>
+        <v>1262</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:45:13</t>
+          <t>0:21:02</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4069</v>
+        <v>1893</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1:07:49</t>
+          <t>0:31:33</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,19 +3218,19 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3239,19 +3239,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2729</v>
+        <v>1355</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:45:29</t>
+          <t>0:22:35</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4094</v>
+        <v>2032</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1:08:14</t>
+          <t>0:33:52</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>aborted</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2901</v>
+        <v>1380</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:48:21</t>
+          <t>0:23:00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4351</v>
+        <v>2070</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1:12:31</t>
+          <t>0:34:30</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,40 +3300,40 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=aborted</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>StArry Nuggets</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2947</v>
+        <v>1823</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:49:07</t>
+          <t>0:30:23</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4420</v>
+        <v>2735</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1:13:40</t>
+          <t>0:45:35</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3341,19 +3341,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=starry_nuggets</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3362,19 +3362,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3165</v>
+        <v>1965</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:52:45</t>
+          <t>0:32:45</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4748</v>
+        <v>2948</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1:19:08</t>
+          <t>0:49:08</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3382,51 +3382,584 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
+          <t>New Order of Italia</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1969</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0:32:49</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2953</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0:49:13</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=new_order_of_italia</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Omega Centauri</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2257</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0:37:37</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3385</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0:56:25</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=omega_centauri</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Malice Girl Scouts</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2257</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0:37:37</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3385</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0:56:25</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Cretanja Queendom</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2301</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0:38:21</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3452</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0:57:32</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2306</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0:38:26</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3459</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0:57:39</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Cave of The Mighty Hyena</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2433</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0:40:33</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1:00:50</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cave_of_the_mighty_hyena</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>United Federation of Deutschland</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2679</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0:44:39</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4018</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1:06:58</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=united_federation_of_deutschland</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2685</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0:44:45</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4027</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1:07:07</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Violet Irises</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2702</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0:45:02</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4053</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1:07:33</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=violet_irises</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2905</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0:48:25</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>4357</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1:12:37</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2953</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0:49:13</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4430</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1:13:50</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>3205</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0:53:25</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4807</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1:20:07</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Mount Niagara</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3401</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0:56:41</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5101</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1:25:01</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=mount_niagara</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>3391</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0:56:31</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>5086</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1:24:46</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="C86" t="n">
+        <v>3444</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0:57:24</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>5166</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1:26:06</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="02 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="03 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Coral Reef 5</t>
+          <t>Dubno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,7 +512,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coral_reef_5</t>
+          <t>https://www.nationstates.net/region=dubno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,28 +524,28 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:09</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Gelre</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=gelre</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gelre</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,19 +635,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gelre</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Renem</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=renem</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Card2025</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=card2025</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -729,28 +729,28 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Matamo</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=matamo</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Renem</t>
+          <t>Eroias</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=renem</t>
+          <t>https://www.nationstates.net/region=eroias</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Crusaders of Guadalupe</t>
+          <t>Dragonborn Confederate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=crusaders_of_guadalupe</t>
+          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>The Confederacy of German States</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Solar Union</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:31</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,19 +922,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=solar_union</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Eroias</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eroias</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of German States</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,39 +1025,39 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:01:56</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,19 +1127,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:02</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,81 +1168,81 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>The UN Of The Universal Republic</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:03:46</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:02:41</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:04:01</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,81 +1373,81 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>The Holy Church of Roads</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=the_holy_church_of_roads</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Ijaka, Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Budget Crackheads</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:05:09</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=budget_crackheads</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:04:23</t>
+          <t>0:05:13</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:04:40</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>South Asian Association for Cooperation</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=south_asian_association_for_cooperation</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,60 +1660,60 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Holy Church of Roads</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:04:49</t>
+          <t>0:05:16</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_church_of_roads</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>New Nortvia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:04:50</t>
+          <t>0:05:20</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=new_nortvia</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:05:20</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,28 +1795,28 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:05:29</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:07:10</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Freakland and Co</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:05:02</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>348</v>
+        <v>453</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:07:33</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=freakland_and_co</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1959,28 +1959,28 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:05:49</t>
+          <t>0:08:11</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>233</v>
+        <v>460</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:07:40</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>350</v>
+        <v>690</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:11:30</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>New Nortvia</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>236</v>
+        <v>463</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:07:43</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>353</v>
+        <v>695</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:11:35</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_nortvia</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>236</v>
+        <v>986</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:16:26</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>353</v>
+        <v>1478</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:24:38</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2123,28 +2123,28 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>238</v>
+        <v>1182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:19:42</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>358</v>
+        <v>1772</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:29:32</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,19 +2152,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>246</v>
+        <v>1183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:19:43</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>368</v>
+        <v>1775</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:29:35</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Volantis</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>335</v>
+        <v>1190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:05:35</t>
+          <t>0:19:50</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>503</v>
+        <v>1785</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:08:23</t>
+          <t>0:29:45</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=volantis</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>336</v>
+        <v>1191</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:19:51</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>504</v>
+        <v>1786</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:08:24</t>
+          <t>0:29:46</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>abstrusely</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>352</v>
+        <v>1194</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:19:54</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>528</v>
+        <v>1791</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:08:48</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,19 +2316,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstrusely</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>352</v>
+        <v>1194</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:19:54</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>528</v>
+        <v>1791</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:08:48</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>379</v>
+        <v>1285</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:06:19</t>
+          <t>0:21:25</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>569</v>
+        <v>1927</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:09:29</t>
+          <t>0:32:07</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>mid pacific islands</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>384</v>
+        <v>1884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:06:24</t>
+          <t>0:31:24</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>577</v>
+        <v>2827</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:09:37</t>
+          <t>0:47:07</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mid_pacific_islands</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Confederation of Outlying Nations</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>459</v>
+        <v>2231</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:07:39</t>
+          <t>0:37:11</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>688</v>
+        <v>3347</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:11:28</t>
+          <t>0:55:47</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>512</v>
+        <v>2269</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:08:32</t>
+          <t>0:37:49</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>768</v>
+        <v>3404</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:12:48</t>
+          <t>0:56:44</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>516</v>
+        <v>2281</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:08:36</t>
+          <t>0:38:01</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>774</v>
+        <v>3422</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:12:54</t>
+          <t>0:57:02</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>WWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWWMW</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>726</v>
+        <v>2663</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:12:06</t>
+          <t>0:44:23</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1089</v>
+        <v>3994</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:18:09</t>
+          <t>1:06:34</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,60 +2603,60 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=wwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwwmw</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>The Caribbean islands</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>827</v>
+        <v>2681</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:13:47</t>
+          <t>0:44:41</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1241</v>
+        <v>4021</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:20:41</t>
+          <t>1:07:01</t>
         </is>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_caribbean_islands</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Graphic Arts</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>876</v>
+        <v>2878</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:14:36</t>
+          <t>0:47:58</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1315</v>
+        <v>4318</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:21:55</t>
+          <t>1:11:58</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=graphic_arts</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>United Socialists Alliance</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,60 +2706,60 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1048</v>
+        <v>2928</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:17:28</t>
+          <t>0:48:48</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1571</v>
+        <v>4393</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:26:11</t>
+          <t>1:13:13</t>
         </is>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_socialists_alliance</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Kaiserreich</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Coalition of Chaos</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1049</v>
+        <v>3207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:17:29</t>
+          <t>0:53:27</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1574</v>
+        <v>4811</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:26:14</t>
+          <t>1:20:11</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,19 +2767,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coalition_of_chaos</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1050</v>
+        <v>3438</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:17:30</t>
+          <t>0:57:18</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1575</v>
+        <v>5158</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:26:15</t>
+          <t>1:25:58</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,1158 +2808,10 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
-        <is>
-          <t>Ijaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>The rejected members of japan</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1160</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0:19:20</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0:29:00</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_rejected_members_of_japan</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Ijaka, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>House Targaryen</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1205</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0:20:05</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1808</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0:30:08</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=house_targaryen</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>United together</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1232</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0:20:32</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1848</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0:30:48</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=united_together</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Kaiserreich</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Aerope</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0:20:45</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1867</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0:31:07</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=aerope</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>BallsMoment</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1249</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0:20:49</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1874</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0:31:14</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Kyorgia puppet storage</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1251</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0:20:51</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1876</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0:31:16</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Volantis</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1258</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0:20:58</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1887</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0:31:27</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=volantis</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Sus amoungus</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1259</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0:20:59</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1888</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0:31:28</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Blood</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1261</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0:21:01</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1892</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0:31:32</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>NVIDIA GeForce</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1262</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0:21:02</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1893</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0:31:33</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Stellar Crystal Tavern</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0:22:35</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>2032</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0:33:52</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Osiris, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>aborted</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0:23:00</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>2070</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0:34:30</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=aborted</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Ijaka, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>StArry Nuggets</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1823</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0:30:23</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>2735</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0:45:35</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=starry_nuggets</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Regional Officers</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1965</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0:32:45</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>2948</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0:49:08</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>New Order of Italia</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1969</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0:32:49</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>2953</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0:49:13</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=new_order_of_italia</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Omega Centauri</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>2257</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0:37:37</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>3385</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0:56:25</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=omega_centauri</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>2257</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0:37:37</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>3385</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0:56:25</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>2301</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0:38:21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>3452</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0:57:32</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>2306</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0:38:26</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>3459</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0:57:39</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Cave of The Mighty Hyena</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>2433</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0:40:33</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>3650</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1:00:50</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cave_of_the_mighty_hyena</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>United Federation of Deutschland</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>2679</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0:44:39</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>4018</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1:06:58</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=united_federation_of_deutschland</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>2685</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0:44:45</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>4027</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1:07:07</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Violet Irises</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>2702</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0:45:02</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>4053</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1:07:33</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>2905</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0:48:25</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>4357</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1:12:37</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>2953</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0:49:13</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>4430</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>1:13:50</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>3205</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0:53:25</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>4807</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>1:20:07</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Mount Niagara</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>3401</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0:56:41</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>5101</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>1:25:01</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=mount_niagara</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>3444</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0:57:24</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>5166</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>1:26:06</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="03 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="04 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -570,23 +570,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:37</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:32</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Confederacy of German States</t>
+          <t>Solar Union</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederacy_of_german_states</t>
+          <t>https://www.nationstates.net/region=solar_union</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:31</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,81 +1004,81 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:01:56</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:03:25</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>The UN Of The Universal Republic</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,19 +1127,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:23</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:03:02</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:04:14</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:04:23</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:02:41</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:04:01</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,60 +1373,60 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>The Holy Church of Roads</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:05:35</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_holy_church_of_roads</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ijaka, Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>Perkoempoelan Koecing Koecing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:05:35</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:05:13</t>
+          <t>0:05:41</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,19 +1537,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:05:41</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1631,28 +1631,28 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,28 +1672,28 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:05:16</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>New Nortvia</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:05:20</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_nortvia</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Osiris, Sparkalia, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:05:20</t>
+          <t>0:05:58</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:04:51</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>329</v>
+        <v>436</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:05:29</t>
+          <t>0:07:16</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Subaquatic</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:04:59</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:07:28</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=subaquatic</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:07:10</t>
+          <t>0:08:42</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Freakland and Co</t>
+          <t>mid pacific islands</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:07:33</t>
+          <t>0:08:50</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=freakland_and_co</t>
+          <t>https://www.nationstates.net/region=mid_pacific_islands</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:07:59</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>491</v>
+        <v>718</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:08:11</t>
+          <t>0:11:58</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:07:40</t>
+          <t>0:08:03</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:11:30</t>
+          <t>0:12:05</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Coalition of Chaos</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>463</v>
+        <v>1057</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:07:43</t>
+          <t>0:17:37</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>695</v>
+        <v>1586</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:11:35</t>
+          <t>0:26:26</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=coalition_of_chaos</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>986</v>
+        <v>1059</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:16:26</t>
+          <t>0:17:39</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1478</v>
+        <v>1588</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:24:38</t>
+          <t>0:26:28</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2123,28 +2123,28 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>House Targaryen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1182</v>
+        <v>1214</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:19:42</t>
+          <t>0:20:14</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1772</v>
+        <v>1821</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:29:32</t>
+          <t>0:30:21</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,19 +2152,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=house_targaryen</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1183</v>
+        <v>1252</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:19:43</t>
+          <t>0:20:52</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1775</v>
+        <v>1878</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:29:35</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Volantis</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1190</v>
+        <v>1256</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:19:50</t>
+          <t>0:20:56</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1785</v>
+        <v>1883</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:29:45</t>
+          <t>0:31:23</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=volantis</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1191</v>
+        <v>1257</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:19:51</t>
+          <t>0:20:57</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1786</v>
+        <v>1886</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:29:46</t>
+          <t>0:31:26</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1194</v>
+        <v>1264</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:19:54</t>
+          <t>0:21:04</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1791</v>
+        <v>1896</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:29:51</t>
+          <t>0:31:36</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,19 +2316,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1194</v>
+        <v>1266</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:19:54</t>
+          <t>0:21:06</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1791</v>
+        <v>1900</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:29:51</t>
+          <t>0:31:40</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2369,28 +2369,28 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1285</v>
+        <v>1266</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:21:25</t>
+          <t>0:21:06</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1927</v>
+        <v>1900</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:32:07</t>
+          <t>0:31:40</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1884</v>
+        <v>1363</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:31:24</t>
+          <t>0:22:43</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2827</v>
+        <v>2044</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:47:07</t>
+          <t>0:34:04</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,19 +2439,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>StArry Nuggets</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2231</v>
+        <v>1824</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:37:11</t>
+          <t>0:30:24</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3347</v>
+        <v>2736</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:55:47</t>
+          <t>0:45:36</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=starry_nuggets</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2269</v>
+        <v>1957</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:37:49</t>
+          <t>0:32:37</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3404</v>
+        <v>2935</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:56:44</t>
+          <t>0:48:55</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2281</v>
+        <v>2288</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:38:01</t>
+          <t>0:38:08</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3422</v>
+        <v>3432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:57:02</t>
+          <t>0:57:12</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2663</v>
+        <v>2330</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:44:23</t>
+          <t>0:38:50</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3994</v>
+        <v>3495</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1:06:34</t>
+          <t>0:58:15</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2681</v>
+        <v>2334</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:44:41</t>
+          <t>0:38:54</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4021</v>
+        <v>3502</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1:07:01</t>
+          <t>0:58:22</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2878</v>
+        <v>2683</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:47:58</t>
+          <t>0:44:43</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4318</v>
+        <v>4025</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1:11:58</t>
+          <t>1:07:05</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,40 +2685,40 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2928</v>
+        <v>2914</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:48:48</t>
+          <t>0:48:34</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4393</v>
+        <v>4370</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1:13:13</t>
+          <t>1:12:50</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,40 +2726,40 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3207</v>
+        <v>2964</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:53:27</t>
+          <t>0:49:24</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4811</v>
+        <v>4446</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1:20:11</t>
+          <t>1:14:06</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,51 +2767,92 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3213</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0:53:33</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4820</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1:20:20</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>3438</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0:57:18</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>5158</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1:25:58</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3435</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0:57:15</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>5152</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1:25:52</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="04 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="05 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -565,28 +565,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gelre</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gelre</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:12</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Renem</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:37</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=renem</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>Dragonborn Confederate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:02:59</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -729,28 +729,28 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,19 +758,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Eroias</t>
+          <t>The gamma quadrant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eroias</t>
+          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Solar Union</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solar_union</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,19 +922,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:04:20</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:04:36</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:03:25</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The UN Of The Universal Republic</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>215</v>
+        <v>306</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:05:06</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,19 +1127,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_un_of_the_universal_republic</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:02:23</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:06:27</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>254</v>
+        <v>388</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:04:14</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:04:23</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:04:20</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:06:29</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:20</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:05:35</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Perkoempoelan Koecing Koecing</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:23</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:05:35</t>
+          <t>0:06:35</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=perkoempoelan_koecing_koecing</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:03:46</t>
+          <t>0:04:32</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:06:49</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>The Kaiserreich</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:06:56</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=the_kaiserreich</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>341</v>
+        <v>530</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:08:50</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>342</v>
+        <v>627</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:10:27</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>229</v>
+        <v>561</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:09:21</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>343</v>
+        <v>841</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:05:43</t>
+          <t>0:14:01</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>232</v>
+        <v>564</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:09:24</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>348</v>
+        <v>847</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:14:07</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Big Men</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>235</v>
+        <v>911</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:15:11</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>352</v>
+        <v>1366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:22:46</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=big_men</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>239</v>
+        <v>1093</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:03:59</t>
+          <t>0:18:13</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>358</v>
+        <v>1639</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:05:58</t>
+          <t>0:27:19</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>We are the most awesomest</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>291</v>
+        <v>1245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:20:45</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>436</v>
+        <v>1868</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:07:16</t>
+          <t>0:31:08</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=we_are_the_most_awesomest</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Subaquatic</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>299</v>
+        <v>1300</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:04:59</t>
+          <t>0:21:40</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>448</v>
+        <v>1950</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:07:28</t>
+          <t>0:32:30</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=subaquatic</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1877,7 +1877,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>348</v>
+        <v>1306</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:21:46</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>522</v>
+        <v>1960</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:08:42</t>
+          <t>0:32:40</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>mid pacific islands</t>
+          <t>Sus amoungus</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>354</v>
+        <v>1313</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:21:53</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>530</v>
+        <v>1970</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:08:50</t>
+          <t>0:32:50</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mid_pacific_islands</t>
+          <t>https://www.nationstates.net/region=sus_amoungus</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>479</v>
+        <v>1317</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:07:59</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>718</v>
+        <v>1975</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:11:58</t>
+          <t>0:32:55</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>483</v>
+        <v>1317</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:08:03</t>
+          <t>0:21:57</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>725</v>
+        <v>1975</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:12:05</t>
+          <t>0:32:55</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Coalition of Chaos</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1057</v>
+        <v>1399</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:17:37</t>
+          <t>0:23:19</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1586</v>
+        <v>2099</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:26:26</t>
+          <t>0:34:59</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coalition_of_chaos</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Depression gang</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1059</v>
+        <v>1743</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:29:03</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1588</v>
+        <v>2614</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:26:28</t>
+          <t>0:43:34</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,40 +2111,40 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=depression_gang</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>House Targaryen</t>
+          <t>Americanada</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1214</v>
+        <v>1870</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:20:14</t>
+          <t>0:31:10</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1821</v>
+        <v>2805</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:30:21</t>
+          <t>0:46:45</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,19 +2152,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=house_targaryen</t>
+          <t>https://www.nationstates.net/region=americanada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1252</v>
+        <v>1998</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:20:52</t>
+          <t>0:33:18</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1878</v>
+        <v>2997</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:31:18</t>
+          <t>0:49:57</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>New Order of Italia</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1256</v>
+        <v>2002</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:20:56</t>
+          <t>0:33:22</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1883</v>
+        <v>3002</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:31:23</t>
+          <t>0:50:02</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=new_order_of_italia</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Confederation Of Nations</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1257</v>
+        <v>2113</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:20:57</t>
+          <t>0:35:13</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1886</v>
+        <v>3169</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:31:26</t>
+          <t>0:52:49</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,40 +2275,40 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1264</v>
+        <v>2334</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:21:04</t>
+          <t>0:38:54</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1896</v>
+        <v>3501</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:31:36</t>
+          <t>0:58:21</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,40 +2316,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1266</v>
+        <v>2383</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:21:06</t>
+          <t>0:39:43</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1900</v>
+        <v>3574</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:31:40</t>
+          <t>0:59:34</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1266</v>
+        <v>2388</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:21:06</t>
+          <t>0:39:48</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1900</v>
+        <v>3581</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:31:40</t>
+          <t>0:59:41</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1363</v>
+        <v>2757</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:22:43</t>
+          <t>0:45:57</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2044</v>
+        <v>4136</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:34:04</t>
+          <t>1:08:56</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>StArry Nuggets</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1824</v>
+        <v>2773</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:30:24</t>
+          <t>0:46:13</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2736</v>
+        <v>4159</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:45:36</t>
+          <t>1:09:19</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=starry_nuggets</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH, TWP</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1957</v>
+        <v>2968</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:32:37</t>
+          <t>0:49:28</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2935</v>
+        <v>4453</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:48:55</t>
+          <t>1:14:13</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2288</v>
+        <v>3020</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:38:08</t>
+          <t>0:50:20</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3432</v>
+        <v>4531</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:57:12</t>
+          <t>1:15:31</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2330</v>
+        <v>3256</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:38:50</t>
+          <t>0:54:16</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3495</v>
+        <v>4884</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:58:15</t>
+          <t>1:21:24</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2615,28 +2615,28 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2334</v>
+        <v>3457</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:38:54</t>
+          <t>0:57:37</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3502</v>
+        <v>5186</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:58:22</t>
+          <t>1:26:26</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,215 +2644,10 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>2683</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0:44:43</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>4025</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1:07:05</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>2914</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0:48:34</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>4370</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1:12:50</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>2964</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0:49:24</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>4446</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1:14:06</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>3213</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0:53:33</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>4820</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1:20:20</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>3435</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0:57:15</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>5152</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1:25:52</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="05 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="06 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:00:42</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:13</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -688,28 +688,28 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Dragonborn Confederate</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:59</t>
+          <t>0:02:41</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dragonborn_confederate</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -729,28 +729,28 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,19 +758,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The gamma quadrant</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_gamma_quadrant</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:01:58</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,7 +840,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,19 +922,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:04:17</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:04:20</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:04:36</t>
+          <t>0:04:16</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:02:54</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:04:21</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:05:18</t>
+          <t>0:05:31</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1180,28 +1180,28 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:06:18</t>
+          <t>0:05:31</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:06:27</t>
+          <t>0:05:31</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:05:33</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:05:33</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,28 +1344,28 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:04:20</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:06:29</t>
+          <t>0:05:39</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:04:20</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:04:23</t>
+          <t>0:04:59</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:06:35</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:04:32</t>
+          <t>0:05:48</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>409</v>
+        <v>522</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:06:49</t>
+          <t>0:08:42</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Kaiserreich</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>277</v>
+        <v>481</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:08:01</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>416</v>
+        <v>721</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:06:56</t>
+          <t>0:12:01</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaiserreich</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>530</v>
+        <v>727</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:08:50</t>
+          <t>0:12:07</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Walsingford</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>418</v>
+        <v>836</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:13:56</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>627</v>
+        <v>1254</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:10:27</t>
+          <t>0:20:54</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=walsingford</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>561</v>
+        <v>1006</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:09:21</t>
+          <t>0:16:46</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>841</v>
+        <v>1509</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:14:01</t>
+          <t>0:25:09</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Island of Norbert</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>564</v>
+        <v>1038</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:09:24</t>
+          <t>0:17:18</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>847</v>
+        <v>1557</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:14:07</t>
+          <t>0:25:57</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Big Men</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>911</v>
+        <v>1213</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:15:11</t>
+          <t>0:20:13</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1366</v>
+        <v>1820</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:22:46</t>
+          <t>0:30:20</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=big_men</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1093</v>
+        <v>1218</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:18:13</t>
+          <t>0:20:18</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1639</v>
+        <v>1827</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:27:19</t>
+          <t>0:30:27</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>We are the most awesomest</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:20:45</t>
+          <t>0:20:31</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1868</v>
+        <v>1846</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:31:08</t>
+          <t>0:30:46</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=we_are_the_most_awesomest</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1300</v>
+        <v>1231</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:21:40</t>
+          <t>0:20:31</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1950</v>
+        <v>1846</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:32:30</t>
+          <t>0:30:46</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:21:46</t>
+          <t>0:21:54</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1960</v>
+        <v>1971</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:32:40</t>
+          <t>0:32:51</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Sus amoungus</t>
+          <t>Interstate 878</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1313</v>
+        <v>1680</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:21:53</t>
+          <t>0:28:00</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1970</v>
+        <v>2520</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:32:50</t>
+          <t>0:42:00</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,81 +1947,81 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sus_amoungus</t>
+          <t>https://www.nationstates.net/region=interstate_878</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>The United Rebel States Of The Pacific</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1317</v>
+        <v>1846</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:30:46</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1975</v>
+        <v>2769</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:32:55</t>
+          <t>0:46:09</t>
         </is>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=the_united_rebel_states_of_the_pacific</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1317</v>
+        <v>1936</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:21:57</t>
+          <t>0:32:16</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1975</v>
+        <v>2903</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:32:55</t>
+          <t>0:48:23</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1399</v>
+        <v>2302</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:23:19</t>
+          <t>0:38:22</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2099</v>
+        <v>3454</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:34:59</t>
+          <t>0:57:34</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Depression gang</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1743</v>
+        <v>2343</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:29:03</t>
+          <t>0:39:03</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2614</v>
+        <v>3515</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:43:34</t>
+          <t>0:58:35</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,40 +2111,40 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=depression_gang</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Americanada</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1870</v>
+        <v>2348</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:31:10</t>
+          <t>0:39:08</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2805</v>
+        <v>3522</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:46:45</t>
+          <t>0:58:42</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=americanada</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>KCISEC2020</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1998</v>
+        <v>2462</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:33:18</t>
+          <t>0:41:02</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2997</v>
+        <v>3693</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:49:57</t>
+          <t>1:01:33</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,19 +2193,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=kcisec2020</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>New Order of Italia</t>
+          <t>The Legion of MISA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2002</v>
+        <v>2708</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:33:22</t>
+          <t>0:45:08</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3002</v>
+        <v>4063</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:50:02</t>
+          <t>1:07:43</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_order_of_italia</t>
+          <t>https://www.nationstates.net/region=the_legion_of_misa</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>The Confederation Of Nations</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2113</v>
+        <v>2719</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:35:13</t>
+          <t>0:45:19</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3169</v>
+        <v>4079</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:52:49</t>
+          <t>1:07:59</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,40 +2275,40 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2334</v>
+        <v>2732</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:38:54</t>
+          <t>0:45:32</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3501</v>
+        <v>4098</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:58:21</t>
+          <t>1:08:18</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,40 +2316,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2383</v>
+        <v>2915</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:39:43</t>
+          <t>0:48:35</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3574</v>
+        <v>4372</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:59:34</t>
+          <t>1:12:52</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2388</v>
+        <v>2961</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:39:48</t>
+          <t>0:49:21</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3581</v>
+        <v>4442</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:59:41</t>
+          <t>1:14:02</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2757</v>
+        <v>3191</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:45:57</t>
+          <t>0:53:11</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4136</v>
+        <v>4786</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1:08:56</t>
+          <t>1:19:46</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2773</v>
+        <v>3454</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:46:13</t>
+          <t>0:57:34</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4159</v>
+        <v>5181</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:09:19</t>
+          <t>1:26:21</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,174 +2480,10 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
-        <is>
-          <t>TBH, TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0:49:28</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>4453</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1:14:13</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>3020</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0:50:20</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>4531</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1:15:31</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>3256</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0:54:16</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>4884</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1:21:24</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>3457</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0:57:37</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>5186</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1:26:26</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="06 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="07 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:42</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:00:59</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:13</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,28 +565,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:41</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,19 +758,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:03:03</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:58</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:57</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:04:01</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:04:09</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>The Kaisers</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:04:16</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=the_kaisers</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:02:54</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:04:21</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:05:23</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:05:31</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:05:31</t>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:05:31</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1262,28 +1262,28 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:03:42</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:05:33</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1303,28 +1303,28 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:03:42</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:05:33</t>
+          <t>0:05:32</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:03:46</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:05:39</t>
+          <t>0:05:45</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:04:59</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:08:51</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>348</v>
+        <v>494</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:05:48</t>
+          <t>0:08:14</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>522</v>
+        <v>742</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:08:42</t>
+          <t>0:12:22</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:08:01</t>
+          <t>0:08:18</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:12:01</t>
+          <t>0:12:27</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Starry Nations</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>484</v>
+        <v>784</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:13:04</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>727</v>
+        <v>1176</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:12:07</t>
+          <t>0:19:36</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=starry_nations</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>836</v>
+        <v>883</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:13:56</t>
+          <t>0:14:43</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1254</v>
+        <v>1325</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:20:54</t>
+          <t>0:22:05</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1006</v>
+        <v>1054</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:16:46</t>
+          <t>0:17:34</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1509</v>
+        <v>1581</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:25:09</t>
+          <t>0:26:21</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1038</v>
+        <v>1081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:17:18</t>
+          <t>0:18:01</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1557</v>
+        <v>1621</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:25:57</t>
+          <t>0:27:01</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1713,69 +1713,69 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1213</v>
+        <v>1109</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:20:13</t>
+          <t>0:18:29</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1820</v>
+        <v>1663</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:30:20</t>
+          <t>0:27:43</t>
         </is>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Ulster Isles</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:20:18</t>
+          <t>0:20:26</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1827</v>
+        <v>1839</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:30:27</t>
+          <t>0:30:39</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_ulster_isles</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1231</v>
+        <v>1268</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:21:08</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1846</v>
+        <v>1902</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:30:46</t>
+          <t>0:31:42</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1231</v>
+        <v>1272</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:21:12</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1846</v>
+        <v>1909</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:30:46</t>
+          <t>0:31:49</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1314</v>
+        <v>1274</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:21:54</t>
+          <t>0:21:14</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1971</v>
+        <v>1911</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:32:51</t>
+          <t>0:31:51</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Interstate 878</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1680</v>
+        <v>1287</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:28:00</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2520</v>
+        <v>1931</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:42:00</t>
+          <t>0:32:11</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,60 +1947,60 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=interstate_878</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The United Rebel States Of The Pacific</t>
+          <t>NVIDIA GeForce</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1846</v>
+        <v>1287</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:30:46</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2769</v>
+        <v>1931</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:46:09</t>
+          <t>0:32:11</t>
         </is>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_rebel_states_of_the_pacific</t>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1936</v>
+        <v>1374</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:32:16</t>
+          <t>0:22:54</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2903</v>
+        <v>2061</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:48:23</t>
+          <t>0:34:21</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Nowhere</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2302</v>
+        <v>1488</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:38:22</t>
+          <t>0:24:48</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3454</v>
+        <v>2232</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:57:34</t>
+          <t>0:37:12</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=nowhere</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,28 +2082,28 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Regional Defense Council</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2343</v>
+        <v>1505</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:39:03</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3515</v>
+        <v>2258</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:58:35</t>
+          <t>0:37:38</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=regional_defense_council</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Analchist</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2348</v>
+        <v>1569</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:39:08</t>
+          <t>0:26:09</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3522</v>
+        <v>2353</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:58:42</t>
+          <t>0:39:13</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=analchist</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>KCISEC2020</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2462</v>
+        <v>1960</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:41:02</t>
+          <t>0:32:40</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3693</v>
+        <v>2940</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1:01:33</t>
+          <t>0:49:00</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kcisec2020</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>The Legion of MISA</t>
+          <t>The Paragon Union</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2708</v>
+        <v>1965</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:45:08</t>
+          <t>0:32:45</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4063</v>
+        <v>2948</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1:07:43</t>
+          <t>0:49:08</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,19 +2234,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_legion_of_misa</t>
+          <t>https://www.nationstates.net/region=the_paragon_union</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2719</v>
+        <v>2277</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:45:19</t>
+          <t>0:37:57</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4079</v>
+        <v>3415</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1:07:59</t>
+          <t>0:56:55</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,40 +2275,40 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2732</v>
+        <v>2314</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:45:32</t>
+          <t>0:38:34</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4098</v>
+        <v>3470</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1:08:18</t>
+          <t>0:57:50</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,40 +2316,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2915</v>
+        <v>2318</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:48:35</t>
+          <t>0:38:38</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4372</v>
+        <v>3476</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1:12:52</t>
+          <t>0:57:56</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>The Legion of MISA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2961</v>
+        <v>2701</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:49:21</t>
+          <t>0:45:01</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4442</v>
+        <v>4051</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1:14:02</t>
+          <t>1:07:31</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=the_legion_of_misa</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3191</v>
+        <v>2713</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:53:11</t>
+          <t>0:45:13</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4786</v>
+        <v>4069</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1:19:46</t>
+          <t>1:07:49</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,51 +2439,215 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>Violet Irises</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WFE, RO</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2726</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0:45:26</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4089</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1:08:09</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=violet_irises</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TWP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0:48:42</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4383</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1:13:03</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2966</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0:49:26</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1:14:10</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3211</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0:53:31</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4816</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1:20:16</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>3454</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0:57:34</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>5181</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1:26:21</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="C54" t="n">
+        <v>3448</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0:57:28</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5172</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1:26:12</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="07 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="08 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Brudiccreni</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:00:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:00:00</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=brudiccreni</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Dubno</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,27 +533,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=dubno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,28 +565,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>Virgo Clava</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=virgo_clava</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>cool headed people living logically</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=cool_headed_people_living_logically</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:03</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>Yusmoydal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=yusmoydal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Ascensionsen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:02:44</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=ascensionsen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:04:01</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:04:09</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The Kaisers</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:03:03</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_kaisers</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:05:18</t>
+          <t>0:03:08</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Union of Dystopias</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:03:20</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=union_of_dystopias</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>accented</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:05:25</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=accented</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>Polcom</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:04:57</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=polcom</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:05:01</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Unified Capitalist Alliance</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:05:32</t>
+          <t>0:05:02</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:05:45</t>
+          <t>0:05:02</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>454</v>
+        <v>304</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>531</v>
+        <v>305</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:08:51</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Union of United Democratic States</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>494</v>
+        <v>206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:08:14</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>742</v>
+        <v>309</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:12:22</t>
+          <t>0:05:09</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>498</v>
+        <v>216</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:08:18</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>747</v>
+        <v>324</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:12:27</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Starry Nations</t>
+          <t>Nevil region</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>784</v>
+        <v>247</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:13:04</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1176</v>
+        <v>370</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:19:36</t>
+          <t>0:06:10</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,19 +1578,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=starry_nations</t>
+          <t>https://www.nationstates.net/region=nevil_region</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Walsingford</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>883</v>
+        <v>267</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:14:43</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1325</v>
+        <v>400</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:22:05</t>
+          <t>0:06:40</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walsingford</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>The Britannian Kingdom</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1054</v>
+        <v>269</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:17:34</t>
+          <t>0:04:29</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1581</v>
+        <v>404</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:26:21</t>
+          <t>0:06:44</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=the_britannian_kingdom</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Island of Norbert</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1081</v>
+        <v>306</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:18:01</t>
+          <t>0:05:06</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1621</v>
+        <v>459</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:27:01</t>
+          <t>0:07:39</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,81 +1701,81 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>Clown Council</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1109</v>
+        <v>324</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:18:29</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1663</v>
+        <v>486</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:27:43</t>
+          <t>0:08:06</t>
         </is>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=clown_council</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Ulster Isles</t>
+          <t>Confederation of Outlying Nations</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1226</v>
+        <v>379</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:20:26</t>
+          <t>0:06:19</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1839</v>
+        <v>569</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:30:39</t>
+          <t>0:09:29</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_ulster_isles</t>
+          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Nadvirna</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1268</v>
+        <v>409</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:21:08</t>
+          <t>0:06:49</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1902</v>
+        <v>614</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:31:42</t>
+          <t>0:10:14</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,81 +1824,81 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=nadvirna</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Regiao das Nacoes Utopicas Unidas</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1272</v>
+        <v>414</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:21:12</t>
+          <t>0:06:54</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1909</v>
+        <v>622</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:31:49</t>
+          <t>0:10:22</t>
         </is>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=regiao_das_nacoes_utopicas_unidas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1274</v>
+        <v>432</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:21:14</t>
+          <t>0:07:12</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1911</v>
+        <v>647</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:31:51</t>
+          <t>0:10:47</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1287</v>
+        <v>435</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1931</v>
+        <v>652</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:32:11</t>
+          <t>0:10:52</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,81 +1947,81 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce</t>
+          <t>The Great Sun Isles</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1287</v>
+        <v>476</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:07:56</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1931</v>
+        <v>714</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:32:11</t>
+          <t>0:11:54</t>
         </is>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+          <t>https://www.nationstates.net/region=the_great_sun_isles</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The United States of TGK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1374</v>
+        <v>477</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:22:54</t>
+          <t>0:07:57</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2061</v>
+        <v>715</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:34:21</t>
+          <t>0:11:55</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_united_states_of_tgk</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Nowhere</t>
+          <t>New Pacific Islands Region</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1488</v>
+        <v>665</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:24:48</t>
+          <t>0:11:05</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2232</v>
+        <v>997</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:37:12</t>
+          <t>0:16:37</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nowhere</t>
+          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Regional Defense Council</t>
+          <t>Starry Nations</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1505</v>
+        <v>702</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:11:42</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2258</v>
+        <v>1053</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:37:38</t>
+          <t>0:17:33</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_defense_council</t>
+          <t>https://www.nationstates.net/region=starry_nations</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Analchist</t>
+          <t>The Writing Alcove</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,101 +2132,101 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1569</v>
+        <v>702</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:26:09</t>
+          <t>0:11:42</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2353</v>
+        <v>1053</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:39:13</t>
+          <t>0:17:33</t>
         </is>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=analchist</t>
+          <t>https://www.nationstates.net/region=the_writing_alcove</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>afreurasia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1960</v>
+        <v>738</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:32:40</t>
+          <t>0:12:18</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2940</v>
+        <v>1107</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:49:00</t>
+          <t>0:18:27</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=afreurasia</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>The Paragon Union</t>
+          <t>Walsingford</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1965</v>
+        <v>788</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:32:45</t>
+          <t>0:13:08</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2948</v>
+        <v>1182</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:49:08</t>
+          <t>0:19:42</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_paragon_union</t>
+          <t>https://www.nationstates.net/region=walsingford</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The Fudician Alliance</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2277</v>
+        <v>948</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:37:57</t>
+          <t>0:15:48</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3415</v>
+        <v>1422</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:56:55</t>
+          <t>0:23:42</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2314</v>
+        <v>951</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:38:34</t>
+          <t>0:15:51</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3470</v>
+        <v>1427</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:57:50</t>
+          <t>0:23:47</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,81 +2316,81 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The United Federation of Scallions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2318</v>
+        <v>967</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:38:38</t>
+          <t>0:16:07</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3476</v>
+        <v>1450</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:57:56</t>
+          <t>0:24:10</t>
         </is>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_united_federation_of_scallions</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>The Legion of MISA</t>
+          <t>The Island of Norbert</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2701</v>
+        <v>976</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:45:01</t>
+          <t>0:16:16</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4051</v>
+        <v>1464</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1:07:31</t>
+          <t>0:24:24</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_legion_of_misa</t>
+          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2410,28 +2410,28 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Beryslav</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2713</v>
+        <v>983</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:45:13</t>
+          <t>0:16:23</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4069</v>
+        <v>1474</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1:07:49</t>
+          <t>0:24:34</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,81 +2439,81 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=beryslav</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Violet Irises</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2726</v>
+        <v>1004</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:45:26</t>
+          <t>0:16:44</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4089</v>
+        <v>1505</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:08:09</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Region of Curvature</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2922</v>
+        <v>1008</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:48:42</t>
+          <t>0:16:48</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4383</v>
+        <v>1512</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1:13:03</t>
+          <t>0:25:12</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=region_of_curvature</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Syndicalist Confederacy</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2966</v>
+        <v>1044</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:49:26</t>
+          <t>0:17:24</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4450</v>
+        <v>1566</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1:14:10</t>
+          <t>0:26:06</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,92 +2562,1199 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=syndicalist_confederacy</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Cyberius Confederation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3211</v>
+        <v>1044</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:53:31</t>
+          <t>0:17:24</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4816</v>
+        <v>1566</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1:20:16</t>
+          <t>0:26:06</t>
         </is>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=cyberius_confederation</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
+          <t>Libertalia</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0:18:25</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1658</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0:27:38</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=libertalia</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TWP</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>The Ulster Isles</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WFE, RO</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0:18:26</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_ulster_isles</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TWP</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Sulawesi united organization</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0:18:38</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1677</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0:27:57</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=sulawesi_united_organization</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Aerope</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0:19:02</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0:28:34</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=aerope</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Sparkalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Kyorgia puppet storage</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1147</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0:19:07</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0:28:41</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>EPSA, Lily, Osiris, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Agia Germania Anest</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>WFE, RO</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0:19:10</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0:28:46</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=agia_germania_anest</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TWP</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>This is the longest name I come up</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0:19:10</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0:28:46</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Blood</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1158</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0:19:18</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1736</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0:28:56</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1158</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0:19:18</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1736</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0:28:56</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=nvidia_geforce</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Stellar Crystal Tavern</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0:20:36</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1854</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0:30:54</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Osiris, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Auralesia</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0:20:59</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1888</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0:31:28</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=auralesia</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Nowhere</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0:22:30</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0:33:46</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=nowhere</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Alliance of Empires</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1353</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0:22:33</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2029</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0:33:49</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=alliance_of_empires</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Regional Defense Council</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0:22:59</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2069</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0:34:29</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=regional_defense_council</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Analchist</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1442</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0:24:02</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2164</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0:36:04</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=analchist</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Regional Officers</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0:31:16</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2813</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0:46:53</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=regional_officers</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>The Paragon Union</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1877</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0:31:17</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0:46:55</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_paragon_union</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Malice Girl Scouts</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2229</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0:37:09</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3344</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0:55:44</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Is that a region</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2269</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0:37:49</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3404</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0:56:44</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=is_that_a_region</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Cretanja Queendom</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2269</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0:37:49</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3404</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0:56:44</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2273</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0:37:53</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3410</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0:56:50</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>The Legion of MISA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>WFE, RO</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0:44:09</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3973</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1:06:13</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_legion_of_misa</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2660</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0:44:20</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3991</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1:06:31</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Violet Irises</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>WFE, RO</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2676</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0:44:36</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>4013</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1:06:53</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=violet_irises</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TWP</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2878</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0:47:58</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4317</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1:11:57</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2927</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0:48:47</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4391</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1:13:11</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3183</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0:53:03</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4775</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1:19:35</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>3448</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0:57:28</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>5172</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1:26:12</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="C81" t="n">
+        <v>3434</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0:57:14</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>5151</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1:25:51</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="08 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="09 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,69 +524,69 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Dubno</t>
+          <t>Virgo Clava</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:40</t>
         </is>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dubno</t>
+          <t>https://www.nationstates.net/region=virgo_clava</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Virgo Clava</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,19 +594,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=virgo_clava</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -647,28 +647,28 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>cool headed people living logically</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cool_headed_people_living_logically</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>Ascensionsen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=ascensionsen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:03:20</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Yusmoydal</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yusmoydal</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Ascensionsen</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:02:44</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ascensionsen</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:02:45</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:04:14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>183</v>
+        <v>381</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:03:03</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:03:08</t>
+          <t>0:06:22</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1098,28 +1098,28 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Union of Dystopias</t>
+          <t>NPS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>200</v>
+        <v>383</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:06:23</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_dystopias</t>
+          <t>https://www.nationstates.net/region=nps</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ijaka, Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:04:16</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>accented</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:06:42</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accented</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Polcom</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>297</v>
+        <v>510</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:04:57</t>
+          <t>0:08:30</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polcom</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:06:31</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>301</v>
+        <v>587</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:05:01</t>
+          <t>0:09:47</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,81 +1291,81 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Unified Capitalist Alliance</t>
+          <t>Regiao das Nacoes Utopicas Unidas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>201</v>
+        <v>512</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:08:32</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>302</v>
+        <v>768</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:12:48</t>
         </is>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=unified_capitalist_alliance</t>
+          <t>https://www.nationstates.net/region=regiao_das_nacoes_utopicas_unidas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>201</v>
+        <v>535</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:08:55</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>302</v>
+        <v>802</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:13:22</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>203</v>
+        <v>538</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:08:58</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>304</v>
+        <v>806</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:13:26</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>204</v>
+        <v>888</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:14:48</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>305</v>
+        <v>1331</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:22:11</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Union of United Democratic States</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>206</v>
+        <v>1026</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:17:06</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>309</v>
+        <v>1540</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:25:40</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_united_democratic_states</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1508,28 +1508,28 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Island of Norbert</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>216</v>
+        <v>1050</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:17:30</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>324</v>
+        <v>1575</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:26:15</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,19 +1537,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Nevil region</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,27 +1558,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>247</v>
+        <v>1076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:17:56</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>370</v>
+        <v>1615</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:06:10</t>
+          <t>0:26:55</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nevil_region</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Region of Curvature</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>267</v>
+        <v>1080</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:18:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>400</v>
+        <v>1620</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:06:40</t>
+          <t>0:27:00</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=region_of_curvature</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Britannian Kingdom</t>
+          <t>Sulawesi united organization</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>269</v>
+        <v>1193</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:04:29</t>
+          <t>0:19:53</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>404</v>
+        <v>1790</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:06:44</t>
+          <t>0:29:50</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,19 +1660,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_britannian_kingdom</t>
+          <t>https://www.nationstates.net/region=sulawesi_united_organization</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>306</v>
+        <v>1227</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:20:27</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>459</v>
+        <v>1841</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:07:39</t>
+          <t>0:30:41</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1713,28 +1713,28 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Clown Council</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>324</v>
+        <v>1233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:20:33</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>486</v>
+        <v>1850</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:08:06</t>
+          <t>0:30:50</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=clown_council</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Confederation of Outlying Nations</t>
+          <t>This is the longest name I come up</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>379</v>
+        <v>1237</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:06:19</t>
+          <t>0:20:37</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>569</v>
+        <v>1856</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:09:29</t>
+          <t>0:30:56</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
+          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Nadvirna</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>409</v>
+        <v>1244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:06:49</t>
+          <t>0:20:44</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>614</v>
+        <v>1865</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:10:14</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nadvirna</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1836,69 +1836,69 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Regiao das Nacoes Utopicas Unidas</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>414</v>
+        <v>1246</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:06:54</t>
+          <t>0:20:46</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>622</v>
+        <v>1870</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:10:22</t>
+          <t>0:31:10</t>
         </is>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regiao_das_nacoes_utopicas_unidas</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>432</v>
+        <v>1316</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:07:12</t>
+          <t>0:21:56</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>647</v>
+        <v>1973</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:10:47</t>
+          <t>0:32:53</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Consequences VI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>435</v>
+        <v>1394</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:23:14</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>652</v>
+        <v>2091</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:34:51</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=consequences_vi</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The Great Sun Isles</t>
+          <t>Sandstorm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,60 +1968,60 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>476</v>
+        <v>1495</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:24:55</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>714</v>
+        <v>2242</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:11:54</t>
+          <t>0:37:22</t>
         </is>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_sun_isles</t>
+          <t>https://www.nationstates.net/region=sandstorm</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The United States of TGK</t>
+          <t>Yhsj</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>477</v>
+        <v>1821</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:07:57</t>
+          <t>0:30:21</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>715</v>
+        <v>2732</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:11:55</t>
+          <t>0:45:32</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_states_of_tgk</t>
+          <t>https://www.nationstates.net/region=yhsj</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>New Pacific Islands Region</t>
+          <t>United Planetary Council</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>665</v>
+        <v>1859</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:11:05</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>997</v>
+        <v>2788</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:16:37</t>
+          <t>0:46:28</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
+          <t>https://www.nationstates.net/region=united_planetary_council</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,28 +2082,28 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starry Nations</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>702</v>
+        <v>1884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:11:42</t>
+          <t>0:31:24</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1053</v>
+        <v>2826</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:17:33</t>
+          <t>0:47:06</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=starry_nations</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>The Writing Alcove</t>
+          <t>International Association of States</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,101 +2132,101 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>702</v>
+        <v>1933</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:11:42</t>
+          <t>0:32:13</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1053</v>
+        <v>2899</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:17:33</t>
+          <t>0:48:19</t>
         </is>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_writing_alcove</t>
+          <t>https://www.nationstates.net/region=international_association_of_states</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>afreurasia</t>
+          <t>The Astrogarth Region</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>738</v>
+        <v>1970</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:12:18</t>
+          <t>0:32:50</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1107</v>
+        <v>2956</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:18:27</t>
+          <t>0:49:16</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=afreurasia</t>
+          <t>https://www.nationstates.net/region=the_astrogarth_region</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Walsingford</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>788</v>
+        <v>2209</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:13:08</t>
+          <t>0:36:49</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1182</v>
+        <v>3313</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:19:42</t>
+          <t>0:55:13</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walsingford</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>The Fudician Alliance</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>948</v>
+        <v>2253</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:15:48</t>
+          <t>0:37:33</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1422</v>
+        <v>3380</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:23:42</t>
+          <t>0:56:20</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,40 +2275,40 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>951</v>
+        <v>2258</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:15:51</t>
+          <t>0:37:38</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1427</v>
+        <v>3388</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:23:47</t>
+          <t>0:56:28</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,81 +2316,81 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The United Federation of Scallions</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>967</v>
+        <v>2642</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:16:07</t>
+          <t>0:44:02</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1450</v>
+        <v>3962</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:24:10</t>
+          <t>1:06:02</t>
         </is>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_federation_of_scallions</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>The Island of Norbert</t>
+          <t>Violet Irises</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>976</v>
+        <v>2658</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:16:16</t>
+          <t>0:44:18</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1464</v>
+        <v>3987</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:24:24</t>
+          <t>1:06:27</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
+          <t>https://www.nationstates.net/region=violet_irises</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Beryslav</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>983</v>
+        <v>2850</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:16:23</t>
+          <t>0:47:30</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1474</v>
+        <v>4275</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:24:34</t>
+          <t>1:11:15</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,81 +2439,81 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=beryslav</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1004</v>
+        <v>2901</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:16:44</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1505</v>
+        <v>4352</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>1:12:32</t>
         </is>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Region of Curvature</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1008</v>
+        <v>3166</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:16:48</t>
+          <t>0:52:46</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1512</v>
+        <v>4749</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:25:12</t>
+          <t>1:19:09</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_curvature</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Syndicalist Confederacy</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1044</v>
+        <v>3397</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:17:24</t>
+          <t>0:56:37</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1566</v>
+        <v>5095</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:26:06</t>
+          <t>1:24:55</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,1199 +2562,10 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=syndicalist_confederacy</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Cyberius Confederation</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>WFE, RO</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1044</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0:17:24</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>1566</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0:26:06</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cyberius_confederation</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Libertalia</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1105</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0:18:25</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>1658</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0:27:38</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=libertalia</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>The Ulster Isles</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>WFE, RO</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1106</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0:18:26</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>1660</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0:27:40</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_ulster_isles</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Sulawesi united organization</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1118</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0:18:38</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>1677</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0:27:57</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=sulawesi_united_organization</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Aerope</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0:19:02</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>1714</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0:28:34</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=aerope</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Kyorgia puppet storage</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1147</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0:19:07</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0:28:41</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Agia Germania Anest</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>WFE, RO</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0:19:10</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0:28:46</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=agia_germania_anest</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>This is the longest name I come up</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1150</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0:19:10</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0:28:46</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Blood</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1158</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0:19:18</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1736</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0:28:56</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>NVIDIA GeForce</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1158</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0:19:18</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1736</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0:28:56</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=nvidia_geforce</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Stellar Crystal Tavern</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1236</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0:20:36</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1854</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0:30:54</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Osiris, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Auralesia</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1259</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0:20:59</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1888</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0:31:28</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=auralesia</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Nowhere</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0:22:30</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>2026</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0:33:46</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=nowhere</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Alliance of Empires</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1353</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0:22:33</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>2029</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0:33:49</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=alliance_of_empires</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Regional Defense Council</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1379</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0:22:59</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>2069</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0:34:29</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_defense_council</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Analchist</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1442</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0:24:02</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>2164</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0:36:04</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=analchist</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>BoM, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Regional Officers</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1876</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0:31:16</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>2813</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0:46:53</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>The Paragon Union</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1877</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0:31:17</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0:46:55</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_paragon_union</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>BoM, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2229</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0:37:09</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>3344</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0:55:44</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Is that a region</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>2269</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0:37:49</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>3404</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0:56:44</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=is_that_a_region</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>2269</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0:37:49</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>3404</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0:56:44</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>2273</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0:37:53</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>3410</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>The Legion of MISA</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>WFE, RO</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>2649</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0:44:09</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>3973</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1:06:13</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_legion_of_misa</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>2660</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0:44:20</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>3991</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1:06:31</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Violet Irises</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>WFE, RO</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>2676</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0:44:36</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>4013</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1:06:53</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>2878</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0:47:58</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>4317</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1:11:57</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>2927</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0:48:47</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>4391</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1:13:11</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>3183</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0:53:03</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>4775</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1:19:35</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>3434</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0:57:14</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>5151</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1:25:51</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="09 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:00</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:00</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -524,12 +524,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Virgo Clava</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -541,11 +541,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:40</t>
+          <t>0:01:41</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,19 +553,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=virgo_clava</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:01:42</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,28 +606,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Uman Raion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:11</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=uman_raion</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Ascensionsen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=ascensionsen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Ascensionsen</t>
+          <t>Koalision Respak</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ascensionsen</t>
+          <t>https://www.nationstates.net/region=koalision_respak</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>The United World Region</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:14</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=the_united_world_region</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:42</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,19 +840,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>accession</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=accession</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:45</t>
+          <t>0:02:20</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:04:50</t>
+          <t>0:05:13</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:14</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:06:21</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:05:16</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1098,28 +1098,28 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>NPS</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:06:23</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nps</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:04:16</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:06:24</t>
+          <t>0:06:39</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:06:42</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:07:19</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>510</v>
+        <v>659</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:08:30</t>
+          <t>0:10:59</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:06:31</t>
+          <t>0:07:22</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>587</v>
+        <v>663</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:09:47</t>
+          <t>0:11:03</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,81 +1291,81 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Regiao das Nacoes Utopicas Unidas</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>512</v>
+        <v>838</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:08:32</t>
+          <t>0:13:58</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>768</v>
+        <v>1258</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:12:48</t>
+          <t>0:20:58</t>
         </is>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regiao_das_nacoes_utopicas_unidas</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>535</v>
+        <v>981</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:08:55</t>
+          <t>0:16:21</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>802</v>
+        <v>1471</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:13:22</t>
+          <t>0:24:31</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>538</v>
+        <v>1037</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:08:58</t>
+          <t>0:17:17</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>806</v>
+        <v>1556</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:13:26</t>
+          <t>0:25:56</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Region of Curvature</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>888</v>
+        <v>1040</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:14:48</t>
+          <t>0:17:20</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1331</v>
+        <v>1560</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:22:11</t>
+          <t>0:26:00</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=region_of_curvature</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1026</v>
+        <v>1168</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:17:06</t>
+          <t>0:19:28</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1540</v>
+        <v>1752</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:25:40</t>
+          <t>0:29:12</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Island of Norbert</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1050</v>
+        <v>1172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:17:30</t>
+          <t>0:19:32</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1575</v>
+        <v>1758</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:26:15</t>
+          <t>0:29:18</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,81 +1537,81 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_island_of_norbert</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1076</v>
+        <v>1173</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:17:56</t>
+          <t>0:19:33</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1615</v>
+        <v>1760</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:26:55</t>
+          <t>0:29:20</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Region of Curvature</t>
+          <t>This is the longest name I come up</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1080</v>
+        <v>1176</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:18:00</t>
+          <t>0:19:36</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1620</v>
+        <v>1765</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:27:00</t>
+          <t>0:29:25</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_curvature</t>
+          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sulawesi united organization</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:19:53</t>
+          <t>0:19:47</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:29:50</t>
+          <t>0:29:40</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sulawesi_united_organization</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,28 +1672,28 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1227</v>
+        <v>1189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:20:27</t>
+          <t>0:19:49</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1841</v>
+        <v>1784</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:30:41</t>
+          <t>0:29:44</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1233</v>
+        <v>1279</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:20:33</t>
+          <t>0:21:19</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1850</v>
+        <v>1918</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:30:50</t>
+          <t>0:31:58</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>This is the longest name I come up</t>
+          <t>Consequences VI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1237</v>
+        <v>1365</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:20:37</t>
+          <t>0:22:45</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1856</v>
+        <v>2047</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:30:56</t>
+          <t>0:34:07</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
+          <t>https://www.nationstates.net/region=consequences_vi</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,28 +1795,28 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1244</v>
+        <v>1937</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:20:44</t>
+          <t>0:32:17</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1865</v>
+        <v>2906</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:48:26</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>The Astrogarth Region</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1246</v>
+        <v>2029</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:20:46</t>
+          <t>0:33:49</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1870</v>
+        <v>3044</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:31:10</t>
+          <t>0:50:44</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=the_astrogarth_region</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1316</v>
+        <v>2297</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:21:56</t>
+          <t>0:38:17</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1973</v>
+        <v>3446</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:32:53</t>
+          <t>0:57:26</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Consequences VI</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1394</v>
+        <v>2329</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:23:14</t>
+          <t>0:38:49</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2091</v>
+        <v>3494</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:34:51</t>
+          <t>0:58:14</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=consequences_vi</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Sandstorm</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1495</v>
+        <v>2333</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:24:55</t>
+          <t>0:38:53</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2242</v>
+        <v>3500</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:37:22</t>
+          <t>0:58:20</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sandstorm</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Yhsj</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1821</v>
+        <v>2699</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:30:21</t>
+          <t>0:44:59</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2732</v>
+        <v>4049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:45:32</t>
+          <t>1:07:29</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=yhsj</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>United Planetary Council</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1859</v>
+        <v>2896</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:48:16</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2788</v>
+        <v>4344</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:46:28</t>
+          <t>1:12:24</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,40 +2070,40 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_planetary_council</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1884</v>
+        <v>2943</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:31:24</t>
+          <t>0:49:03</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2826</v>
+        <v>4415</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:47:06</t>
+          <t>1:13:35</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,40 +2111,40 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>International Association of States</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1933</v>
+        <v>3180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:32:13</t>
+          <t>0:53:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2899</v>
+        <v>4770</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:48:19</t>
+          <t>1:19:30</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=international_association_of_states</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>The Astrogarth Region</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1970</v>
+        <v>3410</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:32:50</t>
+          <t>0:56:50</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2956</v>
+        <v>5116</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:49:16</t>
+          <t>1:25:16</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,379 +2193,10 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_astrogarth_region</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2209</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0:36:49</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3313</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0:55:13</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2253</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0:37:33</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>3380</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0:56:20</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2258</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0:37:38</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>3388</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0:56:28</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2642</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0:44:02</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>3962</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1:06:02</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Violet Irises</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>WFE, RO</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>2658</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0:44:18</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3987</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1:06:27</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=violet_irises</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>TWP</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0:47:30</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>4275</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1:11:15</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>2901</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0:48:21</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>4352</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1:12:32</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>3166</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0:52:46</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>4749</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1:19:09</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>3397</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0:56:37</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>5095</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1:24:55</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="10 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:01</t>
+          <t>0:00:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:01</t>
+          <t>0:00:00</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:42</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:28</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:01:44</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:02:36</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -770,28 +770,28 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The United World Region</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:12</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:03:18</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_world_region</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:35</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:03:52</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>accession</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=accession</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:05:16</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -934,28 +934,28 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:05:13</t>
+          <t>0:05:30</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:04:39</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>314</v>
+        <v>418</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:06:58</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:05:22</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:05:16</t>
+          <t>0:08:03</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:07:54</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>324</v>
+        <v>711</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:11:51</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>266</v>
+        <v>478</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:07:58</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>399</v>
+        <v>717</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:06:39</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>314</v>
+        <v>858</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:14:18</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>470</v>
+        <v>1286</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>439</v>
+        <v>1003</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:07:19</t>
+          <t>0:16:43</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>659</v>
+        <v>1505</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:10:59</t>
+          <t>0:25:05</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>442</v>
+        <v>1056</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:17:36</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>663</v>
+        <v>1584</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:11:03</t>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Region of Curvature</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>838</v>
+        <v>1059</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:13:58</t>
+          <t>0:17:39</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1258</v>
+        <v>1588</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:20:58</t>
+          <t>0:26:28</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=region_of_curvature</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TWP</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>981</v>
+        <v>1192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:16:21</t>
+          <t>0:19:52</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1471</v>
+        <v>1788</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:24:31</t>
+          <t>0:29:48</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>BallsMoment</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1037</v>
+        <v>1198</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:17:17</t>
+          <t>0:19:58</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1556</v>
+        <v>1797</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:25:56</t>
+          <t>0:29:57</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=ballsmoment</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Region of Curvature</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1040</v>
+        <v>1199</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:17:20</t>
+          <t>0:19:59</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1560</v>
+        <v>1799</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:26:00</t>
+          <t>0:29:59</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_curvature</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>This is the longest name I come up</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1168</v>
+        <v>1202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:19:28</t>
+          <t>0:20:02</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1752</v>
+        <v>1804</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:29:12</t>
+          <t>0:30:04</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1172</v>
+        <v>1210</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:19:32</t>
+          <t>0:20:10</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1758</v>
+        <v>1815</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:29:18</t>
+          <t>0:30:15</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1173</v>
+        <v>1213</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:19:33</t>
+          <t>0:20:13</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1760</v>
+        <v>1820</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:29:20</t>
+          <t>0:30:20</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>This is the longest name I come up</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1176</v>
+        <v>1293</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:19:36</t>
+          <t>0:21:33</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1765</v>
+        <v>1939</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:29:25</t>
+          <t>0:32:19</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Consequences VI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1187</v>
+        <v>1378</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:19:47</t>
+          <t>0:22:58</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1780</v>
+        <v>2067</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:29:40</t>
+          <t>0:34:27</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=consequences_vi</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,28 +1672,28 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Sraqn Genc</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1189</v>
+        <v>1921</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:19:49</t>
+          <t>0:32:01</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1784</v>
+        <v>2881</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:29:44</t>
+          <t>0:48:01</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sraqn_genc</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The Astrogarth Region</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1279</v>
+        <v>2008</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:21:19</t>
+          <t>0:33:28</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1918</v>
+        <v>3012</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:31:58</t>
+          <t>0:50:12</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_astrogarth_region</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Consequences VI</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1365</v>
+        <v>2255</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:22:45</t>
+          <t>0:37:35</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2047</v>
+        <v>3383</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:34:07</t>
+          <t>0:56:23</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=consequences_vi</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1937</v>
+        <v>2294</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:32:17</t>
+          <t>0:38:14</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2906</v>
+        <v>3442</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:48:26</t>
+          <t>0:57:22</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>The Astrogarth Region</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2029</v>
+        <v>2300</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:33:49</t>
+          <t>0:38:20</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3044</v>
+        <v>3450</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:50:44</t>
+          <t>0:57:30</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_astrogarth_region</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2297</v>
+        <v>2666</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:38:17</t>
+          <t>0:44:26</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3446</v>
+        <v>3998</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:57:26</t>
+          <t>1:06:38</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2329</v>
+        <v>2859</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:38:49</t>
+          <t>0:47:39</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3494</v>
+        <v>4288</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:58:14</t>
+          <t>1:11:28</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2333</v>
+        <v>2904</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:38:53</t>
+          <t>0:48:24</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3500</v>
+        <v>4356</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:58:20</t>
+          <t>1:12:36</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,19 +1988,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2699</v>
+        <v>3145</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:44:59</t>
+          <t>0:52:25</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4049</v>
+        <v>4718</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1:07:29</t>
+          <t>1:18:38</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2896</v>
+        <v>3338</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:48:16</t>
+          <t>0:55:38</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4344</v>
+        <v>5007</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1:12:24</t>
+          <t>1:23:27</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,133 +2070,10 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>2943</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0:49:03</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>4415</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1:13:35</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3180</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0:53:00</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4770</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1:19:30</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>3410</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0:56:50</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>5116</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1:25:16</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Brudiccreni</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:00</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:00</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=brudiccreni</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,28 +565,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>kill antifa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=kill_antifa</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Kantrias, TBH</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Uman Raion</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=uman_raion</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ascensionsen</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ascensionsen</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Koalision Respak</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:44</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:36</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,19 +758,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=koalision_respak</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Archination</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:12</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:18</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=archination</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -811,28 +811,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:35</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:52</t>
+          <t>0:05:30</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>316</v>
+        <v>456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:05:16</t>
+          <t>0:07:36</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:05:38</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>318</v>
+        <v>506</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:05:18</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>220</v>
+        <v>479</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:07:59</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>330</v>
+        <v>719</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:11:59</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>279</v>
+        <v>484</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:39</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>418</v>
+        <v>727</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:06:58</t>
+          <t>0:12:07</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>322</v>
+        <v>879</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:05:22</t>
+          <t>0:14:39</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>483</v>
+        <v>1318</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:08:03</t>
+          <t>0:21:58</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>474</v>
+        <v>1021</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:07:54</t>
+          <t>0:17:01</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>711</v>
+        <v>1531</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:11:51</t>
+          <t>0:25:31</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Covenant</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>478</v>
+        <v>1070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:07:58</t>
+          <t>0:17:50</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>717</v>
+        <v>1605</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:11:57</t>
+          <t>0:26:45</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=covenant</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>858</v>
+        <v>1201</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:14:18</t>
+          <t>0:20:01</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1286</v>
+        <v>1801</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:21:26</t>
+          <t>0:30:01</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,19 +1209,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1003</v>
+        <v>1206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:16:43</t>
+          <t>0:20:06</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1505</v>
+        <v>1809</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:25:05</t>
+          <t>0:30:09</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>This is the longest name I come up</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1056</v>
+        <v>1210</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:17:36</t>
+          <t>0:20:10</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1584</v>
+        <v>1815</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:26:24</t>
+          <t>0:30:15</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1303,28 +1303,28 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Region of Curvature</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1059</v>
+        <v>1215</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:17:39</t>
+          <t>0:20:15</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1588</v>
+        <v>1823</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:26:28</t>
+          <t>0:30:23</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_curvature</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TWP</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1192</v>
+        <v>1301</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:19:52</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1788</v>
+        <v>1952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:29:48</t>
+          <t>0:32:32</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BallsMoment</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1198</v>
+        <v>1922</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:19:58</t>
+          <t>0:32:02</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1797</v>
+        <v>2882</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:29:57</t>
+          <t>0:48:02</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ballsmoment</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Thebeartovianrepublic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1199</v>
+        <v>1924</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:19:59</t>
+          <t>0:32:04</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1799</v>
+        <v>2886</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:29:59</t>
+          <t>0:48:06</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=thebeartovianrepublic</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>This is the longest name I come up</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1202</v>
+        <v>2246</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:20:02</t>
+          <t>0:37:26</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1804</v>
+        <v>3370</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:30:04</t>
+          <t>0:56:10</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1210</v>
+        <v>2288</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:20:10</t>
+          <t>0:38:08</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1815</v>
+        <v>3432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:30:15</t>
+          <t>0:57:12</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1213</v>
+        <v>2296</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:20:13</t>
+          <t>0:38:16</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1820</v>
+        <v>3444</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:30:20</t>
+          <t>0:57:24</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,19 +1578,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1293</v>
+        <v>2636</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:21:33</t>
+          <t>0:43:56</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1939</v>
+        <v>3954</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:32:19</t>
+          <t>1:05:54</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Consequences VI</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1378</v>
+        <v>2838</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:22:58</t>
+          <t>0:47:18</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2067</v>
+        <v>4257</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:34:27</t>
+          <t>1:10:57</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=consequences_vi</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1921</v>
+        <v>2894</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:32:01</t>
+          <t>0:48:14</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2881</v>
+        <v>4341</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:48:01</t>
+          <t>1:12:21</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>The Astrogarth Region</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2008</v>
+        <v>3134</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:33:28</t>
+          <t>0:52:14</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3012</v>
+        <v>4702</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:50:12</t>
+          <t>1:18:22</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_astrogarth_region</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2255</v>
+        <v>3374</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:37:35</t>
+          <t>0:56:14</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3383</v>
+        <v>5061</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:56:23</t>
+          <t>1:24:21</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,297 +1783,10 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2294</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0:38:14</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>3442</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0:57:22</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0:38:20</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>3450</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0:57:30</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>2666</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0:44:26</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>3998</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1:06:38</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2859</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0:47:39</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>4288</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1:11:28</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>2904</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0:48:24</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>4356</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1:12:36</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3145</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0:52:25</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>4718</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1:18:38</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>3338</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0:55:38</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>5007</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1:23:27</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="12 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="13 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Blue skies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=blue_skies</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:05</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:01:38</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,28 +565,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>kill antifa</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:46</t>
+          <t>0:01:06</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,12 +594,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kill_antifa</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Kantrias, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:20</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:30</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:03:51</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:04:37</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:06:17</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -770,7 +770,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Archination</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=archination</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -811,28 +811,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:04:23</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:06:34</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>236</v>
+        <v>344</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>355</v>
+        <v>516</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:05:55</t>
+          <t>0:08:36</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:06:45</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:07:36</t>
+          <t>0:10:08</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>338</v>
+        <v>554</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:05:38</t>
+          <t>0:09:14</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>506</v>
+        <v>830</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:08:26</t>
+          <t>0:13:50</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>479</v>
+        <v>556</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:07:59</t>
+          <t>0:09:16</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>719</v>
+        <v>835</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:11:59</t>
+          <t>0:13:55</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>484</v>
+        <v>909</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:15:09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>727</v>
+        <v>1363</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:12:07</t>
+          <t>0:22:43</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>879</v>
+        <v>1048</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:14:39</t>
+          <t>0:17:28</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1318</v>
+        <v>1571</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:21:58</t>
+          <t>0:26:11</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1021</v>
+        <v>1252</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:17:01</t>
+          <t>0:20:52</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1531</v>
+        <v>1878</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:25:31</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Covenant</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1070</v>
+        <v>1258</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:17:50</t>
+          <t>0:20:58</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1605</v>
+        <v>1887</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:26:45</t>
+          <t>0:31:27</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=covenant</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1201</v>
+        <v>1269</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:20:01</t>
+          <t>0:21:09</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1801</v>
+        <v>1903</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:30:01</t>
+          <t>0:31:43</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,19 +1209,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1206</v>
+        <v>1338</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:20:06</t>
+          <t>0:22:18</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1809</v>
+        <v>2007</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:30:09</t>
+          <t>0:33:27</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>This is the longest name I come up</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1210</v>
+        <v>1909</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:20:10</t>
+          <t>0:31:49</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1815</v>
+        <v>2863</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:30:15</t>
+          <t>0:47:43</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=this_is_the_longest_name_i_come_up</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Slavya</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1215</v>
+        <v>1917</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:20:15</t>
+          <t>0:31:57</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1823</v>
+        <v>2875</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:30:23</t>
+          <t>0:47:55</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=slavya</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>Os inimigos amigos</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1301</v>
+        <v>1975</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:32:55</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1952</v>
+        <v>2962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:32:32</t>
+          <t>0:49:22</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=os_inimigos_amigos</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Ho Ho Ho Im Santaland</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1922</v>
+        <v>2029</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:32:02</t>
+          <t>0:33:49</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2882</v>
+        <v>3043</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:48:02</t>
+          <t>0:50:43</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=ho_ho_ho_im_santaland</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Thebeartovianrepublic</t>
+          <t>capitolist</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1924</v>
+        <v>2056</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:32:04</t>
+          <t>0:34:16</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2886</v>
+        <v>3084</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:48:06</t>
+          <t>0:51:24</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=thebeartovianrepublic</t>
+          <t>https://www.nationstates.net/region=capitolist</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1467,28 +1467,28 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The United Union of Bosten</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2246</v>
+        <v>2254</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:37:26</t>
+          <t>0:37:34</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3370</v>
+        <v>3382</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:56:10</t>
+          <t>0:56:22</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_united_union_of_bosten</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2288</v>
+        <v>2255</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:38:08</t>
+          <t>0:37:35</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3432</v>
+        <v>3383</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:57:12</t>
+          <t>0:56:23</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Dudsvians</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2296</v>
+        <v>2283</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:38:16</t>
+          <t>0:38:03</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3444</v>
+        <v>3425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:57:24</t>
+          <t>0:57:05</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,19 +1578,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=dudsvians</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2636</v>
+        <v>2291</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:43:56</t>
+          <t>0:38:11</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3954</v>
+        <v>3437</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1:05:54</t>
+          <t>0:57:17</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2838</v>
+        <v>2296</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:47:18</t>
+          <t>0:38:16</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4257</v>
+        <v>3444</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1:10:57</t>
+          <t>0:57:24</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Middle Europe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2894</v>
+        <v>2413</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:48:14</t>
+          <t>0:40:13</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4341</v>
+        <v>3620</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1:12:21</t>
+          <t>1:00:20</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=middle_europe</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Skunthar V</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3134</v>
+        <v>2616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:52:14</t>
+          <t>0:43:36</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4702</v>
+        <v>3925</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1:18:22</t>
+          <t>1:05:25</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,51 +1742,625 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=skunthar_v</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0:43:55</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3953</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1:05:53</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Believe And Be Saved</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2675</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0:44:35</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4012</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1:06:52</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=believe_and_be_saved</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Polaris Australis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0:46:47</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4210</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1:10:10</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=polaris_australis</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2826</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0:47:06</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4240</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1:10:40</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>After The Rain</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0:47:16</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4255</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1:10:55</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=after_the_rain</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>You Just Got Raided</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2858</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0:47:38</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1:11:26</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=you_just_got_raided</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2874</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0:47:54</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4311</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1:11:51</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Gilads Holy Empire</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2884</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0:48:04</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4326</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1:12:06</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=gilads_holy_empire</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>notas region</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2931</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0:48:51</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4397</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1:13:17</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=notas_region</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>The Abyss Empire</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3097</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0:51:37</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4646</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1:17:26</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_abyss_empire</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3121</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0:52:01</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4682</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1:18:02</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>bozo kingdom</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3127</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0:52:07</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>4690</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1:18:10</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=bozo_kingdom</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Republic of Channel Island</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3281</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0:54:41</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4921</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1:22:01</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=republic_of_channel_island</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Republic Charter</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3304</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0:55:04</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4956</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1:22:36</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=republic_charter</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>3374</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0:56:14</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>5061</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1:24:21</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="C47" t="n">
+        <v>3345</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0:55:45</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5017</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1:23:37</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="13 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="14 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Blue skies</t>
+          <t>Trissia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:07</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,12 +512,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=blue_skies</t>
+          <t>https://www.nationstates.net/region=trissia</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:05</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:38</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:06</t>
+          <t>0:01:04</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:39</t>
+          <t>0:01:36</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:20</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:30</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:51</t>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:04:37</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:03:36</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:06:17</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:05:29</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:04:23</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:06:34</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:04:40</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>516</v>
+        <v>419</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:08:36</t>
+          <t>0:06:59</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:06:45</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>608</v>
+        <v>462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:10:08</t>
+          <t>0:07:42</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>554</v>
+        <v>351</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:09:14</t>
+          <t>0:05:51</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>830</v>
+        <v>527</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:13:50</t>
+          <t>0:08:47</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>RP Rejected Realms</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>556</v>
+        <v>352</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:09:16</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>835</v>
+        <v>529</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:13:55</t>
+          <t>0:08:49</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=rp_rejected_realms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1016,28 +1016,28 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Gebristan Valley</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>909</v>
+        <v>390</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:15:09</t>
+          <t>0:06:30</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1363</v>
+        <v>585</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:22:43</t>
+          <t>0:09:45</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=gebristan_valley</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>Confederation of Outlying Nations</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1048</v>
+        <v>442</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:17:28</t>
+          <t>0:07:22</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1571</v>
+        <v>664</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:26:11</t>
+          <t>0:11:04</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1252</v>
+        <v>505</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:20:52</t>
+          <t>0:08:25</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1878</v>
+        <v>757</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:31:18</t>
+          <t>0:12:37</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,19 +1127,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1258</v>
+        <v>508</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:20:58</t>
+          <t>0:08:28</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1887</v>
+        <v>762</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:31:27</t>
+          <t>0:12:42</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Shumch</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1269</v>
+        <v>689</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:21:09</t>
+          <t>0:11:29</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1903</v>
+        <v>1034</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:17:14</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=shumch</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>New Mandalore</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1338</v>
+        <v>756</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:22:18</t>
+          <t>0:12:36</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2007</v>
+        <v>1134</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:33:27</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=new_mandalore</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1909</v>
+        <v>858</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:31:49</t>
+          <t>0:14:18</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2863</v>
+        <v>1288</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:47:43</t>
+          <t>0:21:28</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Slavya</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1917</v>
+        <v>1009</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:31:57</t>
+          <t>0:16:49</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2875</v>
+        <v>1514</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:47:55</t>
+          <t>0:25:14</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=slavya</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Os inimigos amigos</t>
+          <t>Republic of Democratic States</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,60 +1353,60 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1975</v>
+        <v>1086</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:32:55</t>
+          <t>0:18:06</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2962</v>
+        <v>1628</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:49:22</t>
+          <t>0:27:08</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=os_inimigos_amigos</t>
+          <t>https://www.nationstates.net/region=republic_of_democratic_states</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Ho Ho Ho Im Santaland</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2029</v>
+        <v>1214</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:33:49</t>
+          <t>0:20:14</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3043</v>
+        <v>1820</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:50:43</t>
+          <t>0:30:20</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ho_ho_ho_im_santaland</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>capitolist</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2056</v>
+        <v>1219</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:34:16</t>
+          <t>0:20:19</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3084</v>
+        <v>1828</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:51:24</t>
+          <t>0:30:28</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=capitolist</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>The United Union of Bosten</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2254</v>
+        <v>1229</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:37:34</t>
+          <t>0:20:29</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3382</v>
+        <v>1844</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:56:22</t>
+          <t>0:30:44</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_union_of_bosten</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Stellar Crystal Tavern</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2255</v>
+        <v>1310</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:37:35</t>
+          <t>0:21:50</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3383</v>
+        <v>1965</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:56:23</t>
+          <t>0:32:45</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Dudsvians</t>
+          <t>The Breadlands</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2283</v>
+        <v>1346</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:38:03</t>
+          <t>0:22:26</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3425</v>
+        <v>2019</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:57:05</t>
+          <t>0:33:39</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=dudsvians</t>
+          <t>https://www.nationstates.net/region=the_breadlands</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Izmail</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2291</v>
+        <v>1428</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:38:11</t>
+          <t>0:23:48</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3437</v>
+        <v>2141</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:57:17</t>
+          <t>0:35:41</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=izmail</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The Rock Islands</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2296</v>
+        <v>1836</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:38:16</t>
+          <t>0:30:36</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3444</v>
+        <v>2755</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:57:24</t>
+          <t>0:45:55</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_rock_islands</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Middle Europe</t>
+          <t>SolarFlare</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2413</v>
+        <v>1883</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:40:13</t>
+          <t>0:31:23</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3620</v>
+        <v>2825</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1:00:20</t>
+          <t>0:47:05</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=middle_europe</t>
+          <t>https://www.nationstates.net/region=solarflare</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Skunthar V</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2616</v>
+        <v>1916</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:43:36</t>
+          <t>0:31:56</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3925</v>
+        <v>2875</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1:05:25</t>
+          <t>0:47:55</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=skunthar_v</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2635</v>
+        <v>2297</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:43:55</t>
+          <t>0:38:17</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3953</v>
+        <v>3446</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1:05:53</t>
+          <t>0:57:26</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Believe And Be Saved</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2675</v>
+        <v>2335</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:44:35</t>
+          <t>0:38:55</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4012</v>
+        <v>3502</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1:06:52</t>
+          <t>0:58:22</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=believe_and_be_saved</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Polaris Australis</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2807</v>
+        <v>2340</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:46:47</t>
+          <t>0:39:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4210</v>
+        <v>3510</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1:10:10</t>
+          <t>0:58:30</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=polaris_australis</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2826</v>
+        <v>2713</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:47:06</t>
+          <t>0:45:13</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4240</v>
+        <v>4069</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1:10:40</t>
+          <t>1:07:49</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>After The Rain</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2836</v>
+        <v>2915</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:47:16</t>
+          <t>0:48:35</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4255</v>
+        <v>4373</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1:10:55</t>
+          <t>1:12:53</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=after_the_rain</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>You Just Got Raided</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2858</v>
+        <v>2976</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:47:38</t>
+          <t>0:49:36</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4286</v>
+        <v>4465</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1:11:26</t>
+          <t>1:14:25</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=you_just_got_raided</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2874</v>
+        <v>3229</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:47:54</t>
+          <t>0:53:49</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4311</v>
+        <v>4844</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1:11:51</t>
+          <t>1:20:44</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,48 +2029,48 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Gilads Holy Empire</t>
+          <t>bozo kingdom</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2884</v>
+        <v>3236</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:48:04</t>
+          <t>0:53:56</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4326</v>
+        <v>4855</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1:12:06</t>
+          <t>1:20:55</t>
         </is>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gilads_holy_empire</t>
+          <t>https://www.nationstates.net/region=bozo_kingdom</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,28 +2082,28 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>notas region</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2931</v>
+        <v>3454</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:48:51</t>
+          <t>0:57:34</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4397</v>
+        <v>5181</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1:13:17</t>
+          <t>1:26:21</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,256 +2111,10 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=notas_region</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
-        <is>
-          <t>BoM, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>The Abyss Empire</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3097</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0:51:37</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4646</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1:17:26</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_abyss_empire</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>3121</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0:52:01</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>4682</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1:18:02</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>bozo kingdom</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>3127</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0:52:07</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>4690</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1:18:10</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=bozo_kingdom</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Republic of Channel Island</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>3281</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0:54:41</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>4921</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1:22:01</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=republic_of_channel_island</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Republic Charter</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>3304</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0:55:04</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>4956</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1:22:36</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=republic_charter</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>3345</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0:55:45</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>5017</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1:23:37</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="14 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:07</t>
+          <t>0:00:11</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:00:16</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -524,7 +524,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Jade Was Here</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:00:28</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:00:42</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=jade_was_here</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:04</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:36</t>
+          <t>0:01:24</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,28 +606,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:05</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,19 +635,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>The United Table of The Boys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:00:58</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:22</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,28 +688,28 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:03:36</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,19 +758,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,27 +779,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:05:29</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -811,28 +811,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>EUROPOOAN UNION</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:02:31</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>226</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,19 +840,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=europooan_union</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:04:40</t>
+          <t>0:02:33</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>419</v>
+        <v>229</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:06:59</t>
+          <t>0:03:49</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>New Tahiti</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>462</v>
+        <v>275</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:07:42</t>
+          <t>0:04:35</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=new_tahiti</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Region of Sycamore Meadow</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:05:51</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>527</v>
+        <v>279</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:08:47</t>
+          <t>0:04:39</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=region_of_sycamore_meadow</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RP Rejected Realms</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>352</v>
+        <v>201</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>529</v>
+        <v>301</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:08:49</t>
+          <t>0:05:01</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rp_rejected_realms</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Gebristan Valley</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>390</v>
+        <v>204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:06:30</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>585</v>
+        <v>305</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:09:45</t>
+          <t>0:05:05</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gebristan_valley</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1057,7 +1057,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Confederation of Outlying Nations</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:07:22</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>664</v>
+        <v>328</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:11:04</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>United Nations of Everyone</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>505</v>
+        <v>230</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:08:25</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>757</v>
+        <v>345</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:12:37</t>
+          <t>0:05:45</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=united_nations_of_everyone</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>508</v>
+        <v>253</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:08:28</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>762</v>
+        <v>380</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:12:42</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Shumch</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>689</v>
+        <v>283</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:11:29</t>
+          <t>0:04:43</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1034</v>
+        <v>424</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:17:14</t>
+          <t>0:07:04</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shumch</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>New Mandalore</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>756</v>
+        <v>304</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:12:36</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1134</v>
+        <v>456</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:18:54</t>
+          <t>0:07:36</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_mandalore</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>858</v>
+        <v>325</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:14:18</t>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1288</v>
+        <v>487</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:21:28</t>
+          <t>0:08:07</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>RP Rejected Realms</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1009</v>
+        <v>326</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:16:49</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1514</v>
+        <v>489</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:25:14</t>
+          <t>0:08:09</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,48 +1332,48 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=rp_rejected_realms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Republic of Democratic States</t>
+          <t>Gebristan Valley</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1086</v>
+        <v>344</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:18:06</t>
+          <t>0:05:44</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1628</v>
+        <v>515</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:27:08</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=republic_of_democratic_states</t>
+          <t>https://www.nationstates.net/region=gebristan_valley</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1385,28 +1385,28 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>State Sovereignty Pact</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1214</v>
+        <v>347</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:20:14</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1820</v>
+        <v>520</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:30:20</t>
+          <t>0:08:40</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,81 +1414,81 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=state_sovereignty_pact</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>World Stage</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1219</v>
+        <v>357</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:20:19</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1828</v>
+        <v>535</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:30:28</t>
+          <t>0:08:55</t>
         </is>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=world_stage</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1229</v>
+        <v>448</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:20:29</t>
+          <t>0:07:28</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1844</v>
+        <v>672</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:30:44</t>
+          <t>0:11:12</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Stellar Crystal Tavern</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1310</v>
+        <v>451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:21:50</t>
+          <t>0:07:31</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1965</v>
+        <v>676</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:32:45</t>
+          <t>0:11:16</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,19 +1537,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=stellar_crystal_tavern</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Osiris, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The Breadlands</t>
+          <t>Mc Mc Mc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1346</v>
+        <v>479</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:22:26</t>
+          <t>0:07:59</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2019</v>
+        <v>718</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:33:39</t>
+          <t>0:11:58</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_breadlands</t>
+          <t>https://www.nationstates.net/region=mc_mc_mc</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,28 +1590,28 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Izmail</t>
+          <t>Shumch</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1428</v>
+        <v>648</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:23:48</t>
+          <t>0:10:48</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2141</v>
+        <v>973</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:35:41</t>
+          <t>0:16:13</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=izmail</t>
+          <t>https://www.nationstates.net/region=shumch</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Rock Islands</t>
+          <t>Honeymoon Farm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1836</v>
+        <v>650</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:30:36</t>
+          <t>0:10:50</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2755</v>
+        <v>975</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:45:55</t>
+          <t>0:16:15</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_rock_islands</t>
+          <t>https://www.nationstates.net/region=honeymoon_farm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,69 +1672,69 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>New Pacific Islands Region</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1883</v>
+        <v>664</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:31:23</t>
+          <t>0:11:04</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2825</v>
+        <v>997</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:47:05</t>
+          <t>0:16:37</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Myna Bird Appreciation Society</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1916</v>
+        <v>680</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:31:56</t>
+          <t>0:11:20</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2875</v>
+        <v>1020</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:47:55</t>
+          <t>0:17:00</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=myna_bird_appreciation_society</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2297</v>
+        <v>683</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:38:17</t>
+          <t>0:11:23</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3446</v>
+        <v>1025</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:57:26</t>
+          <t>0:17:05</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Greater Horse Empire</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2335</v>
+        <v>707</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:38:55</t>
+          <t>0:11:47</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3502</v>
+        <v>1061</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:58:22</t>
+          <t>0:17:41</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_greater_horse_empire</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>New Mandalore</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2340</v>
+        <v>719</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:39:00</t>
+          <t>0:11:59</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3510</v>
+        <v>1078</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:58:30</t>
+          <t>0:17:58</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=new_mandalore</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2713</v>
+        <v>730</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:45:13</t>
+          <t>0:12:10</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4069</v>
+        <v>1095</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1:07:49</t>
+          <t>0:18:15</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2915</v>
+        <v>766</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:48:35</t>
+          <t>0:12:46</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4373</v>
+        <v>1149</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1:12:53</t>
+          <t>0:19:09</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2976</v>
+        <v>836</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:49:36</t>
+          <t>0:13:56</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4465</v>
+        <v>1254</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1:14:25</t>
+          <t>0:20:54</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3229</v>
+        <v>859</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:53:49</t>
+          <t>0:14:19</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4844</v>
+        <v>1288</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1:20:44</t>
+          <t>0:21:28</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,92 +2029,2142 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>bozo kingdom</t>
+          <t>The Fudician Alliance</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3236</v>
+        <v>997</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:53:56</t>
+          <t>0:16:37</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4855</v>
+        <v>1496</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1:20:55</t>
+          <t>0:24:56</t>
         </is>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bozo_kingdom</t>
+          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
+          <t>Greater Tyrannyistan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0:16:41</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0:25:01</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Ijaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Mojave Wasteland</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1041</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0:17:21</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0:26:02</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Republic of Democratic States</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0:17:58</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1617</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0:26:57</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=republic_of_democratic_states</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>The Union of Nationstates</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1088</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0:18:08</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1632</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0:27:12</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_union_of_nationstates</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Mars Congressional Republic</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1108</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0:18:28</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0:27:43</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=mars_congressional_republic</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Aerope</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1193</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0:19:53</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1789</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0:29:49</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=aerope</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Sparkalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Muchas Gracias</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0:19:56</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0:29:53</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=muchas_gracias</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Kyorgia puppet storage</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0:20:00</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1799</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0:29:59</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>EPSA, Lily, Osiris, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Blood</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0:20:10</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1815</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0:30:15</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>The Allied Mynal Sectors</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0:20:12</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1818</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0:30:18</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_allied_mynal_sectors</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Tropical Islands</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1214</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0:20:14</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1820</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0:30:20</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Areda Muiri</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1304</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0:21:44</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1956</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0:32:36</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=areda_muiri</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>The Breadlands</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0:22:28</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0:33:42</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_breadlands</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Pangaea</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1363</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0:22:43</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0:34:04</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=pangaea</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Izmail</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0:24:01</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2162</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0:36:02</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=izmail</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>The Union of Idontknow</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0:24:18</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2187</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0:36:27</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>The Region of Peace</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0:25:30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2296</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0:38:16</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>League of Arab</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0:25:51</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2326</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0:38:46</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=league_of_arab</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Too</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0:28:08</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2533</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0:42:13</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=too</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Walkhard</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0:30:03</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2705</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0:45:05</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=walkhard</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Sjrurekyr</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0:30:50</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2775</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0:46:15</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=sjrurekyr</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0:31:11</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2807</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0:46:47</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=mafia</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Pacific sheckle union</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0:31:27</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2831</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0:47:11</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=pacific_sheckle_union</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>The Big Chill Entente</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0:31:29</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0:47:13</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Brave New Countries</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1931</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0:32:11</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2896</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0:48:16</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=brave_new_countries</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Coalition of Free Nations</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1936</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0:32:16</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2903</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0:48:23</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=coalition_of_free_nations</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>SolarFlare</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1936</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0:32:16</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2903</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0:48:23</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=solarflare</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Regional Officers</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0:32:34</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2932</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0:48:52</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=regional_officers</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Fallout DnD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0:32:46</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2949</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0:49:09</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Lowpixel</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0:33:37</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3026</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0:50:26</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=lowpixel</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Chromatica</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0:33:54</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3051</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0:50:51</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=chromatica</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>A Land of Love and Peace</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0:34:01</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3062</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0:51:02</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>The United Republic of Socialist States</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2080</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0:34:40</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3120</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0:52:00</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_united_republic_of_socialist_states</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Soodan</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WFE, RO, Embassies</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2290</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0:38:10</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3435</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0:57:15</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=soodan</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Malice Girl Scouts</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2291</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0:38:11</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3436</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0:57:16</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Momentia Momentus</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2328</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0:38:48</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3492</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0:58:12</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=momentia_momentus</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Cretanja Queendom</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2330</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0:38:50</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3495</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0:58:15</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2336</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0:38:56</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3504</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0:58:24</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2732</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0:45:32</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4098</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1:08:18</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Great armed lands</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2887</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0:48:07</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4331</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1:12:11</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=great_armed_lands</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>AustraliaSim</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0:48:42</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4383</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1:13:03</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=australiasim</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2930</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0:48:50</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>4394</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1:13:14</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>The Allied States of North America</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2956</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0:49:16</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4435</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1:13:55</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_allied_states_of_north_america</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2973</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0:49:33</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4460</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1:14:20</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Gilads Holy Empire</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2982</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0:49:42</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>4474</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1:14:34</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=gilads_holy_empire</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>The Benevolent Realm of Spaghetti</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3196</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0:53:16</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>4794</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1:19:54</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_benevolent_realm_of_spaghetti</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3216</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0:53:36</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>4823</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1:20:23</t>
+        </is>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>bozo kingdom</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3222</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0:53:42</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>4832</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1:20:32</t>
+        </is>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=bozo_kingdom</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>The Christian Space Empire</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3394</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0:56:34</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5091</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1:24:51</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_christian_space_empire</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Soto Land</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3427</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0:57:07</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5141</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1:25:41</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=soto_land</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>3454</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0:57:34</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>5181</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1:26:21</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="C91" t="n">
+        <v>3453</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0:57:33</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>5179</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1:26:19</t>
+        </is>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="15 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="16 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:11</t>
+          <t>0:00:09</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:16</t>
+          <t>0:00:14</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -524,28 +524,28 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jade Was Here</t>
+          <t>SussyGang</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:28</t>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:42</t>
+          <t>0:00:15</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,19 +553,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jade_was_here</t>
+          <t>https://www.nationstates.net/region=sussygang</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Jade Was Here</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:24</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=jade_was_here</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:58</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>The United Table of The Boys</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -729,28 +729,28 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,60 +758,60 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>EUROPOOAN UNION</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,27 +820,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:31</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:46</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europooan_union</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>EUROPOOAN UNION</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:02:38</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:49</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=europooan_union</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>New Tahiti</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:35</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_tahiti</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -934,28 +934,28 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Region of Sycamore Meadow</t>
+          <t>Comradeburg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:02</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:04:39</t>
+          <t>0:04:33</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_sycamore_meadow</t>
+          <t>https://www.nationstates.net/region=comradeburg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>New Tahiti</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:05:01</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=new_tahiti</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>Region of Sycamore Meadow</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:05:05</t>
+          <t>0:04:50</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_of_sycamore_meadow</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:05:06</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>United Nations of Everyone</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:05:45</t>
+          <t>0:05:10</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_nations_of_everyone</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1139,28 +1139,28 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:03:37</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:05:25</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>United Nations of Everyone</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:04:43</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:07:04</t>
+          <t>0:05:40</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,81 +1209,81 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=united_nations_of_everyone</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>Contributions</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:07:36</t>
+          <t>0:06:25</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=contributions</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Boys LLC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:05:25</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>487</v>
+        <v>387</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:08:07</t>
+          <t>0:06:27</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_boys_llc</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RP Rejected Realms</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:08:09</t>
+          <t>0:07:19</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=rp_rejected_realms</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gebristan Valley</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:05:44</t>
+          <t>0:05:18</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:08:35</t>
+          <t>0:07:57</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gebristan_valley</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>State Sovereignty Pact</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:05:39</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:08:40</t>
+          <t>0:08:29</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,32 +1414,32 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=state_sovereignty_pact</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>World Stage</t>
+          <t>Nationstates Ski Resort</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:05:56</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=world_stage</t>
+          <t>https://www.nationstates.net/region=nationstates_ski_resort</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Gebristan Valley</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>448</v>
+        <v>359</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:07:28</t>
+          <t>0:05:59</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>672</v>
+        <v>539</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:11:12</t>
+          <t>0:08:59</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=gebristan_valley</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>State Sovereignty Pact</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:07:31</t>
+          <t>0:06:10</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>676</v>
+        <v>554</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:11:16</t>
+          <t>0:09:14</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,81 +1537,81 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=state_sovereignty_pact</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Mc Mc Mc</t>
+          <t>World Stage</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>479</v>
+        <v>380</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:07:59</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>718</v>
+        <v>569</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:11:58</t>
+          <t>0:09:29</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mc_mc_mc</t>
+          <t>https://www.nationstates.net/region=world_stage</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Shumch</t>
+          <t>Riskord</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>648</v>
+        <v>452</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:10:48</t>
+          <t>0:07:32</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>973</v>
+        <v>677</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:16:13</t>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shumch</t>
+          <t>https://www.nationstates.net/region=riskord</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Honeymoon Farm</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>650</v>
+        <v>477</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:10:50</t>
+          <t>0:07:57</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>975</v>
+        <v>716</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:16:15</t>
+          <t>0:11:56</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,81 +1660,81 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=honeymoon_farm</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>New Pacific Islands Region</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>664</v>
+        <v>479</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:11:04</t>
+          <t>0:07:59</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>997</v>
+        <v>719</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:16:37</t>
+          <t>0:11:59</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Myna Bird Appreciation Society</t>
+          <t>Mc Mc Mc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>680</v>
+        <v>499</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:11:20</t>
+          <t>0:08:19</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1020</v>
+        <v>749</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:17:00</t>
+          <t>0:12:29</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=myna_bird_appreciation_society</t>
+          <t>https://www.nationstates.net/region=mc_mc_mc</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>683</v>
+        <v>500</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:11:23</t>
+          <t>0:08:20</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:17:05</t>
+          <t>0:12:30</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=5565</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>The Greater Horse Empire</t>
+          <t>Shumch</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:11:47</t>
+          <t>0:10:56</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1061</v>
+        <v>984</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:17:41</t>
+          <t>0:16:24</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_horse_empire</t>
+          <t>https://www.nationstates.net/region=shumch</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>New Mandalore</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>719</v>
+        <v>657</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:11:59</t>
+          <t>0:10:57</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1078</v>
+        <v>985</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:17:58</t>
+          <t>0:16:25</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_mandalore</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Honeymoon Farm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>730</v>
+        <v>657</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:12:10</t>
+          <t>0:10:57</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1095</v>
+        <v>985</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:18:15</t>
+          <t>0:16:25</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=honeymoon_farm</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1918,69 +1918,69 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>New Pacific Islands Region</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>766</v>
+        <v>673</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:12:46</t>
+          <t>0:11:13</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1149</v>
+        <v>1010</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:19:09</t>
+          <t>0:16:50</t>
         </is>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Myna Bird Appreciation Society</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>836</v>
+        <v>692</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:13:56</t>
+          <t>0:11:32</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1254</v>
+        <v>1037</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:20:54</t>
+          <t>0:17:17</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=myna_bird_appreciation_society</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2000,28 +2000,28 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>The Islands of the Great Wrath</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>859</v>
+        <v>696</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:14:19</t>
+          <t>0:11:36</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1288</v>
+        <v>1043</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:21:28</t>
+          <t>0:17:23</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The Fudician Alliance</t>
+          <t>The Greater Horse Empire</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>997</v>
+        <v>715</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:16:37</t>
+          <t>0:11:55</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1496</v>
+        <v>1073</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:24:56</t>
+          <t>0:17:53</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
+          <t>https://www.nationstates.net/region=the_greater_horse_empire</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,69 +2082,69 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>fURRIES 4 NATIONSTATES XD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1001</v>
+        <v>721</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:16:41</t>
+          <t>0:12:01</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1501</v>
+        <v>1082</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:25:01</t>
+          <t>0:18:02</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=furries_4_nationstates_xd</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>New Mandalore</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1041</v>
+        <v>725</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:17:21</t>
+          <t>0:12:05</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1562</v>
+        <v>1088</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:26:02</t>
+          <t>0:18:08</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,60 +2152,60 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=new_mandalore</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Republic of Democratic States</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1078</v>
+        <v>736</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:17:58</t>
+          <t>0:12:16</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1617</v>
+        <v>1104</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:26:57</t>
+          <t>0:18:24</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=republic_of_democratic_states</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>The Union of Nationstates</t>
+          <t>European Places</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2214,150 +2214,150 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1088</v>
+        <v>760</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:18:08</t>
+          <t>0:12:40</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1632</v>
+        <v>1140</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:27:12</t>
+          <t>0:19:00</t>
         </is>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_nationstates</t>
+          <t>https://www.nationstates.net/region=european_places</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Mars Congressional Republic</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1108</v>
+        <v>774</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:18:28</t>
+          <t>0:12:54</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1663</v>
+        <v>1160</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:27:43</t>
+          <t>0:19:20</t>
         </is>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mars_congressional_republic</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Walsingford</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1193</v>
+        <v>807</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:19:53</t>
+          <t>0:13:27</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1789</v>
+        <v>1210</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:29:49</t>
+          <t>0:20:10</t>
         </is>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=walsingford</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Muchas Gracias</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1196</v>
+        <v>834</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:19:56</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1793</v>
+        <v>1251</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:29:53</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=muchas_gracias</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2369,28 +2369,28 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1200</v>
+        <v>852</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:20:00</t>
+          <t>0:14:12</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1799</v>
+        <v>1277</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:29:59</t>
+          <t>0:21:17</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,19 +2398,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>The Fudician Alliance</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1210</v>
+        <v>990</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:20:10</t>
+          <t>0:16:30</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1815</v>
+        <v>1486</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:30:15</t>
+          <t>0:24:46</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>The Allied Mynal Sectors</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1212</v>
+        <v>993</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:20:12</t>
+          <t>0:16:33</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1818</v>
+        <v>1490</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:30:18</t>
+          <t>0:24:50</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_mynal_sectors</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka, TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1214</v>
+        <v>1031</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:20:14</t>
+          <t>0:17:11</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1820</v>
+        <v>1546</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:30:20</t>
+          <t>0:25:46</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2533,151 +2533,151 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Areda Muiri</t>
+          <t>Republic of Democratic States</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1304</v>
+        <v>1070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:21:44</t>
+          <t>0:17:50</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1956</v>
+        <v>1606</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:32:36</t>
+          <t>0:26:46</t>
         </is>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=areda_muiri</t>
+          <t>https://www.nationstates.net/region=republic_of_democratic_states</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>The Breadlands</t>
+          <t>The Union of Nationstates</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1348</v>
+        <v>1079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:22:28</t>
+          <t>0:17:59</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2022</v>
+        <v>1619</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:33:42</t>
+          <t>0:26:59</t>
         </is>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_breadlands</t>
+          <t>https://www.nationstates.net/region=the_union_of_nationstates</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Pangaea</t>
+          <t>Mars Congressional Republic</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1363</v>
+        <v>1103</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:22:43</t>
+          <t>0:18:23</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2044</v>
+        <v>1654</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:34:04</t>
+          <t>0:27:34</t>
         </is>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pangaea</t>
+          <t>https://www.nationstates.net/region=mars_congressional_republic</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Izmail</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1441</v>
+        <v>1192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:24:01</t>
+          <t>0:19:52</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2162</v>
+        <v>1788</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:36:02</t>
+          <t>0:29:48</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,81 +2685,81 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=izmail</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>The Union of Idontknow</t>
+          <t>Muchas Gracias</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1458</v>
+        <v>1194</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:24:18</t>
+          <t>0:19:54</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2187</v>
+        <v>1791</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:36:27</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+          <t>https://www.nationstates.net/region=muchas_gracias</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1530</v>
+        <v>1197</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:25:30</t>
+          <t>0:19:57</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2296</v>
+        <v>1796</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:38:16</t>
+          <t>0:29:56</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,40 +2767,40 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>League of Arab</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1551</v>
+        <v>1209</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:25:51</t>
+          <t>0:20:09</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2326</v>
+        <v>1814</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:38:46</t>
+          <t>0:30:14</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,60 +2808,60 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=league_of_arab</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>The Allied Mynal Sectors</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1688</v>
+        <v>1211</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:28:08</t>
+          <t>0:20:11</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2533</v>
+        <v>1817</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:42:13</t>
+          <t>0:30:17</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=the_allied_mynal_sectors</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Walkhard</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1803</v>
+        <v>1213</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:30:03</t>
+          <t>0:20:13</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2705</v>
+        <v>1819</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:45:05</t>
+          <t>0:30:19</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walkhard</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2902,28 +2902,28 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Sjrurekyr</t>
+          <t>Areda Muiri</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1850</v>
+        <v>1297</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:30:50</t>
+          <t>0:21:37</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2775</v>
+        <v>1946</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:46:15</t>
+          <t>0:32:26</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sjrurekyr</t>
+          <t>https://www.nationstates.net/region=areda_muiri</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2943,7 +2943,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Mafia</t>
+          <t>The Breadlands</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2952,101 +2952,101 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1871</v>
+        <v>1336</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:31:11</t>
+          <t>0:22:16</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2807</v>
+        <v>2004</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:46:47</t>
+          <t>0:33:24</t>
         </is>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mafia</t>
+          <t>https://www.nationstates.net/region=the_breadlands</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Pacific sheckle union</t>
+          <t>Pangaea</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1887</v>
+        <v>1351</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:31:27</t>
+          <t>0:22:31</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2831</v>
+        <v>2027</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:47:11</t>
+          <t>0:33:47</t>
         </is>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pacific_sheckle_union</t>
+          <t>https://www.nationstates.net/region=pangaea</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>The Big Chill Entente</t>
+          <t>Izmail</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1889</v>
+        <v>1435</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:31:29</t>
+          <t>0:23:55</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2833</v>
+        <v>2152</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:47:13</t>
+          <t>0:35:52</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
+          <t>https://www.nationstates.net/region=izmail</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Brave New Countries</t>
+          <t>The Union of Idontknow</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3075,19 +3075,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1931</v>
+        <v>1445</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:32:11</t>
+          <t>0:24:05</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2896</v>
+        <v>2168</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:48:16</t>
+          <t>0:36:08</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=brave_new_countries</t>
+          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3107,48 +3107,48 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Coalition of Free Nations</t>
+          <t>The Region of Peace</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1936</v>
+        <v>1511</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:32:16</t>
+          <t>0:25:11</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2903</v>
+        <v>2266</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:48:23</t>
+          <t>0:37:46</t>
         </is>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=coalition_of_free_nations</t>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>League of Arab</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,60 +3157,60 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1936</v>
+        <v>1531</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:32:16</t>
+          <t>0:25:31</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2903</v>
+        <v>2297</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:48:23</t>
+          <t>0:38:17</t>
         </is>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=league_of_arab</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1954</v>
+        <v>1702</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:32:34</t>
+          <t>0:28:22</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2932</v>
+        <v>2553</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:48:52</t>
+          <t>0:42:33</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,19 +3218,19 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>Walkhard</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3239,19 +3239,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1966</v>
+        <v>1803</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:32:46</t>
+          <t>0:30:03</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2949</v>
+        <v>2704</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:49:09</t>
+          <t>0:45:04</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=walkhard</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3271,28 +3271,28 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Lowpixel</t>
+          <t>Sjrurekyr</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2017</v>
+        <v>1859</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:33:37</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3026</v>
+        <v>2788</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:50:26</t>
+          <t>0:46:28</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=lowpixel</t>
+          <t>https://www.nationstates.net/region=sjrurekyr</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3312,36 +3312,36 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Chromatica</t>
+          <t>Mafia</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2034</v>
+        <v>1877</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:33:54</t>
+          <t>0:31:17</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3051</v>
+        <v>2816</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:50:51</t>
+          <t>0:46:56</t>
         </is>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chromatica</t>
+          <t>https://www.nationstates.net/region=mafia</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3353,48 +3353,48 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>A Land of Love and Peace</t>
+          <t>Pacific sheckle union</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2041</v>
+        <v>1892</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0:34:01</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3062</v>
+        <v>2838</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0:51:02</t>
+          <t>0:47:18</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
+          <t>https://www.nationstates.net/region=pacific_sheckle_union</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>The United Republic of Socialist States</t>
+          <t>The Big Chill Entente</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3403,19 +3403,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2080</v>
+        <v>1894</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0:34:40</t>
+          <t>0:31:34</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3120</v>
+        <v>2840</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0:52:00</t>
+          <t>0:47:20</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_republic_of_socialist_states</t>
+          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3435,69 +3435,69 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Soodan</t>
+          <t>Arda emeritus</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2290</v>
+        <v>1934</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0:38:10</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3435</v>
+        <v>2901</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0:57:15</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soodan</t>
+          <t>https://www.nationstates.net/region=arda_emeritus</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Brave New Countries</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2291</v>
+        <v>1937</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0:38:11</t>
+          <t>0:32:17</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3436</v>
+        <v>2905</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0:57:16</t>
+          <t>0:48:25</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3505,60 +3505,60 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=brave_new_countries</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Momentia Momentus</t>
+          <t>Coalition of Free Nations</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2328</v>
+        <v>1941</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0:38:48</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3492</v>
+        <v>2912</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0:58:12</t>
+          <t>0:48:32</t>
         </is>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=momentia_momentus</t>
+          <t>https://www.nationstates.net/region=coalition_of_free_nations</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3567,19 +3567,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2330</v>
+        <v>1962</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0:38:50</t>
+          <t>0:32:42</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3495</v>
+        <v>2942</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0:58:15</t>
+          <t>0:49:02</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3587,40 +3587,40 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2336</v>
+        <v>1969</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0:38:56</t>
+          <t>0:32:49</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3504</v>
+        <v>2953</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0:58:24</t>
+          <t>0:49:13</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3628,40 +3628,40 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Lowpixel</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2732</v>
+        <v>2015</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0:45:32</t>
+          <t>0:33:35</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4098</v>
+        <v>3022</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1:08:18</t>
+          <t>0:50:22</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3669,19 +3669,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=lowpixel</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Great armed lands</t>
+          <t>Chromatica</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3690,19 +3690,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2887</v>
+        <v>2032</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0:48:07</t>
+          <t>0:33:52</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4331</v>
+        <v>3048</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1:12:11</t>
+          <t>0:50:48</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3710,81 +3710,81 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=great_armed_lands</t>
+          <t>https://www.nationstates.net/region=chromatica</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>AustraliaSim</t>
+          <t>A Land of Love and Peace</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2922</v>
+        <v>2043</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0:48:42</t>
+          <t>0:34:03</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4383</v>
+        <v>3064</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1:13:03</t>
+          <t>0:51:04</t>
         </is>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=australiasim</t>
+          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The United Republic of Socialist States</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2930</v>
+        <v>2079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0:48:50</t>
+          <t>0:34:39</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4394</v>
+        <v>3119</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1:13:14</t>
+          <t>0:51:59</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3792,40 +3792,40 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_united_republic_of_socialist_states</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>The Allied States of North America</t>
+          <t>Soodan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2956</v>
+        <v>2320</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0:49:16</t>
+          <t>0:38:40</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4435</v>
+        <v>3480</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1:13:55</t>
+          <t>0:58:00</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3833,40 +3833,40 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_states_of_north_america</t>
+          <t>https://www.nationstates.net/region=soodan</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2973</v>
+        <v>2321</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0:49:33</t>
+          <t>0:38:41</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4460</v>
+        <v>3481</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1:14:20</t>
+          <t>0:58:01</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3874,40 +3874,40 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Gilads Holy Empire</t>
+          <t>Momentia Momentus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2982</v>
+        <v>2354</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0:49:42</t>
+          <t>0:39:14</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4474</v>
+        <v>3532</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1:14:34</t>
+          <t>0:58:52</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3915,81 +3915,81 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gilads_holy_empire</t>
+          <t>https://www.nationstates.net/region=momentia_momentus</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>The Benevolent Realm of Spaghetti</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3196</v>
+        <v>2357</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0:53:16</t>
+          <t>0:39:17</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4794</v>
+        <v>3536</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1:19:54</t>
+          <t>0:58:56</t>
         </is>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_benevolent_realm_of_spaghetti</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3216</v>
+        <v>2362</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0:53:36</t>
+          <t>0:39:22</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4823</v>
+        <v>3543</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1:20:23</t>
+          <t>0:59:03</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3997,60 +3997,60 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ben</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>bozo kingdom</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3222</v>
+        <v>2722</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0:53:42</t>
+          <t>0:45:22</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4832</v>
+        <v>4083</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1:20:32</t>
+          <t>1:08:03</t>
         </is>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bozo_kingdom</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>The Christian Space Empire</t>
+          <t>Great armed lands</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4059,19 +4059,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3394</v>
+        <v>2879</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0:56:34</t>
+          <t>0:47:59</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5091</v>
+        <v>4319</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1:24:51</t>
+          <t>1:11:59</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_christian_space_empire</t>
+          <t>https://www.nationstates.net/region=great_armed_lands</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Soto Land</t>
+          <t>AustraliaSim</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4100,27 +4100,27 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3427</v>
+        <v>2917</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0:57:07</t>
+          <t>0:48:37</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5141</v>
+        <v>4376</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1:25:41</t>
+          <t>1:12:56</t>
         </is>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soto_land</t>
+          <t>https://www.nationstates.net/region=australiasim</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4132,39 +4132,326 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0:48:46</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4389</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1:13:09</t>
+        </is>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>The Allied States of North America</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0:49:29</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>4453</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1:14:13</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_allied_states_of_north_america</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2983</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0:49:43</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>4475</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1:14:35</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3225</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0:53:45</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>4838</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1:20:38</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=ben</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>bozo kingdom</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3233</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0:53:53</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1:20:50</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=bozo_kingdom</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>The Christian Space Empire</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3396</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0:56:36</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5094</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1:24:54</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_christian_space_empire</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Soto Land</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3429</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0:57:09</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5143</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1:25:43</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=soto_land</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>BoM, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>3453</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0:57:33</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>5179</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1:26:19</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="C98" t="n">
+        <v>3455</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0:57:35</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>5182</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1:26:22</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="16 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="17 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Trissia</t>
+          <t>SussyGang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:09</t>
+          <t>0:00:08</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:14</t>
+          <t>0:00:12</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,40 +512,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=trissia</t>
+          <t>https://www.nationstates.net/region=sussygang</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SussyGang</t>
+          <t>Jade Was Here</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:00:51</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:15</t>
+          <t>0:01:17</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,19 +553,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sussygang</t>
+          <t>https://www.nationstates.net/region=jade_was_here</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Jade Was Here</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:02:09</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jade_was_here</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:02:10</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>The United Table of The Boys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:01:27</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:02:27</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,12 +758,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:14</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:32</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:38</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:04:51</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:03:02</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:04:33</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -975,7 +975,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>New Tahiti</t>
+          <t>Region of Sycamore Meadow</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_tahiti</t>
+          <t>https://www.nationstates.net/region=region_of_sycamore_meadow</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Region of Sycamore Meadow</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:04:19</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:04:50</t>
+          <t>0:06:28</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_sycamore_meadow</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:06:40</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,89 +1086,89 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:04:40</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:05:10</t>
+          <t>0:07:00</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Contributions</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:03:37</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>325</v>
+        <v>472</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:05:25</t>
+          <t>0:07:52</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=contributions</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1180,28 +1180,28 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>United Nations of Everyone</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>340</v>
+        <v>506</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:05:40</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,101 +1209,101 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_nations_of_everyone</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Contributions</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:04:17</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>385</v>
+        <v>570</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:06:25</t>
+          <t>0:09:30</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=contributions</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The Boys LLC</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:06:40</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>387</v>
+        <v>600</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:06:27</t>
+          <t>0:10:00</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_boys_llc</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>State Sovereignty Pact</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>293</v>
+        <v>510</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:08:30</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>439</v>
+        <v>766</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:07:19</t>
+          <t>0:12:46</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,81 +1332,81 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=state_sovereignty_pact</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>World Stage</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>318</v>
+        <v>524</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:05:18</t>
+          <t>0:08:44</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>477</v>
+        <v>785</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:07:57</t>
+          <t>0:13:05</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=world_stage</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>339</v>
+        <v>595</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:05:39</t>
+          <t>0:09:55</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>509</v>
+        <v>892</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:08:29</t>
+          <t>0:14:52</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,81 +1414,81 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nationstates Ski Resort</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>356</v>
+        <v>597</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:05:56</t>
+          <t>0:09:57</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>535</v>
+        <v>896</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:08:55</t>
+          <t>0:14:56</t>
         </is>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nationstates_ski_resort</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Gebristan Valley</t>
+          <t>Mc Mc Mc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>359</v>
+        <v>615</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:05:59</t>
+          <t>0:10:15</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>539</v>
+        <v>922</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:08:59</t>
+          <t>0:15:22</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gebristan_valley</t>
+          <t>https://www.nationstates.net/region=mc_mc_mc</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>State Sovereignty Pact</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:06:10</t>
+          <t>0:10:16</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>554</v>
+        <v>924</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:09:14</t>
+          <t>0:15:24</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,81 +1537,81 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=state_sovereignty_pact</t>
+          <t>https://www.nationstates.net/region=5565</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>World Stage</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>380</v>
+        <v>736</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:12:16</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>569</v>
+        <v>1104</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:09:29</t>
+          <t>0:18:24</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=world_stage</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Riskord</t>
+          <t>Honeymoon Farm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>452</v>
+        <v>736</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:07:32</t>
+          <t>0:12:16</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>677</v>
+        <v>1104</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:11:17</t>
+          <t>0:18:24</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,81 +1619,81 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=riskord</t>
+          <t>https://www.nationstates.net/region=honeymoon_farm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>New Pacific Islands Region</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>477</v>
+        <v>751</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:07:57</t>
+          <t>0:12:31</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>716</v>
+        <v>1126</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:11:56</t>
+          <t>0:18:46</t>
         </is>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Greater Horse Empire</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>479</v>
+        <v>786</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:07:59</t>
+          <t>0:13:06</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>719</v>
+        <v>1180</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:11:59</t>
+          <t>0:19:40</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_greater_horse_empire</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Mc Mc Mc</t>
+          <t>New Mandalore</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>499</v>
+        <v>794</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:08:19</t>
+          <t>0:13:14</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>749</v>
+        <v>1191</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:12:29</t>
+          <t>0:19:51</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mc_mc_mc</t>
+          <t>https://www.nationstates.net/region=new_mandalore</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>500</v>
+        <v>805</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:08:20</t>
+          <t>0:13:25</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>750</v>
+        <v>1207</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:12:30</t>
+          <t>0:20:07</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=5565</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Shumch</t>
+          <t>Holy Republic of Pierce VII</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>656</v>
+        <v>822</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:10:56</t>
+          <t>0:13:42</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>984</v>
+        <v>1233</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:16:24</t>
+          <t>0:20:33</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=shumch</t>
+          <t>https://www.nationstates.net/region=holy_republic_of_pierce_vii</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>European Places</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>657</v>
+        <v>828</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:10:57</t>
+          <t>0:13:48</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>985</v>
+        <v>1241</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:16:25</t>
+          <t>0:20:41</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=european_places</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Honeymoon Farm</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>657</v>
+        <v>844</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:10:57</t>
+          <t>0:14:04</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>985</v>
+        <v>1265</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:16:25</t>
+          <t>0:21:05</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=honeymoon_farm</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1918,36 +1918,36 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>New Pacific Islands Region</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>673</v>
+        <v>912</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:11:13</t>
+          <t>0:15:12</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1010</v>
+        <v>1368</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:16:50</t>
+          <t>0:22:48</t>
         </is>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1959,28 +1959,28 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Myna Bird Appreciation Society</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>692</v>
+        <v>932</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:11:32</t>
+          <t>0:15:32</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1037</v>
+        <v>1397</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:17:17</t>
+          <t>0:23:17</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,40 +1988,40 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=myna_bird_appreciation_society</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The Islands of the Great Wrath</t>
+          <t>The Fudician Alliance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>696</v>
+        <v>1045</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:17:25</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1043</v>
+        <v>1568</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:17:23</t>
+          <t>0:26:08</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,19 +2029,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_the_great_wrath</t>
+          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The Greater Horse Empire</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>715</v>
+        <v>1084</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:11:55</t>
+          <t>0:18:04</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1073</v>
+        <v>1625</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:17:53</t>
+          <t>0:27:05</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_horse_empire</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,28 +2082,28 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>fURRIES 4 NATIONSTATES XD</t>
+          <t>The Union of Nationstates</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>721</v>
+        <v>1122</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:12:01</t>
+          <t>0:18:42</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1082</v>
+        <v>1684</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:18:02</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,40 +2111,40 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=furries_4_nationstates_xd</t>
+          <t>https://www.nationstates.net/region=the_union_of_nationstates</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Osiris</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>New Mandalore</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>725</v>
+        <v>1243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:12:05</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1088</v>
+        <v>1865</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:18:08</t>
+          <t>0:31:05</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_mandalore</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>736</v>
+        <v>1249</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:12:16</t>
+          <t>0:20:49</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1104</v>
+        <v>1873</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:18:24</t>
+          <t>0:31:13</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>European Places</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>760</v>
+        <v>1258</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:12:40</t>
+          <t>0:20:58</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1140</v>
+        <v>1888</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:19:00</t>
+          <t>0:31:28</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,122 +2234,122 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=european_places</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>The Allied Mynal Sectors</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>774</v>
+        <v>1260</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:12:54</t>
+          <t>0:21:00</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1160</v>
+        <v>1890</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:19:20</t>
+          <t>0:31:30</t>
         </is>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=the_allied_mynal_sectors</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Walsingford</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>807</v>
+        <v>1261</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:13:27</t>
+          <t>0:21:01</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1210</v>
+        <v>1891</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:20:10</t>
+          <t>0:31:31</t>
         </is>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walsingford</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>The Breadlands</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>834</v>
+        <v>1365</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:22:45</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1251</v>
+        <v>2047</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:20:51</t>
+          <t>0:34:07</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=the_breadlands</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>Pangaea</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>852</v>
+        <v>1382</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:14:12</t>
+          <t>0:23:02</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1277</v>
+        <v>2073</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:21:17</t>
+          <t>0:34:33</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=pangaea</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2410,7 +2410,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>The Fudician Alliance</t>
+          <t>The Union of Idontknow</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>990</v>
+        <v>1456</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:16:30</t>
+          <t>0:24:16</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1486</v>
+        <v>2184</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:24:46</t>
+          <t>0:36:24</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
+          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2451,48 +2451,48 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Greater Tyrannyistan</t>
+          <t>The Region of Peace</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>993</v>
+        <v>1508</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:16:33</t>
+          <t>0:25:08</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1490</v>
+        <v>2262</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:24:50</t>
+          <t>0:37:42</t>
         </is>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ijaka, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1031</v>
+        <v>1663</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:17:11</t>
+          <t>0:27:43</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1546</v>
+        <v>2495</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:25:46</t>
+          <t>0:41:35</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2533,69 +2533,69 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Republic of Democratic States</t>
+          <t>Walkhard</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1070</v>
+        <v>1760</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:17:50</t>
+          <t>0:29:20</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1606</v>
+        <v>2640</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:26:46</t>
+          <t>0:44:00</t>
         </is>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=republic_of_democratic_states</t>
+          <t>https://www.nationstates.net/region=walkhard</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>The Union of Nationstates</t>
+          <t>Mafia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1079</v>
+        <v>1813</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:17:59</t>
+          <t>0:30:13</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1619</v>
+        <v>2720</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:26:59</t>
+          <t>0:45:20</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,142 +2603,142 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_nationstates</t>
+          <t>https://www.nationstates.net/region=mafia</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Mars Congressional Republic</t>
+          <t>The Big Chill Entente</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1103</v>
+        <v>1829</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:18:23</t>
+          <t>0:30:29</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1654</v>
+        <v>2744</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:27:34</t>
+          <t>0:45:44</t>
         </is>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mars_congressional_republic</t>
+          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Arda emeritus</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1192</v>
+        <v>1867</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:19:52</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1788</v>
+        <v>2800</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:29:48</t>
+          <t>0:46:40</t>
         </is>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=arda_emeritus</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Muchas Gracias</t>
+          <t>Brave New Countries</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1194</v>
+        <v>1871</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:19:54</t>
+          <t>0:31:11</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1791</v>
+        <v>2806</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:29:51</t>
+          <t>0:46:46</t>
         </is>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=muchas_gracias</t>
+          <t>https://www.nationstates.net/region=brave_new_countries</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1197</v>
+        <v>1895</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:19:57</t>
+          <t>0:31:35</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1796</v>
+        <v>2842</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:29:56</t>
+          <t>0:47:22</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,19 +2767,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1209</v>
+        <v>1905</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:20:09</t>
+          <t>0:31:45</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1814</v>
+        <v>2857</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:30:14</t>
+          <t>0:47:37</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2820,36 +2820,36 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>The Allied Mynal Sectors</t>
+          <t>Chromatica</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1211</v>
+        <v>1981</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:20:11</t>
+          <t>0:33:01</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1817</v>
+        <v>2972</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:30:17</t>
+          <t>0:49:32</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_mynal_sectors</t>
+          <t>https://www.nationstates.net/region=chromatica</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2861,7 +2861,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>A Land of Love and Peace</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1213</v>
+        <v>1987</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:20:13</t>
+          <t>0:33:07</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1819</v>
+        <v>2980</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:30:19</t>
+          <t>0:49:40</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2902,28 +2902,28 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Areda Muiri</t>
+          <t>The United Republic of Socialist States</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1297</v>
+        <v>2021</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:21:37</t>
+          <t>0:33:41</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1946</v>
+        <v>3031</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:32:26</t>
+          <t>0:50:31</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2931,40 +2931,40 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=areda_muiri</t>
+          <t>https://www.nationstates.net/region=the_united_republic_of_socialist_states</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>The Breadlands</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1336</v>
+        <v>2233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:22:16</t>
+          <t>0:37:13</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2004</v>
+        <v>3349</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:33:24</t>
+          <t>0:55:49</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2972,19 +2972,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_breadlands</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Pangaea</t>
+          <t>Momentia Momentus</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2993,19 +2993,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1351</v>
+        <v>2267</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:22:31</t>
+          <t>0:37:47</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2027</v>
+        <v>3401</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:33:47</t>
+          <t>0:56:41</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pangaea</t>
+          <t>https://www.nationstates.net/region=momentia_momentus</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3025,69 +3025,69 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Izmail</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1435</v>
+        <v>2270</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:23:55</t>
+          <t>0:37:50</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2152</v>
+        <v>3404</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:35:52</t>
+          <t>0:56:44</t>
         </is>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=izmail</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>The Union of Idontknow</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1445</v>
+        <v>2274</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:24:05</t>
+          <t>0:37:54</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2168</v>
+        <v>3411</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:36:08</t>
+          <t>0:56:51</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,40 +3095,40 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1511</v>
+        <v>2636</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:25:11</t>
+          <t>0:43:56</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2266</v>
+        <v>3954</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:37:46</t>
+          <t>1:05:54</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3136,40 +3136,40 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>League of Arab</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1531</v>
+        <v>2836</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:25:31</t>
+          <t>0:47:16</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2297</v>
+        <v>4254</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:38:17</t>
+          <t>1:10:54</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,19 +3177,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=league_of_arab</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>The Allied States of North America</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1702</v>
+        <v>2867</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:28:22</t>
+          <t>0:47:47</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2553</v>
+        <v>4301</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0:42:33</t>
+          <t>1:11:41</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=the_allied_states_of_north_america</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3230,28 +3230,28 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Walkhard</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1803</v>
+        <v>2892</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0:30:03</t>
+          <t>0:48:12</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2704</v>
+        <v>4338</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0:45:04</t>
+          <t>1:12:18</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3259,40 +3259,40 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walkhard</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Sjrurekyr</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1859</v>
+        <v>3158</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:52:38</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2788</v>
+        <v>4736</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0:46:28</t>
+          <t>1:18:56</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3300,1158 +3300,51 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sjrurekyr</t>
+          <t>https://www.nationstates.net/region=ben</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Mafia</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1877</v>
+        <v>3407</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0:31:17</t>
+          <t>0:56:47</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2816</v>
+        <v>5111</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0:46:56</t>
+          <t>1:25:11</t>
         </is>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mafia</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Pacific sheckle union</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1892</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0:31:32</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>2838</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0:47:18</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=pacific_sheckle_union</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>The Big Chill Entente</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1894</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0:31:34</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>2840</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0:47:20</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Arda emeritus</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0:32:14</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>2901</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0:48:21</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=arda_emeritus</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Brave New Countries</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1937</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0:32:17</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>2905</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0:48:25</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brave_new_countries</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Coalition of Free Nations</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1941</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0:32:21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>2912</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0:48:32</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=coalition_of_free_nations</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Regional Officers</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1962</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0:32:42</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>2942</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0:49:02</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Fallout DnD</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1969</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0:32:49</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>2953</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0:49:13</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Lowpixel</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0:33:35</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>3022</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0:50:22</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=lowpixel</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Chromatica</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>2032</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0:33:52</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>3048</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>0:50:48</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=chromatica</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>A Land of Love and Peace</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>2043</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0:34:03</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>3064</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>0:51:04</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>The United Republic of Socialist States</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>2079</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0:34:39</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>3119</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0:51:59</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_united_republic_of_socialist_states</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Soodan</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>WFE, RO, Embassies</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>2320</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0:38:40</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>3480</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0:58:00</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=soodan</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>2321</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0:38:41</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>3481</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0:58:01</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Momentia Momentus</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>2354</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0:39:14</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>3532</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>0:58:52</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=momentia_momentus</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>2357</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0:39:17</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>3536</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0:58:56</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>2362</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0:39:22</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>3543</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>0:59:03</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>2722</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0:45:22</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>4083</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1:08:03</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Great armed lands</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2879</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0:47:59</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>4319</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1:11:59</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=great_armed_lands</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>AustraliaSim</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>2917</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0:48:37</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>4376</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1:12:56</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=australiasim</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>2926</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0:48:46</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>4389</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1:13:09</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>The Allied States of North America</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0:49:29</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>4453</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>1:14:13</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_allied_states_of_north_america</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>2983</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0:49:43</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>4475</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>1:14:35</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>3225</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0:53:45</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>4838</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>1:20:38</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>bozo kingdom</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>3233</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0:53:53</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>4850</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1:20:50</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=bozo_kingdom</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>The Christian Space Empire</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>3396</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0:56:36</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>5094</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>1:24:54</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_christian_space_empire</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Soto Land</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>3429</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0:57:09</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>5143</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>1:25:43</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=soto_land</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>BoM, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>3455</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>0:57:35</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>5182</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1:26:22</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="17 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="18 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:08</t>
+          <t>0:00:10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:12</t>
+          <t>0:00:15</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:51</t>
+          <t>0:00:26</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:17</t>
+          <t>0:00:39</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:02:09</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:10</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:27</t>
+          <t>0:00:57</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:01:26</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:27</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:02:37</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:30</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:02:42</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,23 +820,23 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:04:17</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:03:41</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -975,28 +975,28 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Region of Sycamore Meadow</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:06:09</t>
+          <t>0:05:23</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_of_sycamore_meadow</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:19</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:06:28</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,204 +1045,204 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:06:40</t>
+          <t>0:05:36</t>
         </is>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:04:40</t>
+          <t>0:04:56</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:07:00</t>
+          <t>0:07:25</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Contributions</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:05:21</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:07:52</t>
+          <t>0:08:02</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=contributions</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:05:41</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:08:26</t>
+          <t>0:08:32</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>380</v>
+        <v>487</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:08:07</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>570</v>
+        <v>730</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:09:30</t>
+          <t>0:12:10</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,60 +1271,60 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:06:40</t>
+          <t>0:08:09</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>600</v>
+        <v>734</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:10:00</t>
+          <t>0:12:14</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>State Sovereignty Pact</t>
+          <t>Mc Mc Mc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:08:30</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:12:46</t>
+          <t>0:12:50</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,81 +1332,81 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=state_sovereignty_pact</t>
+          <t>https://www.nationstates.net/region=mc_mc_mc</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>World Stage</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:08:44</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:13:05</t>
+          <t>0:12:52</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=world_stage</t>
+          <t>https://www.nationstates.net/region=5565</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:09:55</t>
+          <t>0:11:08</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>892</v>
+        <v>1003</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:14:52</t>
+          <t>0:16:43</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Honeymoon Farm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:09:57</t>
+          <t>0:11:09</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>896</v>
+        <v>1004</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:14:56</t>
+          <t>0:16:44</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=honeymoon_farm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Mc Mc Mc</t>
+          <t>New Mandalore</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>615</v>
+        <v>737</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:10:15</t>
+          <t>0:12:17</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>922</v>
+        <v>1106</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:15:22</t>
+          <t>0:18:26</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mc_mc_mc</t>
+          <t>https://www.nationstates.net/region=new_mandalore</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>616</v>
+        <v>749</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:10:16</t>
+          <t>0:12:29</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>924</v>
+        <v>1124</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:15:24</t>
+          <t>0:18:44</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=5565</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>736</v>
+        <v>789</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:12:16</t>
+          <t>0:13:09</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1104</v>
+        <v>1184</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:18:24</t>
+          <t>0:19:44</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Honeymoon Farm</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>736</v>
+        <v>866</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:12:16</t>
+          <t>0:14:26</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1104</v>
+        <v>1298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:18:24</t>
+          <t>0:21:38</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,60 +1619,60 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=honeymoon_farm</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>New Pacific Islands Region</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>751</v>
+        <v>885</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:12:31</t>
+          <t>0:14:45</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1126</v>
+        <v>1328</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:18:46</t>
+          <t>0:22:08</t>
         </is>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_pacific_islands_region</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Greater Horse Empire</t>
+          <t>The Fudician Alliance</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>786</v>
+        <v>1016</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:13:06</t>
+          <t>0:16:56</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1180</v>
+        <v>1524</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:19:40</t>
+          <t>0:25:24</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_greater_horse_empire</t>
+          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1713,28 +1713,28 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>New Mandalore</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>794</v>
+        <v>1056</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:13:14</t>
+          <t>0:17:36</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1191</v>
+        <v>1584</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:19:51</t>
+          <t>0:26:24</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_mandalore</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>805</v>
+        <v>1224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:13:25</t>
+          <t>0:20:24</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1207</v>
+        <v>1836</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:20:07</t>
+          <t>0:30:36</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Holy Republic of Pierce VII</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>822</v>
+        <v>1230</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:13:42</t>
+          <t>0:20:30</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1233</v>
+        <v>1844</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:20:33</t>
+          <t>0:30:44</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=holy_republic_of_pierce_vii</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>European Places</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>828</v>
+        <v>1240</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:13:48</t>
+          <t>0:20:40</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1241</v>
+        <v>1860</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:20:41</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=european_places</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>844</v>
+        <v>1244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:14:04</t>
+          <t>0:20:44</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1265</v>
+        <v>1866</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:21:05</t>
+          <t>0:31:06</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1918,28 +1918,28 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Pangaea</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>912</v>
+        <v>1372</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:15:12</t>
+          <t>0:22:52</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1368</v>
+        <v>2057</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:22:48</t>
+          <t>0:34:17</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=pangaea</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>The Union of Idontknow</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>932</v>
+        <v>1445</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:15:32</t>
+          <t>0:24:05</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1397</v>
+        <v>2167</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:23:17</t>
+          <t>0:36:07</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The Fudician Alliance</t>
+          <t>The Region of Peace</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1045</v>
+        <v>1502</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:17:25</t>
+          <t>0:25:02</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1568</v>
+        <v>2253</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:26:08</t>
+          <t>0:37:33</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2041,7 +2041,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1084</v>
+        <v>1669</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:18:04</t>
+          <t>0:27:49</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1625</v>
+        <v>2503</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:27:05</t>
+          <t>0:41:43</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,69 +2082,69 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>The Union of Nationstates</t>
+          <t>Walkhard</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1122</v>
+        <v>1777</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:18:42</t>
+          <t>0:29:37</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1684</v>
+        <v>2666</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:44:26</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_nationstates</t>
+          <t>https://www.nationstates.net/region=walkhard</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>BoM, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The Big Chill Entente</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1243</v>
+        <v>1845</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:30:45</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1865</v>
+        <v>2768</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:46:08</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,81 +2152,81 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Arda emeritus</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1249</v>
+        <v>1878</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:20:49</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1873</v>
+        <v>2817</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:31:13</t>
+          <t>0:46:57</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=arda_emeritus</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1258</v>
+        <v>1913</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:20:58</t>
+          <t>0:31:53</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1888</v>
+        <v>2870</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:31:28</t>
+          <t>0:47:50</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,60 +2234,60 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>The Allied Mynal Sectors</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1260</v>
+        <v>1922</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:21:00</t>
+          <t>0:32:02</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1890</v>
+        <v>2882</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:31:30</t>
+          <t>0:48:02</t>
         </is>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_allied_mynal_sectors</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>A Land of Love and Peace</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1261</v>
+        <v>1988</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:21:01</t>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1891</v>
+        <v>2983</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:31:31</t>
+          <t>0:49:43</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2328,28 +2328,28 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Breadlands</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1365</v>
+        <v>2249</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:22:45</t>
+          <t>0:37:29</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2047</v>
+        <v>3373</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:34:07</t>
+          <t>0:56:13</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,81 +2357,81 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_breadlands</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pangaea</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1382</v>
+        <v>2285</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:23:02</t>
+          <t>0:38:05</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2073</v>
+        <v>3427</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:34:33</t>
+          <t>0:57:07</t>
         </is>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pangaea</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>The Union of Idontknow</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1456</v>
+        <v>2289</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:24:16</t>
+          <t>0:38:09</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2184</v>
+        <v>3434</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:36:24</t>
+          <t>0:57:14</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1508</v>
+        <v>2666</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:25:08</t>
+          <t>0:44:26</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2262</v>
+        <v>3998</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:37:42</t>
+          <t>1:06:38</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1663</v>
+        <v>2865</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:27:43</t>
+          <t>0:47:45</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2495</v>
+        <v>4297</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:41:35</t>
+          <t>1:11:37</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Walkhard</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1760</v>
+        <v>2914</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:29:20</t>
+          <t>0:48:34</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2640</v>
+        <v>4370</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:44:00</t>
+          <t>1:12:50</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,789 +2562,51 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walkhard</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Mafia</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1813</v>
+        <v>3438</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:30:13</t>
+          <t>0:57:18</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2720</v>
+        <v>5157</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:45:20</t>
+          <t>1:25:57</t>
         </is>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mafia</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>The Big Chill Entente</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1829</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0:30:29</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>2744</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0:45:44</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Arda emeritus</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1867</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0:31:07</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>2800</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0:46:40</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=arda_emeritus</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Brave New Countries</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1871</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0:31:11</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>2806</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0:46:46</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brave_new_countries</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Regional Officers</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1895</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0:31:35</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0:47:22</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Fallout DnD</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0:31:45</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>2857</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0:47:37</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Chromatica</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1981</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0:33:01</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>2972</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0:49:32</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=chromatica</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>A Land of Love and Peace</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1987</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0:33:07</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>2980</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0:49:40</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>The United Republic of Socialist States</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0:33:41</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>3031</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0:50:31</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_united_republic_of_socialist_states</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>2233</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0:37:13</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>3349</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0:55:49</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Momentia Momentus</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>2267</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0:37:47</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>3401</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0:56:41</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=momentia_momentus</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>2270</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0:37:50</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>3404</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0:56:44</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>2274</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0:37:54</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3411</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0:56:51</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>2636</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0:43:56</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>3954</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1:05:54</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0:47:16</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>4254</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1:10:54</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>The Allied States of North America</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2867</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0:47:47</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>4301</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1:11:41</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_allied_states_of_north_america</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2892</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0:48:12</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>4338</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1:12:18</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>3158</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0:52:38</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4736</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1:18:56</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=ben</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>3407</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0:56:47</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>5111</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1:25:11</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="18 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="19 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:10</t>
+          <t>0:00:15</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:15</t>
+          <t>0:00:22</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:26</t>
+          <t>0:00:46</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:39</t>
+          <t>0:01:08</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:01:13</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:01:49</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:01:50</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:00:57</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:26</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:37</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>0:01:57</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:42</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:02:50</t>
+          <t>0:03:03</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:03:41</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -934,28 +934,28 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Comradeburg</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:04:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:06:00</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=comradeburg</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:04:03</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:05:23</t>
+          <t>0:06:04</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,122 +1004,122 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:04:10</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:05:27</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>336</v>
+        <v>490</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:05:36</t>
+          <t>0:08:10</t>
         </is>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:04:56</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>445</v>
+        <v>536</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:07:25</t>
+          <t>0:08:56</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,122 +1127,122 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:05:21</t>
+          <t>0:07:47</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>482</v>
+        <v>700</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:08:02</t>
+          <t>0:11:40</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>341</v>
+        <v>599</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:09:59</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>512</v>
+        <v>899</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:08:32</t>
+          <t>0:14:59</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The fascist council</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>487</v>
+        <v>601</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:08:07</t>
+          <t>0:10:01</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>730</v>
+        <v>902</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:12:10</t>
+          <t>0:15:02</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_fascist_council</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>Mc Mc Mc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>489</v>
+        <v>616</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:08:09</t>
+          <t>0:10:16</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>734</v>
+        <v>924</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:12:14</t>
+          <t>0:15:24</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=mc_mc_mc</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mc Mc Mc</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>513</v>
+        <v>617</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:10:17</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>770</v>
+        <v>926</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:12:50</t>
+          <t>0:15:26</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mc_mc_mc</t>
+          <t>https://www.nationstates.net/region=5565</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:08:35</t>
+          <t>0:12:34</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>772</v>
+        <v>1131</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:12:52</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=5565</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1385,28 +1385,28 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>Honeymoon Farm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:11:08</t>
+          <t>0:12:34</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1003</v>
+        <v>1131</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:16:43</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=honeymoon_farm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Honeymoon Farm</t>
+          <t>The New Frontier</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:11:09</t>
+          <t>0:12:45</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1004</v>
+        <v>1147</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:16:44</t>
+          <t>0:19:07</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=honeymoon_farm</t>
+          <t>https://www.nationstates.net/region=the_new_frontier</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, LWU, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>737</v>
+        <v>812</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:12:17</t>
+          <t>0:13:32</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1106</v>
+        <v>1218</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:18:26</t>
+          <t>0:20:18</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>749</v>
+        <v>823</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:12:29</t>
+          <t>0:13:43</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1124</v>
+        <v>1235</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:18:44</t>
+          <t>0:20:35</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>789</v>
+        <v>863</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:13:09</t>
+          <t>0:14:23</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1184</v>
+        <v>1294</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:21:34</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>866</v>
+        <v>923</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:14:26</t>
+          <t>0:15:23</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1298</v>
+        <v>1384</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:21:38</t>
+          <t>0:23:04</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>885</v>
+        <v>941</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:14:45</t>
+          <t>0:15:41</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1328</v>
+        <v>1412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:22:08</t>
+          <t>0:23:32</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1016</v>
+        <v>1089</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:16:56</t>
+          <t>0:18:09</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1524</v>
+        <v>1634</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:25:24</t>
+          <t>0:27:14</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1056</v>
+        <v>1128</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:17:36</t>
+          <t>0:18:48</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1584</v>
+        <v>1691</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:26:24</t>
+          <t>0:28:11</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1224</v>
+        <v>1265</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:20:24</t>
+          <t>0:21:05</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1836</v>
+        <v>1897</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:30:36</t>
+          <t>0:31:37</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1230</v>
+        <v>1271</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:20:30</t>
+          <t>0:21:11</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1844</v>
+        <v>1906</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:30:44</t>
+          <t>0:31:46</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1240</v>
+        <v>1280</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:20:40</t>
+          <t>0:21:20</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1860</v>
+        <v>1920</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:32:00</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1244</v>
+        <v>1284</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:20:44</t>
+          <t>0:21:24</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1866</v>
+        <v>1926</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:31:06</t>
+          <t>0:32:06</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1372</v>
+        <v>1398</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:22:52</t>
+          <t>0:23:18</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2057</v>
+        <v>2096</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:34:17</t>
+          <t>0:34:56</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1445</v>
+        <v>1475</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:24:05</t>
+          <t>0:24:35</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2167</v>
+        <v>2213</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:36:07</t>
+          <t>0:36:53</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1502</v>
+        <v>1530</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:25:02</t>
+          <t>0:25:30</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2253</v>
+        <v>2295</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:37:33</t>
+          <t>0:38:15</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1669</v>
+        <v>1690</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:27:49</t>
+          <t>0:28:10</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2503</v>
+        <v>2536</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:41:43</t>
+          <t>0:42:16</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2082,69 +2082,69 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Walkhard</t>
+          <t>The UEN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1777</v>
+        <v>1848</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:29:37</t>
+          <t>0:30:48</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2666</v>
+        <v>2773</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:44:26</t>
+          <t>0:46:13</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=walkhard</t>
+          <t>https://www.nationstates.net/region=the_uen</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, LWU, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>The Big Chill Entente</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1845</v>
+        <v>1897</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:30:45</t>
+          <t>0:31:37</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2768</v>
+        <v>2846</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:46:08</t>
+          <t>0:47:26</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_big_chill_entente</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
@@ -2173,23 +2173,23 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1878</v>
+        <v>1906</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:31:18</t>
+          <t>0:31:46</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2817</v>
+        <v>2859</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:46:57</t>
+          <t>0:47:39</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2205,28 +2205,28 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>SolarFlare</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:31:53</t>
+          <t>0:31:54</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:47:50</t>
+          <t>0:47:51</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=solarflare</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1922</v>
+        <v>1932</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:32:02</t>
+          <t>0:32:12</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2882</v>
+        <v>2898</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:48:02</t>
+          <t>0:48:18</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>A Land of Love and Peace</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1988</v>
+        <v>1939</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:33:08</t>
+          <t>0:32:19</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2983</v>
+        <v>2908</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:49:43</t>
+          <t>0:48:28</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=a_land_of_love_and_peace</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2249</v>
+        <v>2283</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:37:29</t>
+          <t>0:38:03</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3373</v>
+        <v>3425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:56:13</t>
+          <t>0:57:05</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2285</v>
+        <v>2316</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:38:05</t>
+          <t>0:38:36</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3427</v>
+        <v>3474</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:57:07</t>
+          <t>0:57:54</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2289</v>
+        <v>2320</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:38:09</t>
+          <t>0:38:40</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3434</v>
+        <v>3480</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:57:14</t>
+          <t>0:58:00</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2666</v>
+        <v>2708</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:44:26</t>
+          <t>0:45:08</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3998</v>
+        <v>4062</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:06:38</t>
+          <t>1:07:42</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2865</v>
+        <v>2916</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:47:45</t>
+          <t>0:48:36</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4297</v>
+        <v>4374</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1:11:37</t>
+          <t>1:12:54</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2914</v>
+        <v>2968</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:48:34</t>
+          <t>0:49:28</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4370</v>
+        <v>4451</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1:12:50</t>
+          <t>1:14:11</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3438</v>
+        <v>3461</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:57:18</t>
+          <t>0:57:41</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5157</v>
+        <v>5191</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1:25:57</t>
+          <t>1:26:31</t>
         </is>
       </c>
       <c r="G53" t="b">

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="19 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:15</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>0:00:07</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:46</t>
+          <t>0:00:34</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:08</t>
+          <t>0:00:51</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:13</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:49</t>
+          <t>0:01:33</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:50</t>
+          <t>0:01:35</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -647,7 +647,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The United Table of The Boys</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_united_table_of_the_boys</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:01</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:01</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:01:57</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:03</t>
+          <t>0:03:28</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>EUROPOOAN UNION</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:51</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,7 +840,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=europooan_union</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>EUROPOOAN UNION</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:04:20</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europooan_union</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Comradeburg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:05:09</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,12 +922,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=comradeburg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:04:00</t>
+          <t>0:04:03</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:06:00</t>
+          <t>0:06:05</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:04:03</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:06:04</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,23 +1025,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:05:27</t>
+          <t>0:05:28</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:08:10</t>
+          <t>0:08:11</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:05:49</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:08:56</t>
+          <t>0:08:44</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>467</v>
+        <v>365</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:07:47</t>
+          <t>0:06:05</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>700</v>
+        <v>548</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:11:40</t>
+          <t>0:09:08</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1180,28 +1180,28 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Caestaeleshamm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>599</v>
+        <v>487</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:09:59</t>
+          <t>0:08:07</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>899</v>
+        <v>731</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:14:59</t>
+          <t>0:12:11</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=caestaeleshamm</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The fascist council</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:10:01</t>
+          <t>0:08:31</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>902</v>
+        <v>767</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:15:02</t>
+          <t>0:12:47</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fascist_council</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mc Mc Mc</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>616</v>
+        <v>547</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:10:16</t>
+          <t>0:09:07</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>924</v>
+        <v>821</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:15:24</t>
+          <t>0:13:41</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mc_mc_mc</t>
+          <t>https://www.nationstates.net/region=5565</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:10:17</t>
+          <t>0:11:37</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>926</v>
+        <v>1046</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:15:26</t>
+          <t>0:17:26</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=5565</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,28 +1344,28 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>The New Frontier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>754</v>
+        <v>709</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:12:34</t>
+          <t>0:11:49</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1131</v>
+        <v>1063</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:17:43</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=the_new_frontier</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, LWU, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Honeymoon Farm</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:12:34</t>
+          <t>0:12:48</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1131</v>
+        <v>1152</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:19:12</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=honeymoon_farm</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1426,28 +1426,28 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>The New Frontier</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>765</v>
+        <v>813</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:12:45</t>
+          <t>0:13:33</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1147</v>
+        <v>1220</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:19:07</t>
+          <t>0:20:20</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_frontier</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>BoM, LWU, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>New Mandalore</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>812</v>
+        <v>884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:13:32</t>
+          <t>0:14:44</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1218</v>
+        <v>1326</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:20:18</t>
+          <t>0:22:06</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_mandalore</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>823</v>
+        <v>913</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:13:43</t>
+          <t>0:15:13</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1235</v>
+        <v>1369</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:20:35</t>
+          <t>0:22:49</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1549,7 +1549,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>The Fudician Alliance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>863</v>
+        <v>1032</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:14:23</t>
+          <t>0:17:12</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1294</v>
+        <v>1548</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:21:34</t>
+          <t>0:25:48</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,28 +1590,28 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>923</v>
+        <v>1073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:15:23</t>
+          <t>0:17:53</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1384</v>
+        <v>1609</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:23:04</t>
+          <t>0:26:49</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>941</v>
+        <v>1236</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:15:41</t>
+          <t>0:20:36</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1412</v>
+        <v>1854</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:23:32</t>
+          <t>0:30:54</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Fudician Alliance</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1089</v>
+        <v>1241</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:18:09</t>
+          <t>0:20:41</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1634</v>
+        <v>1862</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:27:14</t>
+          <t>0:31:02</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1128</v>
+        <v>1251</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:18:48</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1691</v>
+        <v>1877</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:28:11</t>
+          <t>0:31:17</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1754,28 +1754,28 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:21:05</t>
+          <t>0:20:55</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1897</v>
+        <v>1883</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:31:37</t>
+          <t>0:31:23</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Pangaea</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1271</v>
+        <v>1389</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:21:11</t>
+          <t>0:23:09</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1906</v>
+        <v>2083</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:31:46</t>
+          <t>0:34:43</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=pangaea</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>The Union of Idontknow</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1280</v>
+        <v>1474</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:21:20</t>
+          <t>0:24:34</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1920</v>
+        <v>2210</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:32:00</t>
+          <t>0:36:50</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1877,7 +1877,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>The Region of Peace</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1284</v>
+        <v>1532</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:21:24</t>
+          <t>0:25:32</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1926</v>
+        <v>2297</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:32:06</t>
+          <t>0:38:17</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pangaea</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1398</v>
+        <v>1684</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:23:18</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2096</v>
+        <v>2525</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:34:56</t>
+          <t>0:42:05</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pangaea</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1959,28 +1959,28 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The Union of Idontknow</t>
+          <t>my side of the world</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1475</v>
+        <v>1834</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:24:35</t>
+          <t>0:30:34</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2213</v>
+        <v>2752</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:36:53</t>
+          <t>0:45:52</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,81 +1988,81 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>The UEN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1530</v>
+        <v>1859</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:25:30</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2295</v>
+        <v>2788</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:38:15</t>
+          <t>0:46:28</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=the_uen</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, LWU, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1690</v>
+        <v>1905</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:28:10</t>
+          <t>0:31:45</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2536</v>
+        <v>2857</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:42:16</t>
+          <t>0:47:37</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,81 +2070,81 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>The UEN</t>
+          <t>Arda emeritus</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1848</v>
+        <v>1913</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:30:48</t>
+          <t>0:31:53</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2773</v>
+        <v>2870</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:46:13</t>
+          <t>0:47:50</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_uen</t>
+          <t>https://www.nationstates.net/region=arda_emeritus</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>BoM, LWU, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>SolarFlare</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1897</v>
+        <v>1920</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:31:37</t>
+          <t>0:32:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2846</v>
+        <v>2880</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:47:26</t>
+          <t>0:48:00</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=solarflare</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arda emeritus</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1906</v>
+        <v>1941</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:31:46</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2859</v>
+        <v>2912</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:47:39</t>
+          <t>0:48:32</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,40 +2193,40 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=arda_emeritus</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1914</v>
+        <v>1948</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:31:54</t>
+          <t>0:32:28</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2871</v>
+        <v>2923</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:47:51</t>
+          <t>0:48:43</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,19 +2234,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1932</v>
+        <v>2297</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:32:12</t>
+          <t>0:38:17</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2898</v>
+        <v>3445</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:48:18</t>
+          <t>0:57:25</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,81 +2275,81 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1939</v>
+        <v>2338</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:32:19</t>
+          <t>0:38:58</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2908</v>
+        <v>3507</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:48:28</t>
+          <t>0:58:27</t>
         </is>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2283</v>
+        <v>2343</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:38:03</t>
+          <t>0:39:03</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3425</v>
+        <v>3515</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:57:05</t>
+          <t>0:58:35</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2378,39 +2378,39 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2316</v>
+        <v>2710</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:38:36</t>
+          <t>0:45:10</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3474</v>
+        <v>4065</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:57:54</t>
+          <t>1:07:45</t>
         </is>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2320</v>
+        <v>2945</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:38:40</t>
+          <t>0:49:05</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3480</v>
+        <v>4418</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:58:00</t>
+          <t>1:13:38</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2708</v>
+        <v>2991</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:45:08</t>
+          <t>0:49:51</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4062</v>
+        <v>4486</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:07:42</t>
+          <t>1:14:46</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2916</v>
+        <v>3456</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:48:36</t>
+          <t>0:57:36</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4374</v>
+        <v>5184</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1:12:54</t>
+          <t>1:26:24</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,92 +2521,10 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0:49:28</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>4451</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1:14:11</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>3461</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0:57:41</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>5191</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1:26:31</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="21 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:05</t>
+          <t>0:00:07</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:07</t>
+          <t>0:00:11</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:34</t>
+          <t>0:00:41</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:51</t>
+          <t>0:01:01</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -565,7 +565,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Res Publica</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:33</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=res_publica</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:01:14</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:35</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:53</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:01:52</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:01</t>
+          <t>0:02:25</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:01</t>
+          <t>0:03:38</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:02:33</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:28</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>EUROPOOAN UNION</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:51</t>
+          <t>0:02:46</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:04:17</t>
+          <t>0:04:10</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,7 +840,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europooan_union</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>EUROPOOAN UNION</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:03:14</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:04:20</t>
+          <t>0:04:51</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=europooan_union</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Comradeburg</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:05:09</t>
+          <t>0:04:56</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=comradeburg</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Comradeburg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:04:03</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:06:05</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=comradeburg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:04:06</t>
+          <t>0:04:32</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:06:09</t>
+          <t>0:06:48</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:14</t>
+          <t>0:04:36</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:06:21</t>
+          <t>0:06:53</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:05:28</t>
+          <t>0:04:49</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:08:11</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:05:49</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:08:44</t>
+          <t>0:09:35</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,122 +1127,122 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:06:05</t>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:09:08</t>
+          <t>0:10:32</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Caestaeleshamm</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:08:07</t>
+          <t>0:07:21</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:12:11</t>
+          <t>0:11:02</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caestaeleshamm</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Jeffersonia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:08:31</t>
+          <t>0:07:44</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>767</v>
+        <v>696</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:12:47</t>
+          <t>0:11:36</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=jeffersonia</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>Caestaeleshamm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:09:07</t>
+          <t>0:09:34</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>821</v>
+        <v>861</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:13:41</t>
+          <t>0:14:21</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=5565</t>
+          <t>https://www.nationstates.net/region=caestaeleshamm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>Bakayatist Region</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>697</v>
+        <v>585</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:11:37</t>
+          <t>0:09:45</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1046</v>
+        <v>878</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:17:26</t>
+          <t>0:14:38</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=bakayatist_region</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The New Frontier</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>709</v>
+        <v>589</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:11:49</t>
+          <t>0:09:49</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1063</v>
+        <v>884</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:17:43</t>
+          <t>0:14:44</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_frontier</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM, LWU, Sparkalia, TBH</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>5565</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>768</v>
+        <v>613</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:12:48</t>
+          <t>0:10:13</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1152</v>
+        <v>920</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:19:12</t>
+          <t>0:15:20</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=5565</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>813</v>
+        <v>761</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:13:33</t>
+          <t>0:12:41</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1220</v>
+        <v>1141</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:20:20</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>The New Frontier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>884</v>
+        <v>774</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:14:44</t>
+          <t>0:12:54</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1326</v>
+        <v>1160</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:22:06</t>
+          <t>0:19:20</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=the_new_frontier</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, LWU, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>913</v>
+        <v>840</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:15:13</t>
+          <t>0:14:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1369</v>
+        <v>1260</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:22:49</t>
+          <t>0:21:00</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1549,7 +1549,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>The Fudician Alliance</t>
+          <t>Ooftopia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1032</v>
+        <v>858</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:17:12</t>
+          <t>0:14:18</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1548</v>
+        <v>1287</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:25:48</t>
+          <t>0:21:27</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fudician_alliance</t>
+          <t>https://www.nationstates.net/region=ooftopia</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1073</v>
+        <v>889</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:17:53</t>
+          <t>0:14:49</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1609</v>
+        <v>1334</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:26:49</t>
+          <t>0:22:14</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1631,28 +1631,28 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>atlantiantic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1236</v>
+        <v>937</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:20:36</t>
+          <t>0:15:37</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1854</v>
+        <v>1406</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:30:54</t>
+          <t>0:23:26</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=atlantiantic</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>tagregiontest1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1241</v>
+        <v>967</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:20:41</t>
+          <t>0:16:07</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1862</v>
+        <v>1451</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:31:02</t>
+          <t>0:24:11</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=tagregiontest1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1251</v>
+        <v>988</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:20:51</t>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1877</v>
+        <v>1483</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:31:17</t>
+          <t>0:24:43</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1754,7 +1754,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>Cicimboroughian Coalition</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1255</v>
+        <v>1135</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:20:55</t>
+          <t>0:18:55</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1883</v>
+        <v>1702</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:31:23</t>
+          <t>0:28:22</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=cicimboroughian_coalition</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pangaea</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1389</v>
+        <v>1172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:23:09</t>
+          <t>0:19:32</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2083</v>
+        <v>1758</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:34:43</t>
+          <t>0:29:18</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pangaea</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1836,69 +1836,69 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>The Union of Idontknow</t>
+          <t>Tushonka</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1474</v>
+        <v>1174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:24:34</t>
+          <t>0:19:34</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2210</v>
+        <v>1761</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:36:50</t>
+          <t>0:29:21</t>
         </is>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+          <t>https://www.nationstates.net/region=tushonka</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH, TCB</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1532</v>
+        <v>1329</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:25:32</t>
+          <t>0:22:09</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2297</v>
+        <v>1993</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:38:17</t>
+          <t>0:33:13</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1684</v>
+        <v>1335</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:22:15</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2525</v>
+        <v>2003</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:42:05</t>
+          <t>0:33:23</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>my side of the world</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1834</v>
+        <v>1345</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:30:34</t>
+          <t>0:22:25</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2752</v>
+        <v>2018</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:45:52</t>
+          <t>0:33:38</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,81 +1988,81 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The UEN</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1859</v>
+        <v>1354</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:22:34</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2788</v>
+        <v>2030</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:46:28</t>
+          <t>0:33:50</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_uen</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>BoM, LWU, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Pangaea</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1905</v>
+        <v>1478</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:31:45</t>
+          <t>0:24:38</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2857</v>
+        <v>2216</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:47:37</t>
+          <t>0:36:56</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,19 +2070,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=pangaea</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Arda emeritus</t>
+          <t>The Union of Idontknow</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1913</v>
+        <v>1563</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:31:53</t>
+          <t>0:26:03</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2870</v>
+        <v>2345</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:47:50</t>
+          <t>0:39:05</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=arda_emeritus</t>
+          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2123,28 +2123,28 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>my side of the world</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1920</v>
+        <v>1892</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:32:00</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2880</v>
+        <v>2839</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:48:00</t>
+          <t>0:47:19</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,81 +2152,81 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The UEN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1941</v>
+        <v>1918</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:32:21</t>
+          <t>0:31:58</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2912</v>
+        <v>2877</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:48:32</t>
+          <t>0:47:57</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_uen</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, LWU, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1948</v>
+        <v>1976</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:32:28</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2923</v>
+        <v>2964</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:48:43</t>
+          <t>0:49:24</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Arda emeritus</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2297</v>
+        <v>1987</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:38:17</t>
+          <t>0:33:07</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3445</v>
+        <v>2980</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:57:25</t>
+          <t>0:49:40</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,81 +2275,81 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=arda_emeritus</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>SolarFlare</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2338</v>
+        <v>1994</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:38:58</t>
+          <t>0:33:14</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3507</v>
+        <v>2991</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:58:27</t>
+          <t>0:49:51</t>
         </is>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=solarflare</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2343</v>
+        <v>2011</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:39:03</t>
+          <t>0:33:31</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3515</v>
+        <v>3016</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:58:35</t>
+          <t>0:50:16</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2710</v>
+        <v>2019</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:45:10</t>
+          <t>0:33:39</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4065</v>
+        <v>3029</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1:07:45</t>
+          <t>0:50:29</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2945</v>
+        <v>2352</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:49:05</t>
+          <t>0:39:12</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4418</v>
+        <v>3528</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1:13:38</t>
+          <t>0:58:48</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2451,28 +2451,28 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2991</v>
+        <v>2400</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:49:51</t>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4486</v>
+        <v>3600</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:14:46</t>
+          <t>1:00:00</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,51 +2480,256 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2406</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0:40:06</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3609</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1:00:09</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2733</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0:45:33</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1:08:20</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2935</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0:48:55</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4402</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1:13:22</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0:49:50</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4486</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1:14:46</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>notas region</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3053</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0:50:53</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4580</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1:16:20</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=notas_region</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>3456</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0:57:36</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>5184</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1:26:24</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="C56" t="n">
+        <v>3432</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0:57:12</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5149</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1:25:49</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="21 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="22 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SussyGang</t>
+          <t>Jade Was Here</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:07</t>
+          <t>0:00:37</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:11</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sussygang</t>
+          <t>https://www.nationstates.net/region=jade_was_here</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jade Was Here</t>
+          <t>Res Publica</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -541,11 +541,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:01</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jade_was_here</t>
+          <t>https://www.nationstates.net/region=res_publica</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Res Publica</t>
+          <t>FrameShift</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:07</t>
+          <t>0:01:54</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=res_publica</t>
+          <t>https://www.nationstates.net/region=frameshift</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:14</t>
+          <t>0:01:16</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:01:15</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:01:52</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:25</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:38</t>
+          <t>0:03:24</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:28</t>
+          <t>0:02:21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:42</t>
+          <t>0:03:31</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:02:32</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:50</t>
+          <t>0:03:48</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>EUROPOOAN UNION</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:46</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:04:10</t>
+          <t>0:04:19</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,7 +840,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=europooan_union</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -852,28 +852,28 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>EUROPOOAN UNION</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:03:14</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:04:51</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europooan_union</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:03:17</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:04:56</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Comradeburg</t>
+          <t>Hukashaka</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:05:56</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=comradeburg</t>
+          <t>https://www.nationstates.net/region=hukashaka</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:04:32</t>
+          <t>0:04:14</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:06:48</t>
+          <t>0:06:21</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,81 +1004,81 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>The stronghold of Strength</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:36</t>
+          <t>0:04:45</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:06:53</t>
+          <t>0:07:08</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=the_stronghold_of_strength</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:04:49</t>
+          <t>0:05:20</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:08:00</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Future</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:06:24</t>
+          <t>0:05:43</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:09:35</t>
+          <t>0:08:34</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_future</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:07:01</t>
+          <t>0:05:56</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>632</v>
+        <v>534</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:10:32</t>
+          <t>0:08:54</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,60 +1168,60 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Jeffersonia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:07:21</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>662</v>
+        <v>554</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:11:02</t>
+          <t>0:09:14</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=jeffersonia</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Jeffersonia</t>
+          <t>Caestaeleshamm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:07:44</t>
+          <t>0:07:56</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:11:36</t>
+          <t>0:11:55</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jeffersonia</t>
+          <t>https://www.nationstates.net/region=caestaeleshamm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1262,7 +1262,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Caestaeleshamm</t>
+          <t>Bakayatist Region</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>574</v>
+        <v>495</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:09:34</t>
+          <t>0:08:15</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>861</v>
+        <v>742</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:14:21</t>
+          <t>0:12:22</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caestaeleshamm</t>
+          <t>https://www.nationstates.net/region=bakayatist_region</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1303,28 +1303,28 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bakayatist Region</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>585</v>
+        <v>499</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:09:45</t>
+          <t>0:08:19</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:14:38</t>
+          <t>0:12:28</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bakayatist_region</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:09:49</t>
+          <t>0:11:16</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>884</v>
+        <v>1014</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:14:44</t>
+          <t>0:16:54</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>5565</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>613</v>
+        <v>760</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:10:13</t>
+          <t>0:12:40</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>920</v>
+        <v>1141</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:15:20</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=5565</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>Ooftopia</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:12:41</t>
+          <t>0:12:57</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1141</v>
+        <v>1166</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:19:01</t>
+          <t>0:19:26</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=ooftopia</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>The New Frontier</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:12:54</t>
+          <t>0:13:17</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1160</v>
+        <v>1195</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:19:20</t>
+          <t>0:19:55</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_new_frontier</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BoM, LWU, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>atlantiantic</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:14:00</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:21:00</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=atlantiantic</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1549,7 +1549,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ooftopia</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>858</v>
+        <v>888</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:14:18</t>
+          <t>0:14:48</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1287</v>
+        <v>1332</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:21:27</t>
+          <t>0:22:12</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ooftopia</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>Cicimboroughian Coalition</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>889</v>
+        <v>1041</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:14:49</t>
+          <t>0:17:21</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1334</v>
+        <v>1561</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:22:14</t>
+          <t>0:26:01</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=cicimboroughian_coalition</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1631,7 +1631,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>atlantiantic</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>937</v>
+        <v>1078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:15:37</t>
+          <t>0:17:58</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1406</v>
+        <v>1618</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:23:26</t>
+          <t>0:26:58</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlantiantic</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,28 +1672,28 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>tagregiontest1</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>967</v>
+        <v>1215</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:16:07</t>
+          <t>0:20:15</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1451</v>
+        <v>1822</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:24:11</t>
+          <t>0:30:22</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tagregiontest1</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>988</v>
+        <v>1220</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:16:28</t>
+          <t>0:20:20</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1483</v>
+        <v>1830</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:24:43</t>
+          <t>0:30:30</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Cicimboroughian Coalition</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1135</v>
+        <v>1231</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:18:55</t>
+          <t>0:20:31</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1702</v>
+        <v>1847</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:28:22</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cicimboroughian_coalition</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1172</v>
+        <v>1234</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:19:32</t>
+          <t>0:20:34</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1758</v>
+        <v>1851</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:29:18</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1836,69 +1836,69 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Tushonka</t>
+          <t>The Federation of the FA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1174</v>
+        <v>1359</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:19:34</t>
+          <t>0:22:39</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1761</v>
+        <v>2039</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:29:21</t>
+          <t>0:33:59</t>
         </is>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tushonka</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_fa</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BoM, TBH, TCB</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The Westerlands</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1329</v>
+        <v>1425</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:22:09</t>
+          <t>0:23:45</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1993</v>
+        <v>2137</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:33:13</t>
+          <t>0:35:37</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_westerlands</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Region of Peace</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1335</v>
+        <v>1502</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:22:15</t>
+          <t>0:25:02</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2003</v>
+        <v>2253</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:33:23</t>
+          <t>0:37:33</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1345</v>
+        <v>1631</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:22:25</t>
+          <t>0:27:11</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2018</v>
+        <v>2447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:33:38</t>
+          <t>0:40:47</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,122 +1988,122 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>UnderBerg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1354</v>
+        <v>1735</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:22:34</t>
+          <t>0:28:55</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2030</v>
+        <v>2602</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:33:50</t>
+          <t>0:43:22</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=underberg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pangaea</t>
+          <t>TSGAIN of Rayzonia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1478</v>
+        <v>1767</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:24:38</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2216</v>
+        <v>2650</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:36:56</t>
+          <t>0:44:10</t>
         </is>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pangaea</t>
+          <t>https://www.nationstates.net/region=tsgain_of_rayzonia</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>The Union of Idontknow</t>
+          <t>my side of the world</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1563</v>
+        <v>1769</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:26:03</t>
+          <t>0:29:29</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2345</v>
+        <v>2653</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:39:05</t>
+          <t>0:44:13</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,122 +2111,122 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_union_of_idontknow</t>
+          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>my side of the world</t>
+          <t>SEVENUP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1892</v>
+        <v>1800</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:31:32</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2839</v>
+        <v>2700</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:47:19</t>
+          <t>0:45:00</t>
         </is>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
+          <t>https://www.nationstates.net/region=sevenup</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>The UEN</t>
+          <t>Gulagia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1918</v>
+        <v>1829</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:31:58</t>
+          <t>0:30:29</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2877</v>
+        <v>2744</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:47:57</t>
+          <t>0:45:44</t>
         </is>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_uen</t>
+          <t>https://www.nationstates.net/region=gulagia</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BoM, LWU, Sparkalia, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>United Governments of NationStates</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1976</v>
+        <v>1848</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:32:56</t>
+          <t>0:30:48</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2964</v>
+        <v>2772</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:49:24</t>
+          <t>0:46:12</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=united_governments_of_nationstates</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arda emeritus</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1987</v>
+        <v>1851</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:33:07</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2980</v>
+        <v>2777</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:49:40</t>
+          <t>0:46:17</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=arda_emeritus</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1994</v>
+        <v>1867</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:33:14</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2991</v>
+        <v>2800</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:49:51</t>
+          <t>0:46:40</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2328,28 +2328,28 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The Mass Effect Universe</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2011</v>
+        <v>1872</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:33:31</t>
+          <t>0:31:12</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3016</v>
+        <v>2808</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:50:16</t>
+          <t>0:46:48</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_mass_effect_universe</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2019</v>
+        <v>1882</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:33:39</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3029</v>
+        <v>2824</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:50:29</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2398,40 +2398,40 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2352</v>
+        <v>1892</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:39:12</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3528</v>
+        <v>2838</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:58:48</t>
+          <t>0:47:18</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,40 +2439,40 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Chippewa</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2400</v>
+        <v>1903</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:40:00</t>
+          <t>0:31:43</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3600</v>
+        <v>2855</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:00:00</t>
+          <t>0:47:35</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=chippewa</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Korel</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2406</v>
+        <v>1921</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:40:06</t>
+          <t>0:32:01</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3609</v>
+        <v>2882</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1:00:09</t>
+          <t>0:48:02</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=korel</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Fortnite Multiverse</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2733</v>
+        <v>1947</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:45:33</t>
+          <t>0:32:27</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4100</v>
+        <v>2920</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1:08:20</t>
+          <t>0:48:40</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,40 +2562,40 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_fortnite_multiverse</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>KstewF04</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2935</v>
+        <v>1964</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:48:55</t>
+          <t>0:32:44</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4402</v>
+        <v>2947</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1:13:22</t>
+          <t>0:49:07</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,40 +2603,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=kstewf04</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>The Confederation Of Nations</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2990</v>
+        <v>1982</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:49:50</t>
+          <t>0:33:02</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4486</v>
+        <v>2973</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1:14:46</t>
+          <t>0:49:33</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,92 +2644,461 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>notas region</t>
+          <t>Big Man Anarchy Union</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3053</v>
+        <v>2000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:50:53</t>
+          <t>0:33:20</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4580</v>
+        <v>3001</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1:16:20</t>
+          <t>0:50:01</t>
         </is>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=notas_region</t>
+          <t>https://www.nationstates.net/region=big_man_anarchy_union</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
+          <t>Soodan</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2179</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0:36:19</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3268</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0:54:28</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=soodan</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Malice Girl Scouts</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2180</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0:36:20</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3269</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0:54:29</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Korovia</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2199</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0:36:39</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3299</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0:54:59</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=korovia</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Cretanja Queendom</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3324</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0:55:24</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Iron Front</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3324</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0:55:24</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=iron_front</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2221</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0:37:01</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3331</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0:55:31</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0:42:39</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3838</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1:03:58</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2771</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0:46:11</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1:09:17</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2816</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0:46:56</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4223</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1:10:23</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>3432</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0:57:12</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>5149</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1:25:49</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="C65" t="n">
+        <v>3449</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0:57:29</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>5174</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1:26:14</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,28 +1262,28 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Bakayatist Region</t>
+          <t>The League of Free Nations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:08:15</t>
+          <t>0:08:10</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:12:22</t>
+          <t>0:12:15</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bakayatist_region</t>
+          <t>https://www.nationstates.net/region=the_league_of_free_nations</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Bakayatist Region</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:08:19</t>
+          <t>0:08:15</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:12:28</t>
+          <t>0:12:22</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=bakayatist_region</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>676</v>
+        <v>499</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:11:16</t>
+          <t>0:08:19</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1014</v>
+        <v>748</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:16:54</t>
+          <t>0:12:28</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>The Socialist Countries</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>760</v>
+        <v>674</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:12:40</t>
+          <t>0:11:14</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1141</v>
+        <v>1011</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:19:01</t>
+          <t>0:16:51</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=the_socialist_countries</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Ooftopia</t>
+          <t>absolves</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>777</v>
+        <v>676</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:12:57</t>
+          <t>0:11:16</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1166</v>
+        <v>1014</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:19:26</t>
+          <t>0:16:54</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ooftopia</t>
+          <t>https://www.nationstates.net/region=absolves</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>Confederate Nations of TomFoolery</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>797</v>
+        <v>760</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:13:17</t>
+          <t>0:12:40</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1195</v>
+        <v>1141</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:19:55</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>atlantiantic</t>
+          <t>Ooftopia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>834</v>
+        <v>777</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:12:57</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1251</v>
+        <v>1166</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:20:51</t>
+          <t>0:19:26</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlantiantic</t>
+          <t>https://www.nationstates.net/region=ooftopia</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1549,7 +1549,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>LIFE PUPPETS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>888</v>
+        <v>797</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:14:48</t>
+          <t>0:13:17</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1332</v>
+        <v>1195</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:22:12</t>
+          <t>0:19:55</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=life_puppets</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Cicimboroughian Coalition</t>
+          <t>atlantiantic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1041</v>
+        <v>834</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:17:21</t>
+          <t>0:13:54</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1561</v>
+        <v>1251</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:26:01</t>
+          <t>0:20:51</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cicimboroughian_coalition</t>
+          <t>https://www.nationstates.net/region=atlantiantic</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1631,7 +1631,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>Huago</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1078</v>
+        <v>888</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:17:58</t>
+          <t>0:14:48</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1618</v>
+        <v>1332</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:26:58</t>
+          <t>0:22:12</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=huago</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,28 +1672,28 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>New Vegas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1215</v>
+        <v>1039</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:20:15</t>
+          <t>0:17:19</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1822</v>
+        <v>1559</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:30:22</t>
+          <t>0:25:59</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=new_vegas</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Cicimboroughian Coalition</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1220</v>
+        <v>1041</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:20:20</t>
+          <t>0:17:21</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1830</v>
+        <v>1561</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:30:30</t>
+          <t>0:26:01</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=cicimboroughian_coalition</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1231</v>
+        <v>1078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:17:58</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1847</v>
+        <v>1618</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:26:58</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1795,28 +1795,28 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1234</v>
+        <v>1215</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:20:34</t>
+          <t>0:20:15</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1851</v>
+        <v>1822</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:30:51</t>
+          <t>0:30:22</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the FA</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1359</v>
+        <v>1220</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:22:39</t>
+          <t>0:20:20</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2039</v>
+        <v>1830</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:33:59</t>
+          <t>0:30:30</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_fa</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>The Westerlands</t>
+          <t>Nizhyn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1425</v>
+        <v>1229</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:23:45</t>
+          <t>0:20:29</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2137</v>
+        <v>1844</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:35:37</t>
+          <t>0:30:44</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_westerlands</t>
+          <t>https://www.nationstates.net/region=nizhyn</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1502</v>
+        <v>1231</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:25:02</t>
+          <t>0:20:31</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2253</v>
+        <v>1847</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:37:33</t>
+          <t>0:30:47</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1631</v>
+        <v>1234</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:27:11</t>
+          <t>0:20:34</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2447</v>
+        <v>1851</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:40:47</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,19 +1988,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>UnderBerg</t>
+          <t>The Federation of the FA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,27 +2009,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1735</v>
+        <v>1359</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:28:55</t>
+          <t>0:22:39</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2602</v>
+        <v>2039</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:43:22</t>
+          <t>0:33:59</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=underberg</t>
+          <t>https://www.nationstates.net/region=the_federation_of_the_fa</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2041,7 +2041,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>TSGAIN of Rayzonia</t>
+          <t>The Westerlands</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,27 +2050,27 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1767</v>
+        <v>1425</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:23:45</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2650</v>
+        <v>2137</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:44:10</t>
+          <t>0:35:37</t>
         </is>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tsgain_of_rayzonia</t>
+          <t>https://www.nationstates.net/region=the_westerlands</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2082,28 +2082,28 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>my side of the world</t>
+          <t>The Region of Peace</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1769</v>
+        <v>1502</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:29:29</t>
+          <t>0:25:02</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2653</v>
+        <v>2253</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:44:13</t>
+          <t>0:37:33</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,81 +2111,81 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
+          <t>https://www.nationstates.net/region=the_region_of_peace</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SEVENUP</t>
+          <t>Interstate 878</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1800</v>
+        <v>1631</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>0:27:11</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2700</v>
+        <v>2446</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:40:46</t>
         </is>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sevenup</t>
+          <t>https://www.nationstates.net/region=interstate_878</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Gulagia</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1829</v>
+        <v>1631</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:30:29</t>
+          <t>0:27:11</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2744</v>
+        <v>2447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:45:44</t>
+          <t>0:40:47</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,19 +2193,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gulagia</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>United Governments of NationStates</t>
+          <t>UnderBerg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2214,101 +2214,101 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1848</v>
+        <v>1735</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:30:48</t>
+          <t>0:28:55</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2772</v>
+        <v>2602</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:46:12</t>
+          <t>0:43:22</t>
         </is>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_governments_of_nationstates</t>
+          <t>https://www.nationstates.net/region=underberg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>TSGAIN of Rayzonia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1851</v>
+        <v>1767</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:30:51</t>
+          <t>0:29:27</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2777</v>
+        <v>2650</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:46:17</t>
+          <t>0:44:10</t>
         </is>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=tsgain_of_rayzonia</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>my side of the world</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1867</v>
+        <v>1769</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:31:07</t>
+          <t>0:29:29</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2800</v>
+        <v>2653</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:46:40</t>
+          <t>0:44:13</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,40 +2316,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>The Mass Effect Universe</t>
+          <t>Obama Islands</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1872</v>
+        <v>1779</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:31:12</t>
+          <t>0:29:39</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2808</v>
+        <v>2668</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:46:48</t>
+          <t>0:44:28</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,81 +2357,81 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mass_effect_universe</t>
+          <t>https://www.nationstates.net/region=obama_islands</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>SEVENUP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1882</v>
+        <v>1800</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:30:00</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2824</v>
+        <v>2700</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>0:45:00</t>
         </is>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=sevenup</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>Gulagia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1892</v>
+        <v>1829</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:31:32</t>
+          <t>0:30:29</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2838</v>
+        <v>2744</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:47:18</t>
+          <t>0:45:44</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,19 +2439,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=gulagia</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Chippewa</t>
+          <t>United Governments of NationStates</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1903</v>
+        <v>1848</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:30:48</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2855</v>
+        <v>2772</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:47:35</t>
+          <t>0:46:12</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,40 +2480,40 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chippewa</t>
+          <t>https://www.nationstates.net/region=united_governments_of_nationstates</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Korel</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1921</v>
+        <v>1851</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:32:01</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2882</v>
+        <v>2777</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:48:02</t>
+          <t>0:46:17</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=korel</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>The Fortnite Multiverse</t>
+          <t>SolarFlare</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1947</v>
+        <v>1867</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:32:27</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2920</v>
+        <v>2800</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:48:40</t>
+          <t>0:46:40</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fortnite_multiverse</t>
+          <t>https://www.nationstates.net/region=solarflare</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>KstewF04</t>
+          <t>The Mass Effect Universe</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1964</v>
+        <v>1872</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:32:44</t>
+          <t>0:31:12</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2947</v>
+        <v>2808</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:49:07</t>
+          <t>0:46:48</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kstewf04</t>
+          <t>https://www.nationstates.net/region=the_mass_effect_universe</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2615,28 +2615,28 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>The Confederation Of Nations</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1982</v>
+        <v>1882</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:33:02</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2973</v>
+        <v>2824</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:49:33</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,60 +2644,60 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Big Man Anarchy Union</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2000</v>
+        <v>1892</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:33:20</t>
+          <t>0:31:32</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3001</v>
+        <v>2838</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:50:01</t>
+          <t>0:47:18</t>
         </is>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=big_man_anarchy_union</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Soodan</t>
+          <t>Chippewa</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,27 +2706,27 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2179</v>
+        <v>1903</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:31:43</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3268</v>
+        <v>2855</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:54:28</t>
+          <t>0:47:35</t>
         </is>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soodan</t>
+          <t>https://www.nationstates.net/region=chippewa</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2738,28 +2738,28 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Korel</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2180</v>
+        <v>1921</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:36:20</t>
+          <t>0:32:01</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3269</v>
+        <v>2882</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:54:29</t>
+          <t>0:48:02</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,19 +2767,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=korel</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Korovia</t>
+          <t>The Fortnite Multiverse</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2788,27 +2788,27 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2199</v>
+        <v>1947</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:36:39</t>
+          <t>0:32:27</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3299</v>
+        <v>2920</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:54:59</t>
+          <t>0:48:40</t>
         </is>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=korovia</t>
+          <t>https://www.nationstates.net/region=the_fortnite_multiverse</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2820,28 +2820,28 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>KstewF04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2216</v>
+        <v>1964</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:36:56</t>
+          <t>0:32:44</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3324</v>
+        <v>2947</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:55:24</t>
+          <t>0:49:07</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,19 +2849,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=kstewf04</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Iron Front</t>
+          <t>The Confederation Of Nations</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2870,27 +2870,27 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2216</v>
+        <v>1982</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:36:56</t>
+          <t>0:33:02</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3324</v>
+        <v>2973</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:55:24</t>
+          <t>0:49:33</t>
         </is>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=iron_front</t>
+          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2902,110 +2902,110 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Big Man Anarchy Union</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2221</v>
+        <v>2000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:37:01</t>
+          <t>0:33:20</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3331</v>
+        <v>3001</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:55:31</t>
+          <t>0:50:01</t>
         </is>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=big_man_anarchy_union</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Soodan</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2559</v>
+        <v>2179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:42:39</t>
+          <t>0:36:19</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3838</v>
+        <v>3268</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1:03:58</t>
+          <t>0:54:28</t>
         </is>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=soodan</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2771</v>
+        <v>2180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:46:11</t>
+          <t>0:36:20</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4157</v>
+        <v>3269</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1:09:17</t>
+          <t>0:54:29</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3025,80 +3025,367 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Korovia</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2816</v>
+        <v>2199</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:46:56</t>
+          <t>0:36:39</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4223</v>
+        <v>3299</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1:10:23</t>
+          <t>0:54:59</t>
         </is>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=korovia</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
+          <t>Cretanja Queendom</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3324</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0:55:24</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Iron Front</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3324</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0:55:24</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=iron_front</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>BoM, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2221</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0:37:01</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3331</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0:55:31</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0:42:39</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3838</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1:03:58</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2771</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0:46:11</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4157</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1:09:17</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2816</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0:46:56</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4223</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1:10:23</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>The Boy Band</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3062</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0:51:02</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>4594</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1:16:34</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_boy_band</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C72" t="n">
         <v>3449</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0:57:29</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="E72" t="n">
         <v>5174</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1:26:14</t>
         </is>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="22 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="23 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jade Was Here</t>
+          <t>Macaronesia Ocidental</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:37</t>
+          <t>0:00:04</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:00:06</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,40 +512,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jade_was_here</t>
+          <t>https://www.nationstates.net/region=macaronesia_ocidental</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Res Publica</t>
+          <t>Falafel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:00:36</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,12 +553,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=res_publica</t>
+          <t>https://www.nationstates.net/region=falafel</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:11</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:54</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:16</t>
+          <t>0:01:12</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -647,41 +647,41 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Sovishire farmboys</t>
+          <t>ChadGPT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:01:39</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:02:28</t>
         </is>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
+          <t>https://www.nationstates.net/region=chadgpt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:24</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:21</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:31</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:02:32</t>
+          <t>0:02:33</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:03:48</t>
+          <t>0:03:50</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -811,28 +811,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>EUROPOOAN UNION</t>
+          <t>Kostenlos</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:02:50</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:04:19</t>
+          <t>0:04:16</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,12 +840,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=europooan_union</t>
+          <t>https://www.nationstates.net/region=kostenlos</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
@@ -861,11 +861,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:02:54</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -934,28 +934,28 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Hukashaka</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:04:06</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:05:56</t>
+          <t>0:06:09</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,60 +963,60 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=hukashaka</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The stronghold of Strength</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:04:14</t>
+          <t>0:04:44</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:06:21</t>
+          <t>0:07:06</t>
         </is>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_stronghold_of_strength</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The stronghold of Strength</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,60 +1025,60 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:04:45</t>
+          <t>0:05:12</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:07:08</t>
+          <t>0:07:47</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_stronghold_of_strength</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Kaiserreich</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:05:20</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:08:00</t>
+          <t>0:08:52</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Future</t>
+          <t>Confederation of Outlying Nations</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:05:43</t>
+          <t>0:07:05</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>514</v>
+        <v>637</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:08:34</t>
+          <t>0:10:37</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_future</t>
+          <t>https://www.nationstates.net/region=confederation_of_outlying_nations</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The League of Free Nations</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:05:56</t>
+          <t>0:07:55</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>534</v>
+        <v>713</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:08:54</t>
+          <t>0:11:53</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_league_of_free_nations</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Jeffersonia</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>369</v>
+        <v>485</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:06:09</t>
+          <t>0:08:05</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>554</v>
+        <v>727</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:09:14</t>
+          <t>0:12:07</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=jeffersonia</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Caestaeleshamm</t>
+          <t>The Socialist Countries</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>476</v>
+        <v>674</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:11:14</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>715</v>
+        <v>1010</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:11:55</t>
+          <t>0:16:50</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=caestaeleshamm</t>
+          <t>https://www.nationstates.net/region=the_socialist_countries</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The League of Free Nations</t>
+          <t>European Places</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>490</v>
+        <v>786</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:08:10</t>
+          <t>0:13:06</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>735</v>
+        <v>1179</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:12:15</t>
+          <t>0:19:39</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_league_of_free_nations</t>
+          <t>https://www.nationstates.net/region=european_places</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Bakayatist Region</t>
+          <t>ndi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>495</v>
+        <v>888</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:08:15</t>
+          <t>0:14:48</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>742</v>
+        <v>1333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:12:22</t>
+          <t>0:22:13</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=bakayatist_region</t>
+          <t>https://www.nationstates.net/region=ndi</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>New Vegas</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>499</v>
+        <v>1038</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:08:19</t>
+          <t>0:17:18</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>748</v>
+        <v>1557</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:12:28</t>
+          <t>0:25:57</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,81 +1373,81 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=new_vegas</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>The Socialist Countries</t>
+          <t>Greater Tyrannyistan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>674</v>
+        <v>1040</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:11:14</t>
+          <t>0:17:20</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1011</v>
+        <v>1559</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:16:51</t>
+          <t>0:25:59</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_socialist_countries</t>
+          <t>https://www.nationstates.net/region=greater_tyrannyistan</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BFL</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>absolves</t>
+          <t>Mojave Wasteland</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>676</v>
+        <v>1083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:11:16</t>
+          <t>0:18:03</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1014</v>
+        <v>1624</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:16:54</t>
+          <t>0:27:04</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=absolves</t>
+          <t>https://www.nationstates.net/region=mojave_wasteland</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Confederate Nations of TomFoolery</t>
+          <t>Fandaristanian Kingdom</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>760</v>
+        <v>1094</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:12:40</t>
+          <t>0:18:14</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1141</v>
+        <v>1641</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:19:01</t>
+          <t>0:27:21</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=confederate_nations_of_tomfoolery</t>
+          <t>https://www.nationstates.net/region=fandaristanian_kingdom</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Ooftopia</t>
+          <t>Jregoria</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>777</v>
+        <v>1135</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:12:57</t>
+          <t>0:18:55</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1166</v>
+        <v>1703</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:19:26</t>
+          <t>0:28:23</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=ooftopia</t>
+          <t>https://www.nationstates.net/region=jregoria</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>LIFE PUPPETS</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>797</v>
+        <v>1230</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:13:17</t>
+          <t>0:20:30</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1195</v>
+        <v>1846</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:19:55</t>
+          <t>0:30:46</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=life_puppets</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>atlantiantic</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>834</v>
+        <v>1236</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:13:54</t>
+          <t>0:20:36</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1251</v>
+        <v>1854</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:20:51</t>
+          <t>0:30:54</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=atlantiantic</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Huago</t>
+          <t>Nizhyn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>888</v>
+        <v>1244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:14:48</t>
+          <t>0:20:44</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1332</v>
+        <v>1867</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:22:12</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,40 +1660,40 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=huago</t>
+          <t>https://www.nationstates.net/region=nizhyn</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>New Vegas</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1039</v>
+        <v>1246</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:17:19</t>
+          <t>0:20:46</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1559</v>
+        <v>1870</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:25:59</t>
+          <t>0:31:10</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_vegas</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Cicimboroughian Coalition</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1041</v>
+        <v>1250</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:17:21</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1561</v>
+        <v>1875</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:26:01</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cicimboroughian_coalition</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1754,28 +1754,28 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Mojave Wasteland</t>
+          <t>Sraqn Genc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1078</v>
+        <v>1250</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:17:58</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1618</v>
+        <v>1876</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:26:58</t>
+          <t>0:31:16</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=mojave_wasteland</t>
+          <t>https://www.nationstates.net/region=sraqn_genc</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>PeanutCraft</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1215</v>
+        <v>1345</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:20:15</t>
+          <t>0:22:25</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1822</v>
+        <v>2017</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:30:22</t>
+          <t>0:33:37</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=peanutcraft</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Benevolent Dictatorship Alliance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1220</v>
+        <v>1483</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:20:20</t>
+          <t>0:24:43</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1830</v>
+        <v>2225</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:30:30</t>
+          <t>0:37:05</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,40 +1865,40 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=benevolent_dictatorship_alliance</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Nizhyn</t>
+          <t>La Colonie des Grands Rats</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1229</v>
+        <v>1573</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:20:29</t>
+          <t>0:26:13</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1844</v>
+        <v>2359</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:30:44</t>
+          <t>0:39:19</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nizhyn</t>
+          <t>https://www.nationstates.net/region=la_colonie_des_grands_rats</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BFL</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Interstate 878</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1231</v>
+        <v>1691</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:20:31</t>
+          <t>0:28:11</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1847</v>
+        <v>2537</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:30:47</t>
+          <t>0:42:17</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=interstate_878</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>Too</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1234</v>
+        <v>1691</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:20:34</t>
+          <t>0:28:11</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1851</v>
+        <v>2537</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:30:51</t>
+          <t>0:42:17</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,19 +1988,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=too</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>The Federation of the FA</t>
+          <t>UnderBerg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,27 +2009,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1359</v>
+        <v>1821</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:22:39</t>
+          <t>0:30:21</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2039</v>
+        <v>2732</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:33:59</t>
+          <t>0:45:32</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_federation_of_the_fa</t>
+          <t>https://www.nationstates.net/region=underberg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2041,7 +2041,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>The Westerlands</t>
+          <t>San Eoghann</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2050,68 +2050,68 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1425</v>
+        <v>1824</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:23:45</t>
+          <t>0:30:24</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2137</v>
+        <v>2736</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:35:37</t>
+          <t>0:45:36</t>
         </is>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_westerlands</t>
+          <t>https://www.nationstates.net/region=san_eoghann</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>The Region of Peace</t>
+          <t>TSGAIN of Rayzonia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1502</v>
+        <v>1848</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:25:02</t>
+          <t>0:30:48</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2253</v>
+        <v>2772</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:37:33</t>
+          <t>0:46:12</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_region_of_peace</t>
+          <t>https://www.nationstates.net/region=tsgain_of_rayzonia</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Interstate 878</t>
+          <t>my side of the world</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1631</v>
+        <v>1850</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:27:11</t>
+          <t>0:30:50</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2446</v>
+        <v>2775</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:40:46</t>
+          <t>0:46:15</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,40 +2152,40 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=interstate_878</t>
+          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>BFL</t>
+          <t>EPSA</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Too</t>
+          <t>Obama Islands</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1631</v>
+        <v>1860</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:27:11</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2447</v>
+        <v>2790</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:40:47</t>
+          <t>0:46:30</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2193,19 +2193,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=too</t>
+          <t>https://www.nationstates.net/region=obama_islands</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BFL</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>UnderBerg</t>
+          <t>SEVENUP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1735</v>
+        <v>1880</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:28:55</t>
+          <t>0:31:20</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2602</v>
+        <v>2820</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:43:22</t>
+          <t>0:47:00</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=underberg</t>
+          <t>https://www.nationstates.net/region=sevenup</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2246,69 +2246,69 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>TSGAIN of Rayzonia</t>
+          <t>Chaoslands</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1767</v>
+        <v>1882</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:29:27</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2650</v>
+        <v>2822</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:44:10</t>
+          <t>0:47:02</t>
         </is>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tsgain_of_rayzonia</t>
+          <t>https://www.nationstates.net/region=chaoslands</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>my side of the world</t>
+          <t>Gulagia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1769</v>
+        <v>1899</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:29:29</t>
+          <t>0:31:39</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2653</v>
+        <v>2849</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:44:13</t>
+          <t>0:47:29</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2316,40 +2316,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
+          <t>https://www.nationstates.net/region=gulagia</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Obama Islands</t>
+          <t>United Governments of NationStates</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1779</v>
+        <v>1921</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:29:39</t>
+          <t>0:32:01</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2668</v>
+        <v>2881</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:44:28</t>
+          <t>0:48:01</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2357,81 +2357,81 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=obama_islands</t>
+          <t>https://www.nationstates.net/region=united_governments_of_nationstates</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BFL</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>SEVENUP</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1800</v>
+        <v>1923</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:30:00</t>
+          <t>0:32:03</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2700</v>
+        <v>2884</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:48:04</t>
         </is>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sevenup</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Gulagia</t>
+          <t>SolarFlare</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1829</v>
+        <v>1941</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:30:29</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2744</v>
+        <v>2912</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0:45:44</t>
+          <t>0:48:32</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=gulagia</t>
+          <t>https://www.nationstates.net/region=solarflare</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>United Governments of NationStates</t>
+          <t>The Mass Effect Universe</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1848</v>
+        <v>1947</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:30:48</t>
+          <t>0:32:27</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2772</v>
+        <v>2921</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0:46:12</t>
+          <t>0:48:41</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_governments_of_nationstates</t>
+          <t>https://www.nationstates.net/region=the_mass_effect_universe</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1851</v>
+        <v>1960</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:30:51</t>
+          <t>0:32:40</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2777</v>
+        <v>2940</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0:46:17</t>
+          <t>0:49:00</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2521,40 +2521,40 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>Fallout DnD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1867</v>
+        <v>1968</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:31:07</t>
+          <t>0:32:48</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2800</v>
+        <v>2952</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0:46:40</t>
+          <t>0:49:12</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=fallout_dnd</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>The Mass Effect Universe</t>
+          <t>Chippewa</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1872</v>
+        <v>1979</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:31:12</t>
+          <t>0:32:59</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2808</v>
+        <v>2969</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0:46:48</t>
+          <t>0:49:29</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_mass_effect_universe</t>
+          <t>https://www.nationstates.net/region=chippewa</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2615,28 +2615,28 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Korel</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1882</v>
+        <v>2002</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:33:22</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2824</v>
+        <v>3003</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>0:50:03</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2644,40 +2644,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=korel</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>The Fortnite Multiverse</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1892</v>
+        <v>2024</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:31:32</t>
+          <t>0:33:44</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2838</v>
+        <v>3036</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0:47:18</t>
+          <t>0:50:36</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=the_fortnite_multiverse</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, TBH</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Chippewa</t>
+          <t>KstewF04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1903</v>
+        <v>2044</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:31:43</t>
+          <t>0:34:04</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2855</v>
+        <v>3066</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0:47:35</t>
+          <t>0:51:06</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=chippewa</t>
+          <t>https://www.nationstates.net/region=kstewf04</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Korel</t>
+          <t>The Confederation Of Nations</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1921</v>
+        <v>2063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:32:01</t>
+          <t>0:34:23</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2882</v>
+        <v>3094</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0:48:02</t>
+          <t>0:51:34</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=korel</t>
+          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2779,28 +2779,28 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>The Fortnite Multiverse</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1947</v>
+        <v>2285</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:32:27</t>
+          <t>0:38:05</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2920</v>
+        <v>3428</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0:48:40</t>
+          <t>0:57:08</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2808,19 +2808,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_fortnite_multiverse</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>KstewF04</t>
+          <t>Irillia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2829,19 +2829,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1964</v>
+        <v>2288</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:32:44</t>
+          <t>0:38:08</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2947</v>
+        <v>3432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0:49:07</t>
+          <t>0:57:12</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2849,40 +2849,40 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kstewf04</t>
+          <t>https://www.nationstates.net/region=irillia</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>The Confederation Of Nations</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1982</v>
+        <v>2330</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:33:02</t>
+          <t>0:38:50</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2973</v>
+        <v>3496</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0:49:33</t>
+          <t>0:58:16</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2890,19 +2890,19 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_confederation_of_nations</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Big Man Anarchy Union</t>
+          <t>Iron Front</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2911,27 +2911,27 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2000</v>
+        <v>2331</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0:33:20</t>
+          <t>0:38:51</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3001</v>
+        <v>3497</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0:50:01</t>
+          <t>0:58:17</t>
         </is>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=big_man_anarchy_union</t>
+          <t>https://www.nationstates.net/region=iron_front</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2943,69 +2943,69 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Soodan</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2179</v>
+        <v>2336</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0:36:19</t>
+          <t>0:38:56</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3268</v>
+        <v>3504</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0:54:28</t>
+          <t>0:58:24</t>
         </is>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=soodan</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Region for the Regionless</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2180</v>
+        <v>2677</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0:36:20</t>
+          <t>0:44:37</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3269</v>
+        <v>4016</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0:54:29</t>
+          <t>1:06:56</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3013,81 +3013,81 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=region_for_the_regionless</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Korovia</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2199</v>
+        <v>2689</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0:36:39</t>
+          <t>0:44:49</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3299</v>
+        <v>4034</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0:54:59</t>
+          <t>1:07:14</t>
         </is>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=korovia</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2216</v>
+        <v>2888</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0:36:56</t>
+          <t>0:48:08</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3324</v>
+        <v>4332</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0:55:24</t>
+          <t>1:12:12</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3095,60 +3095,60 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Iron Front</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2216</v>
+        <v>2938</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0:36:56</t>
+          <t>0:48:58</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3324</v>
+        <v>4407</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0:55:24</t>
+          <t>1:13:27</t>
         </is>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=iron_front</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The Boy Band</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3157,19 +3157,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2221</v>
+        <v>3211</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0:37:01</t>
+          <t>0:53:31</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3331</v>
+        <v>4817</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0:55:31</t>
+          <t>1:20:17</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3177,19 +3177,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_boy_band</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2559</v>
+        <v>3432</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0:42:39</t>
+          <t>0:57:12</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3838</v>
+        <v>5148</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1:03:58</t>
+          <t>1:25:48</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3218,174 +3218,10 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2771</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0:46:11</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>4157</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1:09:17</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>2816</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0:46:56</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4223</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1:10:23</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>The Boy Band</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>3062</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0:51:02</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>4594</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1:16:34</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_boy_band</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>NPA</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>3449</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0:57:29</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>5174</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1:26:14</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="24 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="25 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:28</t>
+          <t>0:00:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:42</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:59</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:28</t>
+          <t>0:01:19</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:00</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:30</t>
+          <t>0:01:20</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -606,28 +606,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:01:59</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:02:58</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:03:05</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>The Jewel Robotox Nations</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:03:19</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:03:34</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:05:22</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:04:07</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:05:35</t>
+          <t>0:06:11</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:04:40</t>
+          <t>0:04:24</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:07:00</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:08:06</t>
+          <t>0:08:08</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>453</v>
+        <v>357</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:07:33</t>
+          <t>0:05:57</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>680</v>
+        <v>535</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:11:20</t>
+          <t>0:08:55</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1236</v>
+        <v>495</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:20:36</t>
+          <t>0:08:15</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1855</v>
+        <v>743</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:30:55</t>
+          <t>0:12:23</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,19 +963,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1243</v>
+        <v>1225</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:20:25</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1865</v>
+        <v>1838</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:31:05</t>
+          <t>0:30:38</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1253</v>
+        <v>1230</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:20:53</t>
+          <t>0:20:30</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1880</v>
+        <v>1845</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:31:20</t>
+          <t>0:30:45</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:20:56</t>
+          <t>0:20:40</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1884</v>
+        <v>1860</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:31:24</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1098,28 +1098,28 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Interstate 878</t>
+          <t>Tropical Islands</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1685</v>
+        <v>1243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:28:05</t>
+          <t>0:20:43</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2528</v>
+        <v>1864</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:42:08</t>
+          <t>0:31:04</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,53 +1127,53 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=interstate_878</t>
+          <t>https://www.nationstates.net/region=tropical_islands</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BFL</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>my side of the world</t>
+          <t>The plaza</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:30:54</t>
+          <t>0:30:41</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2781</v>
+        <v>2762</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:46:21</t>
+          <t>0:46:02</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=my_side_of_the_world</t>
+          <t>https://www.nationstates.net/region=the_plaza</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>EPSA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1938</v>
+        <v>1875</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:32:18</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2907</v>
+        <v>2813</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:48:27</t>
+          <t>0:46:53</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1221,28 +1221,28 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SolarFlare</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1956</v>
+        <v>2248</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:32:36</t>
+          <t>0:37:28</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2934</v>
+        <v>3373</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:48:54</t>
+          <t>0:56:13</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=solarflare</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,60 +1271,60 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1984</v>
+        <v>2283</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:33:04</t>
+          <t>0:38:03</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2976</v>
+        <v>3424</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:49:36</t>
+          <t>0:57:04</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fallout DnD</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1992</v>
+        <v>2287</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:33:12</t>
+          <t>0:38:07</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2988</v>
+        <v>3431</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:49:48</t>
+          <t>0:57:11</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fallout_dnd</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2317</v>
+        <v>2700</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:38:37</t>
+          <t>0:45:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3475</v>
+        <v>4050</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:57:55</t>
+          <t>1:07:30</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2357</v>
+        <v>2900</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:39:17</t>
+          <t>0:48:20</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3535</v>
+        <v>4349</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:58:55</t>
+          <t>1:12:29</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2364</v>
+        <v>2940</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:39:24</t>
+          <t>0:49:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3546</v>
+        <v>4410</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:59:06</t>
+          <t>1:13:30</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,19 +1455,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2740</v>
+        <v>3460</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:45:40</t>
+          <t>0:57:40</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4110</v>
+        <v>5189</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1:08:30</t>
+          <t>1:26:29</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,133 +1496,10 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2949</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0:49:09</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>4424</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1:13:44</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>2996</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0:49:56</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>4494</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1:14:54</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>3449</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0:57:29</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>5174</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1:26:14</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="25 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="26 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:30</t>
+          <t>0:00:32</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:45</t>
+          <t>0:00:49</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:19</t>
+          <t>0:01:32</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:01:03</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:20</t>
+          <t>0:01:34</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:59</t>
+          <t>0:02:02</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:58</t>
+          <t>0:03:03</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:05</t>
+          <t>0:03:10</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:02:15</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:19</t>
+          <t>0:03:23</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:02:43</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:03:59</t>
+          <t>0:04:05</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:04:07</t>
+          <t>0:03:46</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:06:11</t>
+          <t>0:05:39</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:04:24</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:05:04</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:08:08</t>
+          <t>0:07:37</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:05:57</t>
+          <t>0:05:42</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:08:55</t>
+          <t>0:08:33</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:08:15</t>
+          <t>0:07:56</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:12:23</t>
+          <t>0:11:54</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1225</v>
+        <v>1320</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:20:25</t>
+          <t>0:22:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1838</v>
+        <v>1980</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:30:38</t>
+          <t>0:33:00</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1230</v>
+        <v>1326</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:20:30</t>
+          <t>0:22:06</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1845</v>
+        <v>1988</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:30:45</t>
+          <t>0:33:08</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1240</v>
+        <v>1336</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:20:40</t>
+          <t>0:22:16</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1860</v>
+        <v>2005</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:33:25</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1098,28 +1098,28 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Tropical Islands</t>
+          <t>The City of Ba Sing Se</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1243</v>
+        <v>1486</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:20:43</t>
+          <t>0:24:46</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1864</v>
+        <v>2230</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:31:04</t>
+          <t>0:37:10</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=tropical_islands</t>
+          <t>https://www.nationstates.net/region=the_city_of_ba_sing_se</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka, LWU, Osiris</t>
         </is>
       </c>
     </row>
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1841</v>
+        <v>1861</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:30:41</t>
+          <t>0:31:01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2762</v>
+        <v>2791</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:46:02</t>
+          <t>0:46:31</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1875</v>
+        <v>1898</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:31:15</t>
+          <t>0:31:38</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2813</v>
+        <v>2847</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:46:53</t>
+          <t>0:47:27</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2248</v>
+        <v>2292</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:37:28</t>
+          <t>0:38:12</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3373</v>
+        <v>3438</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:56:13</t>
+          <t>0:57:18</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2283</v>
+        <v>2331</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:38:03</t>
+          <t>0:38:51</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3424</v>
+        <v>3496</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:57:04</t>
+          <t>0:58:16</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2287</v>
+        <v>2336</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:38:07</t>
+          <t>0:38:56</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3431</v>
+        <v>3504</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:57:11</t>
+          <t>0:58:24</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2700</v>
+        <v>2722</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:45:00</t>
+          <t>0:45:22</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4050</v>
+        <v>4084</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1:07:30</t>
+          <t>1:08:04</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2900</v>
+        <v>2930</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:48:20</t>
+          <t>0:48:50</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4349</v>
+        <v>4394</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1:12:29</t>
+          <t>1:13:14</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2940</v>
+        <v>2976</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:49:00</t>
+          <t>0:49:36</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4410</v>
+        <v>4464</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1:13:30</t>
+          <t>1:14:24</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1467,39 +1467,80 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>notas region</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3044</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0:50:44</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4566</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1:16:06</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=notas_region</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>3460</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0:57:40</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>5189</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1:26:29</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3446</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0:57:26</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5168</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1:26:08</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="26 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="27 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Falafel</t>
+          <t>Galactic Empire of Sween</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:32</t>
+          <t>0:00:54</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:49</t>
+          <t>0:01:21</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=falafel</t>
+          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BoM, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FrameShift</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:02:04</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:32</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=frameshift</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:03</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:34</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:02</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:03</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:10</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The Jewel Robotox Nations</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:15</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:23</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_jewel_robotox_nations</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:43</t>
+          <t>0:05:06</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:04:05</t>
+          <t>0:07:40</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>226</v>
+        <v>351</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:46</t>
+          <t>0:05:51</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>339</v>
+        <v>526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:05:39</t>
+          <t>0:08:46</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>235</v>
+        <v>470</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>704</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:11:44</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>304</v>
+        <v>1234</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:05:04</t>
+          <t>0:20:34</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>457</v>
+        <v>1851</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:07:37</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>342</v>
+        <v>1239</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:05:42</t>
+          <t>0:20:39</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>513</v>
+        <v>1859</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:08:33</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>476</v>
+        <v>1248</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:07:56</t>
+          <t>0:20:48</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>714</v>
+        <v>1872</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:11:54</t>
+          <t>0:31:12</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>abrogated</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1320</v>
+        <v>1741</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:22:00</t>
+          <t>0:29:01</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1980</v>
+        <v>2611</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:33:00</t>
+          <t>0:43:31</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=abrogated</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1326</v>
+        <v>1841</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:22:06</t>
+          <t>0:30:41</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1988</v>
+        <v>2762</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:33:08</t>
+          <t>0:46:02</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,81 +1045,81 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Erynia Card Farm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1336</v>
+        <v>1882</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:22:16</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2005</v>
+        <v>2824</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:33:25</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=erynia_card_farm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The City of Ba Sing Se</t>
+          <t>The Sercia canal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1486</v>
+        <v>1934</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:24:46</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2230</v>
+        <v>2901</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:37:10</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,60 +1127,60 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_city_of_ba_sing_se</t>
+          <t>https://www.nationstates.net/region=the_sercia_canal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ijaka, LWU, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The plaza</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1861</v>
+        <v>2255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:31:01</t>
+          <t>0:37:35</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2791</v>
+        <v>3382</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:46:31</t>
+          <t>0:56:22</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_plaza</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,60 +1189,60 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1898</v>
+        <v>2296</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:31:38</t>
+          <t>0:38:16</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2847</v>
+        <v>3443</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:47:27</t>
+          <t>0:57:23</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2292</v>
+        <v>2301</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:38:12</t>
+          <t>0:38:21</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3438</v>
+        <v>3451</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:57:18</t>
+          <t>0:57:31</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,39 +1271,39 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2331</v>
+        <v>2699</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:38:51</t>
+          <t>0:44:59</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3496</v>
+        <v>4049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:58:16</t>
+          <t>1:07:29</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2336</v>
+        <v>2908</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:38:56</t>
+          <t>0:48:28</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3504</v>
+        <v>4363</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:58:24</t>
+          <t>1:12:43</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,40 +1332,40 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2722</v>
+        <v>2956</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:45:22</t>
+          <t>0:49:16</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4084</v>
+        <v>4434</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1:08:04</t>
+          <t>1:13:54</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,40 +1373,40 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2930</v>
+        <v>3456</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:48:50</t>
+          <t>0:57:36</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4394</v>
+        <v>5184</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1:13:14</t>
+          <t>1:26:24</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,133 +1414,10 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2976</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0:49:36</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>4464</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1:14:24</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>notas region</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>3044</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0:50:44</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4566</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1:16:06</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=notas_region</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>3446</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0:57:26</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>5168</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1:26:08</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,28 +606,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>abolished</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:02:17</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:03:26</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=abolished</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>355</v>
+        <v>258</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:05:55</t>
+          <t>0:04:18</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:03:57</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:05:55</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:07:40</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:05:51</t>
+          <t>0:05:06</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:08:46</t>
+          <t>0:07:40</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>470</v>
+        <v>351</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:05:51</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>704</v>
+        <v>526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:11:44</t>
+          <t>0:08:46</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Zolochiv</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1234</v>
+        <v>421</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:20:34</t>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1851</v>
+        <v>631</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:30:51</t>
+          <t>0:10:31</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=zolochiv</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1239</v>
+        <v>470</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:20:39</t>
+          <t>0:07:50</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1859</v>
+        <v>704</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:11:44</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,19 +922,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>Propounded Empathy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1248</v>
+        <v>733</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:20:48</t>
+          <t>0:12:13</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1872</v>
+        <v>1099</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:31:12</t>
+          <t>0:18:19</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=propounded_empathy</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,7 +975,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>abrogated</t>
+          <t>Crazed Nations CN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1741</v>
+        <v>1087</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:29:01</t>
+          <t>0:18:07</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2611</v>
+        <v>1631</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:43:31</t>
+          <t>0:27:11</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abrogated</t>
+          <t>https://www.nationstates.net/region=crazed_nations_cn</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1016,7 +1016,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1841</v>
+        <v>1234</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:30:41</t>
+          <t>0:20:34</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2762</v>
+        <v>1851</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:46:02</t>
+          <t>0:30:51</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1057,48 +1057,48 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Erynia Card Farm</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1882</v>
+        <v>1239</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:20:39</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2824</v>
+        <v>1859</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>0:30:59</t>
         </is>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=erynia_card_farm</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Sercia canal</t>
+          <t>The Brotherhood of Blood</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1934</v>
+        <v>1248</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:20:48</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2901</v>
+        <v>1872</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:48:21</t>
+          <t>0:31:12</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_sercia_canal</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1139,28 +1139,28 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>abrogated</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2255</v>
+        <v>1741</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:37:35</t>
+          <t>0:29:01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3382</v>
+        <v>2611</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:56:22</t>
+          <t>0:43:31</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=abrogated</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,101 +1189,101 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2296</v>
+        <v>1841</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:38:16</t>
+          <t>0:30:41</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3443</v>
+        <v>2762</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:57:23</t>
+          <t>0:46:02</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Erynia Card Farm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2301</v>
+        <v>1882</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:38:21</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3451</v>
+        <v>2824</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:57:31</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=erynia_card_farm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Sercia canal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2699</v>
+        <v>1934</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:44:59</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4049</v>
+        <v>2901</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1:07:29</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_sercia_canal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2908</v>
+        <v>2255</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:48:28</t>
+          <t>0:37:35</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4363</v>
+        <v>3382</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1:12:43</t>
+          <t>0:56:22</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,80 +1344,244 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2956</v>
+        <v>2296</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:49:16</t>
+          <t>0:38:16</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4434</v>
+        <v>3443</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1:13:54</t>
+          <t>0:57:23</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2301</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0:38:21</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3451</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0:57:31</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0:44:59</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4049</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1:07:29</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0:48:28</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1:12:43</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2956</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0:49:16</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4434</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1:13:54</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>3456</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0:57:36</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E28" t="n">
         <v>5184</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1:26:24</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="27 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="28 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Galactic Empire of Sween</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:54</t>
+          <t>0:02:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:21</t>
+          <t>0:03:00</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,40 +512,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=galactic_empire_of_sween</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:02:04</t>
+          <t>0:02:07</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:03:07</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>abolished</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:02:14</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:03:21</t>
+          <t>0:03:16</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=abolished</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>abolished</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:17</t>
+          <t>0:02:49</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:26</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abolished</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>258</v>
+        <v>386</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:04:18</t>
+          <t>0:06:26</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:03:57</t>
+          <t>0:04:34</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:05:55</t>
+          <t>0:06:51</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>460</v>
+        <v>567</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:07:40</t>
+          <t>0:09:27</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Zolochiv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>351</v>
+        <v>457</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:05:51</t>
+          <t>0:07:37</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>526</v>
+        <v>686</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:08:46</t>
+          <t>0:11:26</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=zolochiv</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Zolochiv</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>421</v>
+        <v>528</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:07:01</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>631</v>
+        <v>792</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:10:31</t>
+          <t>0:13:12</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=zolochiv</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Crazed Nations CN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>470</v>
+        <v>1212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:07:50</t>
+          <t>0:20:12</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>704</v>
+        <v>1818</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:11:44</t>
+          <t>0:30:18</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=crazed_nations_cn</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Propounded Empathy</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>733</v>
+        <v>1371</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:12:13</t>
+          <t>0:22:51</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1099</v>
+        <v>2056</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:18:19</t>
+          <t>0:34:16</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=propounded_empathy</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Crazed Nations CN</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1087</v>
+        <v>1376</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:18:07</t>
+          <t>0:22:56</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1631</v>
+        <v>2064</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:27:11</t>
+          <t>0:34:24</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=crazed_nations_cn</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1234</v>
+        <v>1952</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:20:34</t>
+          <t>0:32:32</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1851</v>
+        <v>2928</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:30:51</t>
+          <t>0:48:48</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1057,7 +1057,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1239</v>
+        <v>1995</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:20:39</t>
+          <t>0:33:15</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1859</v>
+        <v>2992</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:30:59</t>
+          <t>0:49:52</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Blood</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1248</v>
+        <v>2314</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:20:48</t>
+          <t>0:38:34</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1872</v>
+        <v>3472</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:31:12</t>
+          <t>0:57:52</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,81 +1127,81 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_blood</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>abrogated</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1741</v>
+        <v>2352</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:29:01</t>
+          <t>0:39:12</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2611</v>
+        <v>3528</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:43:31</t>
+          <t>0:58:48</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abrogated</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1841</v>
+        <v>2356</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:30:41</t>
+          <t>0:39:16</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2762</v>
+        <v>3534</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:46:02</t>
+          <t>0:58:54</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,81 +1209,81 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Erynia Card Farm</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE, RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1882</v>
+        <v>2726</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:45:26</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2824</v>
+        <v>4088</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>1:08:08</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=erynia_card_farm</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The Sercia canal</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1934</v>
+        <v>2937</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:48:57</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2901</v>
+        <v>4405</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:48:21</t>
+          <t>1:13:25</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_sercia_canal</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2255</v>
+        <v>2993</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:37:35</t>
+          <t>0:49:53</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3382</v>
+        <v>4489</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:56:22</t>
+          <t>1:14:49</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,235 +1353,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2296</v>
+        <v>3447</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:38:16</t>
+          <t>0:57:27</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3443</v>
+        <v>5170</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:57:23</t>
+          <t>1:26:10</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2301</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0:38:21</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>3451</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0:57:31</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2699</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0:44:59</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>4049</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1:07:29</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2908</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0:48:28</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4363</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1:12:43</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2956</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0:49:16</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>4434</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1:13:54</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>3456</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0:57:36</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>5184</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1:26:24</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="28 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="29 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:02:00</t>
+          <t>0:02:13</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:03:00</t>
+          <t>0:03:20</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:02:07</t>
+          <t>0:02:24</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -565,28 +565,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>abolished</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:03:16</t>
+          <t>0:04:35</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abolished</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:49</t>
+          <t>0:04:27</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:06:41</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:04:17</t>
+          <t>0:04:41</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:06:26</t>
+          <t>0:07:01</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:04:34</t>
+          <t>0:06:33</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>411</v>
+        <v>590</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:06:51</t>
+          <t>0:09:50</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>337</v>
+        <v>435</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>506</v>
+        <v>652</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:08:26</t>
+          <t>0:10:52</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:06:18</t>
+          <t>0:09:12</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>567</v>
+        <v>829</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:09:27</t>
+          <t>0:13:49</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Zolochiv</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>457</v>
+        <v>1215</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:07:37</t>
+          <t>0:20:15</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>686</v>
+        <v>1822</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:11:26</t>
+          <t>0:30:22</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=zolochiv</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>528</v>
+        <v>1221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:08:48</t>
+          <t>0:20:21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>792</v>
+        <v>1831</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:13:12</t>
+          <t>0:30:31</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,60 +881,60 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Crazed Nations CN</t>
+          <t>Fascist United Nations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1212</v>
+        <v>1677</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:20:12</t>
+          <t>0:27:57</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1818</v>
+        <v>2516</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:30:18</t>
+          <t>0:41:56</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=crazed_nations_cn</t>
+          <t>https://www.nationstates.net/region=fascist_united_nations</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Kaiserreich</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1371</v>
+        <v>1784</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:22:51</t>
+          <t>0:29:44</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2056</v>
+        <v>2676</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:34:16</t>
+          <t>0:44:36</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,7 +975,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1376</v>
+        <v>1817</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:22:56</t>
+          <t>0:30:17</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2064</v>
+        <v>2725</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:34:24</t>
+          <t>0:45:25</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>The Global Union Consortium</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1952</v>
+        <v>1822</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:32:32</t>
+          <t>0:30:22</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2928</v>
+        <v>2733</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:48:48</t>
+          <t>0:45:33</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=the_global_union_consortium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1995</v>
+        <v>2095</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:33:15</t>
+          <t>0:34:55</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2992</v>
+        <v>3143</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:49:52</t>
+          <t>0:52:23</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,101 +1107,101 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2314</v>
+        <v>2132</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:38:34</t>
+          <t>0:35:32</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3472</v>
+        <v>3198</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:57:52</t>
+          <t>0:53:18</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2352</v>
+        <v>2136</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:39:12</t>
+          <t>0:35:36</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3528</v>
+        <v>3205</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:58:48</t>
+          <t>0:53:25</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2356</v>
+        <v>2418</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:39:16</t>
+          <t>0:40:18</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3534</v>
+        <v>3628</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:58:54</t>
+          <t>1:00:28</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2726</v>
+        <v>2652</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:45:26</t>
+          <t>0:44:12</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4088</v>
+        <v>3977</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1:08:08</t>
+          <t>1:06:17</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,19 +1250,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2937</v>
+        <v>2702</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:48:57</t>
+          <t>0:45:02</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4405</v>
+        <v>4053</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1:13:25</t>
+          <t>1:07:33</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,40 +1291,40 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>The Christian Space Empire</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2993</v>
+        <v>3407</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:49:53</t>
+          <t>0:56:47</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4489</v>
+        <v>5111</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1:14:49</t>
+          <t>1:25:11</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=the_christian_space_empire</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3447</v>
+        <v>3458</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:57:27</t>
+          <t>0:57:38</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5170</v>
+        <v>5187</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1:26:10</t>
+          <t>1:26:27</t>
         </is>
       </c>
       <c r="G23" t="b">

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="29 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="30 April 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:02:13</t>
+          <t>0:01:51</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:03:20</t>
+          <t>0:02:47</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -524,28 +524,28 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:02:24</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:03:43</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:04:35</t>
+          <t>0:05:34</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:04:27</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:06:41</t>
+          <t>0:05:49</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:04:41</t>
+          <t>0:05:06</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:07:01</t>
+          <t>0:07:39</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:06:33</t>
+          <t>0:05:47</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:09:50</t>
+          <t>0:08:41</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:08:04</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:10:52</t>
+          <t>0:12:05</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>552</v>
+        <v>1295</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:09:12</t>
+          <t>0:21:35</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>829</v>
+        <v>1943</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:13:49</t>
+          <t>0:32:23</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1215</v>
+        <v>1302</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:20:15</t>
+          <t>0:21:42</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1822</v>
+        <v>1953</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:30:22</t>
+          <t>0:32:33</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,19 +840,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1221</v>
+        <v>1983</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:20:21</t>
+          <t>0:33:03</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1831</v>
+        <v>2975</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:30:31</t>
+          <t>0:49:35</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,81 +881,81 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fascist United Nations</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1677</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:27:57</t>
+          <t>0:33:42</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2516</v>
+        <v>3032</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:41:56</t>
+          <t>0:50:32</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=fascist_united_nations</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Kaiserreich</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>The lemon hub</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1784</v>
+        <v>2150</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:29:44</t>
+          <t>0:35:50</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2676</v>
+        <v>3226</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:44:36</t>
+          <t>0:53:46</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,19 +963,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=the_lemon_hub</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1817</v>
+        <v>2314</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:30:17</t>
+          <t>0:38:34</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2725</v>
+        <v>3472</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:45:25</t>
+          <t>0:57:52</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The Global Union Consortium</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,60 +1025,60 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1822</v>
+        <v>2362</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:30:22</t>
+          <t>0:39:22</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2733</v>
+        <v>3543</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:45:33</t>
+          <t>0:59:03</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_global_union_consortium</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2095</v>
+        <v>2368</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:34:55</t>
+          <t>0:39:28</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3143</v>
+        <v>3551</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:52:23</t>
+          <t>0:59:11</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,39 +1107,39 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2132</v>
+        <v>2679</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:35:32</t>
+          <t>0:44:39</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3198</v>
+        <v>4019</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:53:18</t>
+          <t>1:06:59</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2136</v>
+        <v>2911</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:35:36</t>
+          <t>0:48:31</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3205</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:53:25</t>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2418</v>
+        <v>2967</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:40:18</t>
+          <t>0:49:27</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3628</v>
+        <v>4451</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1:00:28</t>
+          <t>1:14:11</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2652</v>
+        <v>3347</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:44:12</t>
+          <t>0:55:47</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3977</v>
+        <v>5021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1:06:17</t>
+          <t>1:23:41</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,133 +1250,10 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2702</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0:45:02</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4053</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1:07:33</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>The Christian Space Empire</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3407</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0:56:47</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>5111</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1:25:11</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_christian_space_empire</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Ijaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>3458</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0:57:38</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>5187</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1:26:27</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="30 April 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="01 May 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:51</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:02:47</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -524,28 +524,28 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:03:43</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:05:34</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:05:49</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:05:06</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:07:39</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:05:47</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:08:41</t>
+          <t>0:08:09</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>484</v>
+        <v>373</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:08:04</t>
+          <t>0:06:13</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>725</v>
+        <v>560</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:12:05</t>
+          <t>0:09:20</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1295</v>
+        <v>542</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:21:35</t>
+          <t>0:09:02</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1943</v>
+        <v>813</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:32:23</t>
+          <t>0:13:33</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,19 +799,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:21:42</t>
+          <t>0:22:06</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1953</v>
+        <v>1990</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:32:33</t>
+          <t>0:33:10</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,19 +840,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1983</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:33:03</t>
+          <t>0:22:13</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2975</v>
+        <v>1999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:49:35</t>
+          <t>0:33:19</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2022</v>
+        <v>1995</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:33:42</t>
+          <t>0:33:15</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3032</v>
+        <v>2993</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:50:32</t>
+          <t>0:49:53</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>The lemon hub</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2150</v>
+        <v>2027</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:35:50</t>
+          <t>0:33:47</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3226</v>
+        <v>3041</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:53:46</t>
+          <t>0:50:41</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_lemon_hub</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>The lemon hub</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2314</v>
+        <v>2149</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:38:34</t>
+          <t>0:35:49</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3472</v>
+        <v>3224</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:57:52</t>
+          <t>0:53:44</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=the_lemon_hub</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,60 +1025,60 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2362</v>
+        <v>2337</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:39:22</t>
+          <t>0:38:57</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3543</v>
+        <v>3505</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:59:03</t>
+          <t>0:58:25</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2368</v>
+        <v>2381</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:39:28</t>
+          <t>0:39:41</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3551</v>
+        <v>3571</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:59:11</t>
+          <t>0:59:31</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2679</v>
+        <v>2386</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:44:39</t>
+          <t>0:39:46</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4019</v>
+        <v>3579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1:06:59</t>
+          <t>0:59:39</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2911</v>
+        <v>2728</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:48:31</t>
+          <t>0:45:28</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4092</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1:12:46</t>
+          <t>1:08:12</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2967</v>
+        <v>2948</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:49:27</t>
+          <t>0:49:08</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4451</v>
+        <v>4421</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1:14:11</t>
+          <t>1:13:41</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,51 +1209,133 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0:49:59</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4499</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1:14:59</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>notas region</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3058</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0:50:58</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4587</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1:16:27</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=notas_region</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Sparkalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>3347</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0:55:47</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5021</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1:23:41</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3386</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0:56:26</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5079</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1:24:39</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>ELITE ACE TEAM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:00:02</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,40 +512,40 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=elite_ace_team</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>minecraft forest biome</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:00:35</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=minecraft_forest_biome</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>the people of djoubouti</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:00:52</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:04:22</t>
+          <t>0:01:18</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=the_people_of_djoubouti</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:02:03</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:03:04</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,19 +635,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,40 +676,40 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Sea Of The Babies</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:02:18</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:08:09</t>
+          <t>0:03:27</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_sea_of_the_babies</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:06:13</t>
+          <t>0:02:55</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>560</v>
+        <v>262</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:09:20</t>
+          <t>0:04:22</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Orsa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>542</v>
+        <v>186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:09:02</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>813</v>
+        <v>279</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:13:33</t>
+          <t>0:04:39</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=orsa</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Veurrfold</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1326</v>
+        <v>220</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:22:06</t>
+          <t>0:03:40</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1990</v>
+        <v>330</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:33:10</t>
+          <t>0:05:30</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=veurrfold</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1333</v>
+        <v>235</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:22:13</t>
+          <t>0:03:55</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1999</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:33:19</t>
+          <t>0:05:53</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1995</v>
+        <v>251</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:33:15</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2993</v>
+        <v>376</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:49:53</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>C197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2027</v>
+        <v>302</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:33:47</t>
+          <t>0:05:02</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3041</v>
+        <v>453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:50:41</t>
+          <t>0:07:33</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=c197</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The lemon hub</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2149</v>
+        <v>326</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:35:49</t>
+          <t>0:05:26</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3224</v>
+        <v>489</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:53:44</t>
+          <t>0:08:09</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,19 +1004,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_lemon_hub</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2337</v>
+        <v>373</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:38:57</t>
+          <t>0:06:13</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3505</v>
+        <v>560</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:58:25</t>
+          <t>0:09:20</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2381</v>
+        <v>542</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:39:41</t>
+          <t>0:09:02</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3571</v>
+        <v>813</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:59:31</t>
+          <t>0:13:33</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The Oregon Territory</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2386</v>
+        <v>545</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:39:46</t>
+          <t>0:09:05</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3579</v>
+        <v>817</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:59:39</t>
+          <t>0:13:37</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_oregon_territory</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>Abandoned accounts</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2728</v>
+        <v>809</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:13:29</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4092</v>
+        <v>1213</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1:08:12</t>
+          <t>0:20:13</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=abandoned_accounts</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Northern Epirus</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2948</v>
+        <v>816</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:49:08</t>
+          <t>0:13:36</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4421</v>
+        <v>1224</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1:13:41</t>
+          <t>0:20:24</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,40 +1209,40 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=northern_epirus</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>Nerds</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2999</v>
+        <v>1123</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:49:59</t>
+          <t>0:18:43</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4499</v>
+        <v>1684</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1:14:59</t>
+          <t>0:28:04</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,40 +1250,40 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=nerds</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>notas region</t>
+          <t>The Good Place</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3058</v>
+        <v>1168</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:50:58</t>
+          <t>0:19:28</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4587</v>
+        <v>1752</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1:16:27</t>
+          <t>0:29:12</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,51 +1291,1609 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=notas_region</t>
+          <t>https://www.nationstates.net/region=the_good_place</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
+          <t>Non Conformists Unite</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0:19:43</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0:29:34</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=non_conformists_unite</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0:20:09</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1813</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0:30:13</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=youtube</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Open Ocean 8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0:20:19</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1829</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0:30:29</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=open_ocean_8</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Socialist Confederation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1262</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0:21:02</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1893</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0:31:33</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=socialist_confederation</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>FIRST</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1281</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0:21:21</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1921</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0:32:01</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=first</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Nomicas</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0:21:33</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1939</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0:32:19</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=nomicas</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Emojio</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1310</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0:21:50</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0:32:44</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=emojio</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Aerope</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1326</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0:22:06</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1990</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0:33:10</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=aerope</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sparkalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Palos</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0:22:11</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0:33:17</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=palos</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Kyorgia puppet storage</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0:22:13</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1999</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0:33:19</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>EPSA, Lily, Osiris, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Open Ocean 5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1337</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0:22:17</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0:33:26</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=open_ocean_5</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>abuser</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1519</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0:25:19</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2279</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0:37:59</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=abuser</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>abolition</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0:27:40</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2490</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0:41:30</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=abolition</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Sekeila</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1934</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0:32:14</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2902</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0:48:22</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=sekeila</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Grand Pacifica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1951</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0:32:31</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2926</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0:48:46</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=grand_pacifica</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>CzechRepublic</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1954</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0:32:34</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2931</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0:48:51</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=czechrepublic</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>NPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Continent of Europia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0:32:35</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2933</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0:48:53</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=continent_of_europia</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Union of Confederate Regions</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0:33:15</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2993</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0:49:53</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Sparkalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>abstaining</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0:33:28</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3012</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0:50:12</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=abstaining</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Raven Isle</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0:33:34</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3021</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0:50:21</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=raven_isle</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Regional Officers</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2027</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0:33:47</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0:50:41</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=regional_officers</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>The lemon hub</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WFE, Embassies</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0:35:49</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3224</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0:53:44</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_lemon_hub</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Room 319 Coalition</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0:35:50</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3225</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0:53:45</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=room_319_coalition</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>The Brotherhood of Malice Girl Scouts</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2337</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0:38:57</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3505</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0:58:25</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Deathwatch</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2377</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0:39:37</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3565</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0:59:25</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=deathwatch</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Cretanja Queendom</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0:39:41</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3571</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0:59:31</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>The Collective</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2386</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0:39:46</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3579</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0:59:39</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_collective</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Malphe</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Embassies</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2728</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0:45:28</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4092</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1:08:12</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=malphe</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Lily, Osiris</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Coalition Of Stupidity</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2741</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0:45:41</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4111</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1:08:31</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=coalition_of_stupidity</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Your Mother</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2747</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0:45:47</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4120</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1:08:40</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=your_mother</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Why the NPO gotta be so sus</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2896</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0:48:16</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4344</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1:12:24</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=why_the_npo_gotta_be_so_sus</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Submissive and Raidable</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2948</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0:49:08</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4421</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1:13:41</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>BoM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Eastern American Union</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0:49:59</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4499</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1:14:59</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Lily, TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Sconch Kingdom</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3050</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0:50:50</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1:16:15</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=sconch_kingdom</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>New East Berlin</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3057</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0:50:57</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4585</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1:16:25</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=new_east_berlin</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Paballo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3057</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0:50:57</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4585</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1:16:25</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=paballo</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>notas region</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>WFE</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3058</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0:50:58</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4587</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1:16:27</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=notas_region</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Sparkalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>The Unholy Alliance</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3059</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0:50:59</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4588</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1:16:28</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.nationstates.net/region=the_unholy_alliance</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
           <t>Brest Oblast</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Embassies</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C60" t="n">
         <v>3386</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0:56:26</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E60" t="n">
         <v>5079</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1:24:39</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01 May 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="02 May 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:35</t>
+          <t>0:00:41</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:02</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:52</t>
+          <t>0:00:55</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:18</t>
+          <t>0:01:23</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:03</t>
+          <t>0:01:55</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:04</t>
+          <t>0:02:53</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:08</t>
+          <t>0:02:06</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:12</t>
+          <t>0:03:09</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:18</t>
+          <t>0:02:11</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:27</t>
+          <t>0:03:17</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:55</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:04:22</t>
+          <t>0:04:13</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -770,7 +770,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Orsa</t>
+          <t>The Islands of Uspiasia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:04:39</t>
+          <t>0:04:47</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,12 +799,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=orsa</t>
+          <t>https://www.nationstates.net/region=the_islands_of_uspiasia</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:03:55</t>
+          <t>0:03:56</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:05:53</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:06:06</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:07:33</t>
+          <t>0:07:09</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:05:26</t>
+          <t>0:05:12</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:08:09</t>
+          <t>0:07:48</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:06:13</t>
+          <t>0:05:52</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:09:20</t>
+          <t>0:08:48</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:09:02</t>
+          <t>0:08:11</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>813</v>
+        <v>736</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:13:33</t>
+          <t>0:12:16</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:09:05</t>
+          <t>0:08:13</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>817</v>
+        <v>740</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:13:37</t>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>809</v>
+        <v>755</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:13:29</t>
+          <t>0:12:35</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1213</v>
+        <v>1132</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:20:13</t>
+          <t>0:18:52</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>816</v>
+        <v>762</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:13:36</t>
+          <t>0:12:42</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1224</v>
+        <v>1143</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:20:24</t>
+          <t>0:19:03</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:18:43</t>
+          <t>0:18:26</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1684</v>
+        <v>1659</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:28:04</t>
+          <t>0:27:39</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1168</v>
+        <v>1146</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:19:28</t>
+          <t>0:19:06</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1752</v>
+        <v>1719</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:29:12</t>
+          <t>0:28:39</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1183</v>
+        <v>1158</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:19:43</t>
+          <t>0:19:18</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1774</v>
+        <v>1737</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:29:34</t>
+          <t>0:28:57</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1209</v>
+        <v>1185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:20:09</t>
+          <t>0:19:45</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1813</v>
+        <v>1778</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:30:13</t>
+          <t>0:29:38</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1219</v>
+        <v>1194</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:20:19</t>
+          <t>0:19:54</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1829</v>
+        <v>1791</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:30:29</t>
+          <t>0:29:51</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1262</v>
+        <v>1220</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:20:20</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1893</v>
+        <v>1830</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:31:33</t>
+          <t>0:30:30</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1281</v>
+        <v>1240</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:21:21</t>
+          <t>0:20:40</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1921</v>
+        <v>1860</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:32:01</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1293</v>
+        <v>1250</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:21:33</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1939</v>
+        <v>1875</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:32:19</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1310</v>
+        <v>1267</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:21:50</t>
+          <t>0:21:07</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1964</v>
+        <v>1900</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:32:44</t>
+          <t>0:31:40</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1326</v>
+        <v>1286</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:22:06</t>
+          <t>0:21:26</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1990</v>
+        <v>1928</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:33:10</t>
+          <t>0:32:08</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1331</v>
+        <v>1290</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:22:11</t>
+          <t>0:21:30</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1997</v>
+        <v>1934</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:33:17</t>
+          <t>0:32:14</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1333</v>
+        <v>1291</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:22:13</t>
+          <t>0:21:31</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1999</v>
+        <v>1936</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:33:19</t>
+          <t>0:32:16</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1337</v>
+        <v>1294</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:22:17</t>
+          <t>0:21:34</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2006</v>
+        <v>1940</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:33:26</t>
+          <t>0:32:20</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1519</v>
+        <v>1472</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:25:19</t>
+          <t>0:24:32</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2279</v>
+        <v>2208</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:37:59</t>
+          <t>0:36:48</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1660</v>
+        <v>1615</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:27:40</t>
+          <t>0:26:55</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2490</v>
+        <v>2423</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:41:30</t>
+          <t>0:40:23</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1934</v>
+        <v>1893</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:31:33</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2902</v>
+        <v>2839</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:48:22</t>
+          <t>0:47:19</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1951</v>
+        <v>1908</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:32:31</t>
+          <t>0:31:48</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2926</v>
+        <v>2862</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:48:46</t>
+          <t>0:47:42</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1954</v>
+        <v>1911</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:32:34</t>
+          <t>0:31:51</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2931</v>
+        <v>2866</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:48:51</t>
+          <t>0:47:46</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1955</v>
+        <v>1912</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:32:35</t>
+          <t>0:31:52</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2933</v>
+        <v>2867</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:48:53</t>
+          <t>0:47:47</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1995</v>
+        <v>1962</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:33:15</t>
+          <t>0:32:42</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2993</v>
+        <v>2943</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:49:53</t>
+          <t>0:49:03</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2050,19 +2050,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2008</v>
+        <v>1973</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:33:28</t>
+          <t>0:32:53</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3012</v>
+        <v>2960</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:50:12</t>
+          <t>0:49:20</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>1985</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:33:34</t>
+          <t>0:33:05</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3021</v>
+        <v>2977</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:50:21</t>
+          <t>0:49:37</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2027</v>
+        <v>1997</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:33:47</t>
+          <t>0:33:17</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3041</v>
+        <v>2996</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:50:41</t>
+          <t>0:49:56</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2149</v>
+        <v>2125</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0:35:49</t>
+          <t>0:35:25</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3224</v>
+        <v>3188</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0:53:44</t>
+          <t>0:53:08</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2150</v>
+        <v>2126</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0:35:50</t>
+          <t>0:35:26</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3225</v>
+        <v>3189</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0:53:45</t>
+          <t>0:53:09</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2337</v>
+        <v>2304</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0:38:57</t>
+          <t>0:38:24</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3505</v>
+        <v>3456</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0:58:25</t>
+          <t>0:57:36</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2296,19 +2296,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2377</v>
+        <v>2340</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0:39:37</t>
+          <t>0:39:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3565</v>
+        <v>3510</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0:59:25</t>
+          <t>0:58:30</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2337,19 +2337,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2381</v>
+        <v>2343</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0:39:41</t>
+          <t>0:39:03</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3571</v>
+        <v>3515</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0:59:31</t>
+          <t>0:58:35</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2386</v>
+        <v>2348</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0:39:46</t>
+          <t>0:39:08</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3579</v>
+        <v>3522</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0:59:39</t>
+          <t>0:58:42</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2728</v>
+        <v>2687</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0:45:28</t>
+          <t>0:44:47</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4092</v>
+        <v>4031</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1:08:12</t>
+          <t>1:07:11</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2460,19 +2460,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2741</v>
+        <v>2701</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0:45:41</t>
+          <t>0:45:01</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4111</v>
+        <v>4051</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1:08:31</t>
+          <t>1:07:31</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2747</v>
+        <v>2708</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0:45:47</t>
+          <t>0:45:08</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4120</v>
+        <v>4062</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1:08:40</t>
+          <t>1:07:42</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2542,19 +2542,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2896</v>
+        <v>2857</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0:48:16</t>
+          <t>0:47:37</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4344</v>
+        <v>4285</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1:12:24</t>
+          <t>1:11:25</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2948</v>
+        <v>2911</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0:49:08</t>
+          <t>0:48:31</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4421</v>
+        <v>4366</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1:13:41</t>
+          <t>1:12:46</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2624,19 +2624,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2999</v>
+        <v>2963</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0:49:59</t>
+          <t>0:49:23</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4499</v>
+        <v>4444</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1:14:59</t>
+          <t>1:14:04</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2665,19 +2665,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3050</v>
+        <v>3017</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0:50:50</t>
+          <t>0:50:17</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4575</v>
+        <v>4526</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1:16:15</t>
+          <t>1:15:26</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3057</v>
+        <v>3023</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0:50:57</t>
+          <t>0:50:23</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4585</v>
+        <v>4535</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1:16:25</t>
+          <t>1:15:35</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3057</v>
+        <v>3023</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0:50:57</t>
+          <t>0:50:23</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4585</v>
+        <v>4535</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1:16:25</t>
+          <t>1:15:35</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2788,19 +2788,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3058</v>
+        <v>3024</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0:50:58</t>
+          <t>0:50:24</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4587</v>
+        <v>4536</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1:16:27</t>
+          <t>1:15:36</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2829,19 +2829,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3059</v>
+        <v>3025</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0:50:59</t>
+          <t>0:50:25</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4588</v>
+        <v>4537</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1:16:28</t>
+          <t>1:15:37</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3386</v>
+        <v>3395</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0:56:26</t>
+          <t>0:56:35</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5079</v>
+        <v>5093</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1:24:39</t>
+          <t>1:24:53</t>
         </is>
       </c>
       <c r="G60" t="b">

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="02 May 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="03 May 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ELITE ACE TEAM</t>
+          <t>minecraft forest biome</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:01</t>
+          <t>0:00:35</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:02</t>
+          <t>0:00:53</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=elite_ace_team</t>
+          <t>https://www.nationstates.net/region=minecraft_forest_biome</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>minecraft forest biome</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:00:41</t>
+          <t>0:01:43</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:01:02</t>
+          <t>0:02:34</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=minecraft_forest_biome</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>the people of djoubouti</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:01:47</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:01:23</t>
+          <t>0:02:40</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_people_of_djoubouti</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:01:55</t>
+          <t>0:02:26</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:02:53</t>
+          <t>0:03:39</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Orsa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:06</t>
+          <t>0:02:39</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:09</t>
+          <t>0:03:59</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,19 +676,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=orsa</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>The Sea Of The Babies</t>
+          <t>Veurrfold</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:02:11</t>
+          <t>0:03:11</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:03:17</t>
+          <t>0:04:46</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_sea_of_the_babies</t>
+          <t>https://www.nationstates.net/region=veurrfold</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:02:48</t>
+          <t>0:03:33</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:04:13</t>
+          <t>0:05:19</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>The Islands of Uspiasia</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:47</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:04:47</t>
+          <t>0:05:41</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_islands_of_uspiasia</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Veurrfold</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:03:40</t>
+          <t>0:04:59</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:05:30</t>
+          <t>0:07:29</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=veurrfold</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>236</v>
+        <v>337</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:03:56</t>
+          <t>0:05:37</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>354</v>
+        <v>505</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:08:25</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>478</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:07:58</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>366</v>
+        <v>717</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:06:06</t>
+          <t>0:11:57</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,19 +922,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>C197</t>
+          <t>Northern Epirus</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>286</v>
+        <v>756</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:12:36</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>429</v>
+        <v>1134</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:07:09</t>
+          <t>0:18:54</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=c197</t>
+          <t>https://www.nationstates.net/region=northern_epirus</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,28 +975,28 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>The Good Place</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>312</v>
+        <v>1130</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:05:12</t>
+          <t>0:18:50</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>468</v>
+        <v>1694</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:07:48</t>
+          <t>0:28:14</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=the_good_place</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Youtube</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>352</v>
+        <v>1174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:05:52</t>
+          <t>0:19:34</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>528</v>
+        <v>1761</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:08:48</t>
+          <t>0:29:21</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=youtube</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Open Ocean 8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>491</v>
+        <v>1184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:08:11</t>
+          <t>0:19:44</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>736</v>
+        <v>1775</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:12:16</t>
+          <t>0:29:35</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=open_ocean_8</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>The Oregon Territory</t>
+          <t>FIRST</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>493</v>
+        <v>1250</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:08:13</t>
+          <t>0:20:50</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>740</v>
+        <v>1875</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:12:20</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_oregon_territory</t>
+          <t>https://www.nationstates.net/region=first</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Abandoned accounts</t>
+          <t>Nomicas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>755</v>
+        <v>1261</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:12:35</t>
+          <t>0:21:01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1132</v>
+        <v>1891</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:18:52</t>
+          <t>0:31:31</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abandoned_accounts</t>
+          <t>https://www.nationstates.net/region=nomicas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1180,28 +1180,28 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Northern Epirus</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>762</v>
+        <v>1298</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:12:42</t>
+          <t>0:21:38</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1143</v>
+        <v>1946</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:19:03</t>
+          <t>0:32:26</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,19 +1209,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_epirus</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Nerds</t>
+          <t>Palos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1106</v>
+        <v>1302</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:18:26</t>
+          <t>0:21:42</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1659</v>
+        <v>1952</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:27:39</t>
+          <t>0:32:32</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nerds</t>
+          <t>https://www.nationstates.net/region=palos</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1262,28 +1262,28 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>The Good Place</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1146</v>
+        <v>1303</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:19:06</t>
+          <t>0:21:43</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1719</v>
+        <v>1954</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:28:39</t>
+          <t>0:32:34</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_good_place</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Non Conformists Unite</t>
+          <t>Open Ocean 5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1158</v>
+        <v>1306</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:19:18</t>
+          <t>0:21:46</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1737</v>
+        <v>1958</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:28:57</t>
+          <t>0:32:38</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=non_conformists_unite</t>
+          <t>https://www.nationstates.net/region=open_ocean_5</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Youtube</t>
+          <t>Grand Pacifica</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1185</v>
+        <v>1941</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:19:45</t>
+          <t>0:32:21</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1778</v>
+        <v>2912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:29:38</t>
+          <t>0:48:32</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=youtube</t>
+          <t>https://www.nationstates.net/region=grand_pacifica</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Open Ocean 8</t>
+          <t>CzechRepublic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1194</v>
+        <v>1948</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:19:54</t>
+          <t>0:32:28</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1791</v>
+        <v>2922</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:29:51</t>
+          <t>0:48:42</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,19 +1414,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=open_ocean_8</t>
+          <t>https://www.nationstates.net/region=czechrepublic</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Socialist Confederation</t>
+          <t>Continent of Europia</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1220</v>
+        <v>1949</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:20:20</t>
+          <t>0:32:29</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1830</v>
+        <v>2924</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:30:30</t>
+          <t>0:48:44</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=socialist_confederation</t>
+          <t>https://www.nationstates.net/region=continent_of_europia</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FIRST</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1240</v>
+        <v>1991</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:20:40</t>
+          <t>0:33:11</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1860</v>
+        <v>2986</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:49:46</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=first</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nomicas</t>
+          <t>Raven Isle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1250</v>
+        <v>2015</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:20:50</t>
+          <t>0:33:35</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1875</v>
+        <v>3022</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:31:15</t>
+          <t>0:50:22</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nomicas</t>
+          <t>https://www.nationstates.net/region=raven_isle</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Emojio</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1267</v>
+        <v>2036</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:21:07</t>
+          <t>0:33:56</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1900</v>
+        <v>3054</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:31:40</t>
+          <t>0:50:54</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=emojio</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>The lemon hub</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1286</v>
+        <v>2173</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:21:26</t>
+          <t>0:36:13</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1928</v>
+        <v>3260</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:32:08</t>
+          <t>0:54:20</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,19 +1619,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=the_lemon_hub</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Palos</t>
+          <t>Room 319 Coalition</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1290</v>
+        <v>2174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:21:30</t>
+          <t>0:36:14</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1934</v>
+        <v>3261</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:32:14</t>
+          <t>0:54:21</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=palos</t>
+          <t>https://www.nationstates.net/region=room_319_coalition</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1291</v>
+        <v>2384</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:21:31</t>
+          <t>0:39:44</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1936</v>
+        <v>3576</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:32:16</t>
+          <t>0:59:36</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,40 +1701,40 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Open Ocean 5</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1294</v>
+        <v>2421</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:21:34</t>
+          <t>0:40:21</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1940</v>
+        <v>3632</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:32:20</t>
+          <t>1:00:32</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=open_ocean_5</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>abuser</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1472</v>
+        <v>2426</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:24:32</t>
+          <t>0:40:26</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2208</v>
+        <v>3640</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:36:48</t>
+          <t>1:00:40</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,40 +1783,40 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abuser</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>abolition</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1615</v>
+        <v>2725</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:26:55</t>
+          <t>0:45:25</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2423</v>
+        <v>4087</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0:40:23</t>
+          <t>1:08:07</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,19 +1824,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abolition</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Sekeila</t>
+          <t>Your Mother</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1893</v>
+        <v>2742</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:31:33</t>
+          <t>0:45:42</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2839</v>
+        <v>4112</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0:47:19</t>
+          <t>1:08:32</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=sekeila</t>
+          <t>https://www.nationstates.net/region=your_mother</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1877,28 +1877,28 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Grand Pacifica</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1908</v>
+        <v>2947</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:31:48</t>
+          <t>0:49:07</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2862</v>
+        <v>4420</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0:47:42</t>
+          <t>1:13:40</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=grand_pacifica</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CzechRepublic</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1911</v>
+        <v>3010</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:31:51</t>
+          <t>0:50:10</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2866</v>
+        <v>4515</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0:47:46</t>
+          <t>1:15:15</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=czechrepublic</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Continent of Europia</t>
+          <t>New East Berlin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1912</v>
+        <v>3075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:31:52</t>
+          <t>0:51:15</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2867</v>
+        <v>4612</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0:47:47</t>
+          <t>1:16:52</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=continent_of_europia</t>
+          <t>https://www.nationstates.net/region=new_east_berlin</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2000,28 +2000,28 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Paballo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1962</v>
+        <v>3075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:32:42</t>
+          <t>0:51:15</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2943</v>
+        <v>4612</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0:49:03</t>
+          <t>1:16:52</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=paballo</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>abstaining</t>
+          <t>notas region</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1973</v>
+        <v>3076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:32:53</t>
+          <t>0:51:16</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2960</v>
+        <v>4614</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0:49:20</t>
+          <t>1:16:54</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,19 +2070,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=abstaining</t>
+          <t>https://www.nationstates.net/region=notas_region</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Raven Isle</t>
+          <t>The Unholy Alliance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1985</v>
+        <v>3076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0:33:05</t>
+          <t>0:51:16</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2977</v>
+        <v>4614</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0:49:37</t>
+          <t>1:16:54</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=raven_isle</t>
+          <t>https://www.nationstates.net/region=the_unholy_alliance</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1997</v>
+        <v>3435</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0:33:17</t>
+          <t>0:57:15</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2996</v>
+        <v>5152</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0:49:56</t>
+          <t>1:25:52</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2152,748 +2152,10 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
-        <is>
-          <t>TCB</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>The lemon hub</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>WFE, Embassies</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>2125</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0:35:25</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3188</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0:53:08</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_lemon_hub</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Room 319 Coalition</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2126</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0:35:26</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3189</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0:53:09</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=room_319_coalition</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2304</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0:38:24</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>3456</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0:57:36</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Deathwatch</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2340</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0:39:00</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>3510</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0:58:30</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=deathwatch</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Cretanja Queendom</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2343</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0:39:03</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>3515</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0:58:35</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>The Collective</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>2348</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0:39:08</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3522</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0:58:42</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Malphe</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0:44:47</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>4031</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1:07:11</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=malphe</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Lily, Osiris</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Coalition Of Stupidity</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>2701</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0:45:01</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>4051</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1:07:31</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=coalition_of_stupidity</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Your Mother</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2708</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0:45:08</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>4062</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1:07:42</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=your_mother</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Why the NPO gotta be so sus</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>2857</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0:47:37</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>4285</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1:11:25</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=why_the_npo_gotta_be_so_sus</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Submissive and Raidable</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>2911</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0:48:31</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>4366</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1:12:46</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>BoM</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Eastern American Union</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>2963</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0:49:23</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>4444</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1:14:04</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Lily, TBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Sconch Kingdom</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>3017</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0:50:17</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>4526</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1:15:26</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=sconch_kingdom</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>New East Berlin</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>3023</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0:50:23</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>4535</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1:15:35</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=new_east_berlin</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Paballo</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>3023</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0:50:23</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>4535</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1:15:35</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=paballo</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>notas region</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>WFE</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>3024</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0:50:24</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>4536</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1:15:36</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=notas_region</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>The Unholy Alliance</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>3025</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0:50:25</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>4537</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1:15:37</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_unholy_alliance</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>NPA</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>3395</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0:56:35</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>5093</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1:24:53</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="03 May 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="04 May 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:00:35</t>
+          <t>0:01:10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:00:53</t>
+          <t>0:01:45</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:01:43</t>
+          <t>0:02:19</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:02:34</t>
+          <t>0:03:29</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:01:47</t>
+          <t>0:02:29</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:02:40</t>
+          <t>0:03:44</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:02:26</t>
+          <t>0:03:06</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:03:39</t>
+          <t>0:04:38</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:02:39</t>
+          <t>0:03:15</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:03:59</t>
+          <t>0:04:53</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:03:11</t>
+          <t>0:03:53</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>286</v>
+        <v>350</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:04:46</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -738,19 +738,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:03:33</t>
+          <t>0:04:15</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:05:19</t>
+          <t>0:06:22</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:03:47</t>
+          <t>0:04:23</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:05:41</t>
+          <t>0:06:34</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -820,19 +820,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:04:59</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:07:29</t>
+          <t>0:07:53</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:05:37</t>
+          <t>0:05:50</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:08:25</t>
+          <t>0:08:45</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:07:58</t>
+          <t>0:08:08</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:11:57</t>
+          <t>0:12:11</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:12:36</t>
+          <t>0:12:34</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:18:54</t>
+          <t>0:18:51</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:18:50</t>
+          <t>0:18:19</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1694</v>
+        <v>1649</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:28:14</t>
+          <t>0:27:29</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1174</v>
+        <v>1141</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:19:34</t>
+          <t>0:19:01</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1761</v>
+        <v>1711</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:29:21</t>
+          <t>0:28:31</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1184</v>
+        <v>1154</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:19:44</t>
+          <t>0:19:14</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1775</v>
+        <v>1730</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:29:35</t>
+          <t>0:28:50</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1250</v>
+        <v>1203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:20:50</t>
+          <t>0:20:03</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1875</v>
+        <v>1805</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:31:15</t>
+          <t>0:30:05</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1261</v>
+        <v>1218</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:21:01</t>
+          <t>0:20:18</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1891</v>
+        <v>1827</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:31:31</t>
+          <t>0:30:27</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1298</v>
+        <v>1252</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:21:38</t>
+          <t>0:20:52</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1946</v>
+        <v>1878</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:32:26</t>
+          <t>0:31:18</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1302</v>
+        <v>1256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:21:42</t>
+          <t>0:20:56</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1952</v>
+        <v>1883</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:32:32</t>
+          <t>0:31:23</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1271,19 +1271,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1303</v>
+        <v>1258</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:21:43</t>
+          <t>0:20:58</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1954</v>
+        <v>1887</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:32:34</t>
+          <t>0:31:27</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1306</v>
+        <v>1261</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:21:46</t>
+          <t>0:21:01</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1958</v>
+        <v>1891</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:32:38</t>
+          <t>0:31:31</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1941</v>
+        <v>1875</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:32:21</t>
+          <t>0:31:15</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2912</v>
+        <v>2813</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:48:32</t>
+          <t>0:46:53</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1948</v>
+        <v>1882</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:32:28</t>
+          <t>0:31:22</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2922</v>
+        <v>2824</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:48:42</t>
+          <t>0:47:04</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1949</v>
+        <v>1884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:32:29</t>
+          <t>0:31:24</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2924</v>
+        <v>2825</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:48:44</t>
+          <t>0:47:05</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1991</v>
+        <v>1928</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:33:11</t>
+          <t>0:32:08</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2986</v>
+        <v>2892</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:49:46</t>
+          <t>0:48:12</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2015</v>
+        <v>1952</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:33:35</t>
+          <t>0:32:32</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3022</v>
+        <v>2928</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:50:22</t>
+          <t>0:48:48</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2036</v>
+        <v>1969</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:33:56</t>
+          <t>0:32:49</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3054</v>
+        <v>2954</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:50:54</t>
+          <t>0:49:14</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1599,19 +1599,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2173</v>
+        <v>2099</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:36:13</t>
+          <t>0:34:59</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3260</v>
+        <v>3149</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:54:20</t>
+          <t>0:52:29</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2174</v>
+        <v>2100</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:36:14</t>
+          <t>0:35:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3261</v>
+        <v>3150</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:54:21</t>
+          <t>0:52:30</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2384</v>
+        <v>2310</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:39:44</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3576</v>
+        <v>3466</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:59:36</t>
+          <t>0:57:46</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2421</v>
+        <v>2350</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:40:21</t>
+          <t>0:39:10</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3632</v>
+        <v>3525</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1:00:32</t>
+          <t>0:58:45</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2426</v>
+        <v>2356</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:40:26</t>
+          <t>0:39:16</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3640</v>
+        <v>3534</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1:00:40</t>
+          <t>0:58:54</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2725</v>
+        <v>2697</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:45:25</t>
+          <t>0:44:57</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4087</v>
+        <v>4046</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1:08:07</t>
+          <t>1:07:26</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1836,28 +1836,28 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Your Mother</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2742</v>
+        <v>2925</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:45:42</t>
+          <t>0:48:45</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4112</v>
+        <v>4388</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1:08:32</t>
+          <t>1:13:08</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=your_mother</t>
+          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Eastern American Union</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2947</v>
+        <v>2985</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:49:07</t>
+          <t>0:49:45</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4420</v>
+        <v>4477</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1:13:40</t>
+          <t>1:14:37</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=eastern_american_union</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>New East Berlin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3010</v>
+        <v>3037</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:50:10</t>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4515</v>
+        <v>4555</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1:15:15</t>
+          <t>1:15:55</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,19 +1947,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=new_east_berlin</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>New East Berlin</t>
+          <t>Paballo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1968,19 +1968,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3075</v>
+        <v>3037</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:51:15</t>
+          <t>0:50:37</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4612</v>
+        <v>4556</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1:16:52</t>
+          <t>1:15:56</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_east_berlin</t>
+          <t>https://www.nationstates.net/region=paballo</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2000,28 +2000,28 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Paballo</t>
+          <t>notas region</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3075</v>
+        <v>3039</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:51:15</t>
+          <t>0:50:39</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4612</v>
+        <v>4558</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1:16:52</t>
+          <t>1:15:58</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -2029,40 +2029,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=paballo</t>
+          <t>https://www.nationstates.net/region=notas_region</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>notas region</t>
+          <t>Brest Oblast</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3076</v>
+        <v>3405</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0:51:16</t>
+          <t>0:56:45</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4614</v>
+        <v>5107</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1:16:54</t>
+          <t>1:25:07</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2070,92 +2070,10 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=notas_region</t>
+          <t>https://www.nationstates.net/region=brest_oblast</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
-        <is>
-          <t>Sparkalia</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>The Unholy Alliance</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>RO</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3076</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0:51:16</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>4614</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1:16:54</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=the_unholy_alliance</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>NPA</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Brest Oblast</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Embassies</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>3435</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0:57:15</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>5152</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1:25:52</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://www.nationstates.net/region=brest_oblast</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
         <is>
           <t>EPSA, Lily</t>
         </is>

--- a/data/practice_detags.xlsx
+++ b/data/practice_detags.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="04 May 2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="05 May 2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,28 +483,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>minecraft forest biome</t>
+          <t>South America Union</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:10</t>
+          <t>0:00:05</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:01:45</t>
+          <t>0:00:08</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -512,19 +512,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=minecraft_forest_biome</t>
+          <t>https://www.nationstates.net/region=south_america_union</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Pride Rock</t>
+          <t>minecraft forest biome</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0:02:19</t>
+          <t>0:00:45</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0:03:29</t>
+          <t>0:01:07</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -553,40 +553,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=pride_rock</t>
+          <t>https://www.nationstates.net/region=minecraft_forest_biome</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Northern Ameria</t>
+          <t>Non Aligned Movement</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:02:29</t>
+          <t>0:00:50</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:03:44</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -594,40 +594,40 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_ameria</t>
+          <t>https://www.nationstates.net/region=non_aligned_movement</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ijaka</t>
+          <t>BoM, Osiris, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>The Koprulu Sector</t>
+          <t>The Central European Regional Assembly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0:03:06</t>
+          <t>0:01:15</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0:04:38</t>
+          <t>0:01:53</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -635,40 +635,40 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
+          <t>https://www.nationstates.net/region=the_central_european_regional_assembly</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TBH</t>
+          <t>BoM, Osiris, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Orsa</t>
+          <t>Sovishire farmboys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0:03:15</t>
+          <t>0:02:05</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0:04:53</t>
+          <t>0:03:07</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -676,19 +676,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=orsa</t>
+          <t>https://www.nationstates.net/region=sovishire_farmboys</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Veurrfold</t>
+          <t>Pride Rock</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0:03:53</t>
+          <t>0:02:08</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:03:12</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -717,40 +717,40 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=veurrfold</t>
+          <t>https://www.nationstates.net/region=pride_rock</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>ERN</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>United Fascist Territory of Waschuster</t>
+          <t>Northern Ameria</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0:04:15</t>
+          <t>0:02:14</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0:06:22</t>
+          <t>0:03:21</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -758,40 +758,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
+          <t>https://www.nationstates.net/region=northern_ameria</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Ijaka</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>region with the word Tractor in it</t>
+          <t>The Koprulu Sector</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0:04:23</t>
+          <t>0:02:48</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>394</v>
+        <v>252</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0:06:34</t>
+          <t>0:04:12</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -799,40 +799,40 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
+          <t>https://www.nationstates.net/region=the_koprulu_sector</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>The west germanic provinces</t>
+          <t>Orsa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:02:57</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>473</v>
+        <v>266</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0:07:53</t>
+          <t>0:04:26</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -840,40 +840,40 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
+          <t>https://www.nationstates.net/region=orsa</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Commonwealth of Diverse Nations</t>
+          <t>Holy Union of Navarra</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0:05:50</t>
+          <t>0:03:32</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>525</v>
+        <v>317</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0:08:45</t>
+          <t>0:05:17</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -881,40 +881,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
+          <t>https://www.nationstates.net/region=holy_union_of_navarra</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>BoM, Osiris, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>The Great States of Fascist Nudists</t>
+          <t>Veurrfold</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WFE, RO, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>488</v>
+        <v>222</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0:08:08</t>
+          <t>0:03:42</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>731</v>
+        <v>333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0:12:11</t>
+          <t>0:05:33</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -922,40 +922,40 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
+          <t>https://www.nationstates.net/region=veurrfold</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Northern Epirus</t>
+          <t>United Fascist Territory of Waschuster</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>754</v>
+        <v>243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0:12:34</t>
+          <t>0:04:03</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1131</v>
+        <v>365</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0:18:51</t>
+          <t>0:06:05</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -963,40 +963,40 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=northern_epirus</t>
+          <t>https://www.nationstates.net/region=united_fascist_territory_of_waschuster</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>The Good Place</t>
+          <t>region with the word Tractor in it</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1099</v>
+        <v>257</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0:18:19</t>
+          <t>0:04:17</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1649</v>
+        <v>385</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0:27:29</t>
+          <t>0:06:25</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1004,40 +1004,40 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_good_place</t>
+          <t>https://www.nationstates.net/region=region_with_the_word_tractor_in_it</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Youtube</t>
+          <t>The west germanic provinces</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1141</v>
+        <v>329</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0:19:01</t>
+          <t>0:05:29</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1711</v>
+        <v>494</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0:28:31</t>
+          <t>0:08:14</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1045,40 +1045,40 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=youtube</t>
+          <t>https://www.nationstates.net/region=the_west_germanic_provinces</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Open Ocean 8</t>
+          <t>Commonwealth of Diverse Nations</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1154</v>
+        <v>378</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0:19:14</t>
+          <t>0:06:18</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1730</v>
+        <v>567</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0:28:50</t>
+          <t>0:09:27</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1086,40 +1086,40 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=open_ocean_8</t>
+          <t>https://www.nationstates.net/region=commonwealth_of_diverse_nations</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FIRST</t>
+          <t>The Great States of Fascist Nudists</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>WFE, RO, Embassies</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1203</v>
+        <v>557</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:20:03</t>
+          <t>0:09:17</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1805</v>
+        <v>835</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0:30:05</t>
+          <t>0:13:55</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1127,40 +1127,40 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=first</t>
+          <t>https://www.nationstates.net/region=the_great_states_of_fascist_nudists</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Lily, Osiris, Sparkalia, TBH</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Nomicas</t>
+          <t>One Collective Brain Cell</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1218</v>
+        <v>596</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0:20:18</t>
+          <t>0:09:56</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1827</v>
+        <v>893</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0:30:27</t>
+          <t>0:14:53</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1168,40 +1168,40 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=nomicas</t>
+          <t>https://www.nationstates.net/region=one_collective_brain_cell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Aerope</t>
+          <t>Northern Epirus</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1252</v>
+        <v>849</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0:20:52</t>
+          <t>0:14:09</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1878</v>
+        <v>1274</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0:31:18</t>
+          <t>0:21:14</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1209,19 +1209,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=aerope</t>
+          <t>https://www.nationstates.net/region=northern_epirus</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Palos</t>
+          <t>The Good Place</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1256</v>
+        <v>1204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0:20:56</t>
+          <t>0:20:04</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1883</v>
+        <v>1806</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0:31:23</t>
+          <t>0:30:06</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=palos</t>
+          <t>https://www.nationstates.net/region=the_good_place</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1262,28 +1262,28 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Kyorgia puppet storage</t>
+          <t>Youtube</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0:20:58</t>
+          <t>0:20:45</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1887</v>
+        <v>1867</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0:31:27</t>
+          <t>0:31:07</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
+          <t>https://www.nationstates.net/region=youtube</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EPSA, Lily, Osiris, TBH</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Open Ocean 5</t>
+          <t>Open Ocean 8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0:21:01</t>
+          <t>0:20:54</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0:31:31</t>
+          <t>0:31:21</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=open_ocean_5</t>
+          <t>https://www.nationstates.net/region=open_ocean_8</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Grand Pacifica</t>
+          <t>FIRST</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1353,19 +1353,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1875</v>
+        <v>1306</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0:31:15</t>
+          <t>0:21:46</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2813</v>
+        <v>1959</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0:46:53</t>
+          <t>0:32:39</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=grand_pacifica</t>
+          <t>https://www.nationstates.net/region=first</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>CzechRepublic</t>
+          <t>Nomicas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1394,19 +1394,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1882</v>
+        <v>1318</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0:31:22</t>
+          <t>0:21:58</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2824</v>
+        <v>1976</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0:47:04</t>
+          <t>0:32:56</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1414,40 +1414,40 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=czechrepublic</t>
+          <t>https://www.nationstates.net/region=nomicas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Continent of Europia</t>
+          <t>Aerope</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1884</v>
+        <v>1349</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0:31:24</t>
+          <t>0:22:29</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2825</v>
+        <v>2024</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0:47:05</t>
+          <t>0:33:44</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1455,40 +1455,40 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=continent_of_europia</t>
+          <t>https://www.nationstates.net/region=aerope</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Union of Confederate Regions</t>
+          <t>Palos</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1928</v>
+        <v>1353</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0:32:08</t>
+          <t>0:22:33</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2892</v>
+        <v>2030</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0:48:12</t>
+          <t>0:33:50</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1496,40 +1496,40 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
+          <t>https://www.nationstates.net/region=palos</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Sparkalia</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Raven Isle</t>
+          <t>Kyorgia puppet storage</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1952</v>
+        <v>1355</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0:32:32</t>
+          <t>0:22:35</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2928</v>
+        <v>2033</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0:48:48</t>
+          <t>0:33:53</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1537,40 +1537,40 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=raven_isle</t>
+          <t>https://www.nationstates.net/region=kyorgia_puppet_storage</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NPA</t>
+          <t>EPSA, Lily, Osiris, TBH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Regional Officers</t>
+          <t>Open Ocean 5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1969</v>
+        <v>1358</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0:32:49</t>
+          <t>0:22:38</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2954</v>
+        <v>2037</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0:49:14</t>
+          <t>0:33:57</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1578,40 +1578,40 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=regional_officers</t>
+          <t>https://www.nationstates.net/region=open_ocean_5</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>The lemon hub</t>
+          <t>CzechRepublic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WFE, Embassies</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2099</v>
+        <v>1923</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0:34:59</t>
+          <t>0:32:03</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3149</v>
+        <v>2884</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0:52:29</t>
+          <t>0:48:04</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1619,40 +1619,40 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_lemon_hub</t>
+          <t>https://www.nationstates.net/region=czechrepublic</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>NPA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Room 319 Coalition</t>
+          <t>Laumatopia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>RO, Embassies</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2100</v>
+        <v>1927</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0:35:00</t>
+          <t>0:32:07</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3150</v>
+        <v>2890</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0:52:30</t>
+          <t>0:48:10</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1660,19 +1660,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=room_319_coalition</t>
+          <t>https://www.nationstates.net/region=laumatopia</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>BoM, Osiris, Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>The Brotherhood of Malice Girl Scouts</t>
+          <t>Union of Confederate Regions</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1681,19 +1681,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2310</v>
+        <v>1968</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:32:48</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3466</v>
+        <v>2952</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0:57:46</t>
+          <t>0:49:12</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1701,19 +1701,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
+          <t>https://www.nationstates.net/region=union_of_confederate_regions</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Sparkalia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Cretanja Queendom</t>
+          <t>Regional Officers</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1722,19 +1722,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2350</v>
+        <v>2006</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0:39:10</t>
+          <t>0:33:26</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3525</v>
+        <v>3008</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0:58:45</t>
+          <t>0:50:08</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1742,40 +1742,40 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=cretanja_queendom</t>
+          <t>https://www.nationstates.net/region=regional_officers</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Osiris</t>
+          <t>TCB</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>The Collective</t>
+          <t>The lemon hub</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>WFE, Embassies</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2356</v>
+        <v>2117</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0:39:16</t>
+          <t>0:35:17</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3534</v>
+        <v>3176</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0:58:54</t>
+          <t>0:52:56</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=the_collective</t>
+          <t>https://www.nationstates.net/region=the_lemon_hub</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>Lily, TBH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Malphe</t>
+          <t>The Brotherhood of Malice Girl Scouts</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1804,19 +1804,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2697</v>
+        <v>2316</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0:44:57</t>
+          <t>0:38:36</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4046</v>
+        <v>3474</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1:07:26</t>
+          <t>0:57:54</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1824,40 +1824,40 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=malphe</t>
+          <t>https://www.nationstates.net/region=the_brotherhood_of_malice_girl_scouts</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Lily, Osiris</t>
+          <t>BoM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Submissive and Raidable</t>
+          <t>Cretanja Queendom</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WFE</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2925</v>
+        <v>2351</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0:48:45</t>
+          <t>0:39:11</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4388</v>
+        <v>3527</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1:13:08</t>
+          <t>0:58:47</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1865,19 +1865,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=submissive_and_raidable</t>
+          <t>https://www.nationstates.net/region=cretanja_queendom</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BoM</t>
+          <t>Osiris</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Eastern American Union</t>
+          <t>The Collective</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2985</v>
+        <v>2356</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0:49:45</t>
+          <t>0:39:16</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4477</v>
+        <v>3534</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1:14:37</t>
+          <t>0:58:54</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1906,40 +1906,40 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=eastern_american_union</t>
+          <t>https://www.nationstates.net/region=the_collective</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Lily, TBH</t>
+          <t>Lily</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>New East Berlin</t>
+          <t>Malphe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3037</v>
+        <v>2686</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0:50:37</t>
+          <t>0:44:46</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4555</v>
+        <v>4028</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1:15:55</t>
+          <t>1:07:08</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1947,40 +1947,40 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=new_east_berlin</t>
+          <t>https://www.nationstates.net/region=malphe</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Lily, Osiris</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Paballo</t>
+          <t>Airspace</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>Embassies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3037</v>
+        <v>2901</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0:50:37</t>
+          <t>0:48:21</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4556</v>
+        <v>4351</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1:15:56</t>
+          <t>1:12:31</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1988,19 +1988,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.nationstates.net/region=paballo</t>
+          <t>https://www.nationstates.net/region=airspace</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>TBH</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>notas region</t>
+          <t>Submissive and Raidable</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2009,19 +2009,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3039</v>
+        <v>2909</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0:50:39</t>
+          <t>0:48:29</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4558</v>
+        <v>4363</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1:15:58</t>
+ 